--- a/horarioUnificado_con_mofis.xlsx
+++ b/horarioUnificado_con_mofis.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="104">
   <si>
     <t>SIGLA ATCO</t>
   </si>
@@ -157,18 +157,12 @@
     <t>TROP</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>DESC</t>
   </si>
   <si>
     <t>COMS</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>HLG</t>
   </si>
   <si>
@@ -359,6 +353,12 @@
   </si>
   <si>
     <t>TANR</t>
+  </si>
+  <si>
+    <t>LIBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:TZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -962,32 +963,32 @@
       <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>36</v>
+      <c r="F2" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
+        <v>102</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>33</v>
@@ -1005,618 +1006,617 @@
         <v>35</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="K3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="P3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="V3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="N4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="T4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="19" t="s">
+      <c r="U4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="X4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB4" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AG4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="O5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="X5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="AA5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="AD5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="AF5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="O6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="W6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Z6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC6" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AD6" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AF6" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG6" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="V7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF8" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>35</v>
@@ -1624,166 +1624,166 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="O9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="Q9" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="W9" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="P10" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1791,429 +1791,432 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W11" s="14" t="s">
+      <c r="AD11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="X11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="15" t="s">
-        <v>43</v>
+      <c r="AE11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="15" t="s">
+      <c r="W12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="AD12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="S14" s="14" t="s">
+      <c r="AA14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="T14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="AF14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>67</v>
-      </c>
       <c r="AB15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>35</v>
@@ -2221,253 +2224,262 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF16" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" t="s">
-        <v>57</v>
-      </c>
-      <c r="T16" t="s">
-        <v>61</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Y17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>103</v>
       </c>
       <c r="AB17" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE17" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>44</v>
+      <c r="D18" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>44</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="AA18" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="AB18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AF18" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -2476,533 +2488,542 @@
         <v>35</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="N19" t="s">
-        <v>67</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="S19" s="15" t="s">
+      <c r="V19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="Y19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AA19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="AC19" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="AD19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="N20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="S20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" t="s">
+        <v>72</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L20" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="AE20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF20" t="s">
         <v>68</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>74</v>
-      </c>
-      <c r="R20" t="s">
-        <v>70</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" t="s">
-        <v>70</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="W20" t="s">
-        <v>74</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="N21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" t="s">
+        <v>72</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M21" t="s">
-        <v>88</v>
-      </c>
-      <c r="N21" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V21" t="s">
-        <v>74</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>70</v>
-      </c>
       <c r="AC21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" t="s">
-        <v>85</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="Z22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
         <v>68</v>
       </c>
-      <c r="L23" t="s">
-        <v>70</v>
-      </c>
       <c r="O23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" t="s">
+        <v>72</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="X23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s">
-        <v>88</v>
-      </c>
-      <c r="U23" t="s">
-        <v>74</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="X23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>70</v>
-      </c>
       <c r="AF23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" t="s">
         <v>68</v>
       </c>
-      <c r="F24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="Q24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="T24" t="s">
+        <v>82</v>
+      </c>
+      <c r="U24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="X24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="S24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T24" t="s">
-        <v>84</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W24" t="s">
-        <v>70</v>
-      </c>
-      <c r="X24" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="Z24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AC24" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>35</v>
@@ -3010,106 +3031,106 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" t="s">
         <v>68</v>
       </c>
-      <c r="I25" t="s">
+      <c r="R25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s">
+        <v>68</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="AA25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" t="s">
-        <v>87</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>70</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="AD25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V25" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE25" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="AF25" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26">
-        <f>COUNTBLANK(B22)+COUNTIF(B22,"&lt;&gt;")-COUNTIF(B22,"ACHC")-COUNTIF(B22,"AENT")-COUNTIF(B22,"AINS")-COUNTIF(B22,"ATC")-COUNTIF(B22,"CAPA")-COUNTIF(B22,"CERT")-COUNTIF(B22,"CET")-COUNTIF(B22,"CMED")-COUNTIF(B22,"COME")-COUNTIF(B22,"COMS")-COUNTIF(B22,"COMT")-COUNTIF(B22,"DESC")-COUNTIF(B22,"KATC")-COUNTIF(B22,"LICR")-COUNTIF(B22,"MATF")-COUNTIF(B22,"MCAE")-COUNTIF(B22,"MCHC")-COUNTIF(B22,"MCOR")-COUNTIF(B22,"MDBM")-COUNTIF(B22,"MDOC")-COUNTIF(B22,"MENT")-COUNTIF(B22,"MGST")-COUNTIF(B22,"MINS")-COUNTIF(B22,"MOFI")-COUNTIF(B22,"MPRO")-COUNTIF(B22,"MSMS")-COUNTIF(B22,"NCHC")-COUNTIF(B22,"NENT")-COUNTIF(B22,"NINS")-COUNTIF(B22,"SIND")-COUNTIF(B22,"TATF")-COUNTIF(B22,"TCAE")-COUNTIF(B22,"TCHC")-COUNTIF(B22,"TCOR")-COUNTIF(B22,"TDBM")-COUNTIF(B22,"TDOC")-COUNTIF(B22,"TENT")-COUNTIF(B22,"TGST")-COUNTIF(B22,"TINS")-COUNTIF(B22,"TOFI")-COUNTIF(B22,"TPRO")-COUNTIF(B22,"TROP")-COUNTIF(B22,"TSMS")-COUNTIF(B22,"VACA")-COUNTIF(B22,"X")-COUNTIF(B22,"XATC")-COUNTIF(B22,"YATC")-COUNTIF(B22,"ZATC")+COUNTBLANK(B25)+COUNTIF(B25,"&lt;&gt;")-COUNTIF(B25,"ACHC")-COUNTIF(B25,"AENT")-COUNTIF(B25,"AINS")-COUNTIF(B25,"ATC")-COUNTIF(B25,"CAPA")-COUNTIF(B25,"CERT")-COUNTIF(B25,"CET")-COUNTIF(B25,"CMED")-COUNTIF(B25,"COME")-COUNTIF(B25,"COMS")-COUNTIF(B25,"COMT")-COUNTIF(B25,"DESC")-COUNTIF(B25,"KATC")-COUNTIF(B25,"LICR")-COUNTIF(B25,"MATF")-COUNTIF(B25,"MCAE")-COUNTIF(B25,"MCHC")-COUNTIF(B25,"MCOR")-COUNTIF(B25,"MDBM")-COUNTIF(B25,"MDOC")-COUNTIF(B25,"MENT")-COUNTIF(B25,"MGST")-COUNTIF(B25,"MINS")-COUNTIF(B25,"MOFI")-COUNTIF(B25,"MPRO")-COUNTIF(B25,"MSMS")-COUNTIF(B25,"NCHC")-COUNTIF(B25,"NENT")-COUNTIF(B25,"NINS")-COUNTIF(B25,"SIND")-COUNTIF(B25,"TATF")-COUNTIF(B25,"TCAE")-COUNTIF(B25,"TCHC")-COUNTIF(B25,"TCOR")-COUNTIF(B25,"TDBM")-COUNTIF(B25,"TDOC")-COUNTIF(B25,"TENT")-COUNTIF(B25,"TGST")-COUNTIF(B25,"TINS")-COUNTIF(B25,"TOFI")-COUNTIF(B25,"TPRO")-COUNTIF(B25,"TROP")-COUNTIF(B25,"TSMS")-COUNTIF(B25,"VACA")-COUNTIF(B25,"X")-COUNTIF(B25,"XATC")-COUNTIF(B25,"YATC")-COUNTIF(B25,"ZATC")+COUNTBLANK(B20)+COUNTIF(B20,"&lt;&gt;")-COUNTIF(B20,"ACHC")-COUNTIF(B20,"AENT")-COUNTIF(B20,"AINS")-COUNTIF(B20,"ATC")-COUNTIF(B20,"CAPA")-COUNTIF(B20,"CERT")-COUNTIF(B20,"CET")-COUNTIF(B20,"CMED")-COUNTIF(B20,"COME")-COUNTIF(B20,"COMS")-COUNTIF(B20,"COMT")-COUNTIF(B20,"DESC")-COUNTIF(B20,"KATC")-COUNTIF(B20,"LICR")-COUNTIF(B20,"MATF")-COUNTIF(B20,"MCAE")-COUNTIF(B20,"MCHC")-COUNTIF(B20,"MCOR")-COUNTIF(B20,"MDBM")-COUNTIF(B20,"MDOC")-COUNTIF(B20,"MENT")-COUNTIF(B20,"MGST")-COUNTIF(B20,"MINS")-COUNTIF(B20,"MOFI")-COUNTIF(B20,"MPRO")-COUNTIF(B20,"MSMS")-COUNTIF(B20,"NCHC")-COUNTIF(B20,"NENT")-COUNTIF(B20,"NINS")-COUNTIF(B20,"SIND")-COUNTIF(B20,"TATF")-COUNTIF(B20,"TCAE")-COUNTIF(B20,"TCHC")-COUNTIF(B20,"TCOR")-COUNTIF(B20,"TDBM")-COUNTIF(B20,"TDOC")-COUNTIF(B20,"TENT")-COUNTIF(B20,"TGST")-COUNTIF(B20,"TINS")-COUNTIF(B20,"TOFI")-COUNTIF(B20,"TPRO")-COUNTIF(B20,"TROP")-COUNTIF(B20,"TSMS")-COUNTIF(B20,"VACA")-COUNTIF(B20,"X")-COUNTIF(B20,"XATC")-COUNTIF(B20,"YATC")-COUNTIF(B20,"ZATC")+COUNTBLANK(B23)+COUNTIF(B23,"&lt;&gt;")-COUNTIF(B23,"ACHC")-COUNTIF(B23,"AENT")-COUNTIF(B23,"AINS")-COUNTIF(B23,"ATC")-COUNTIF(B23,"CAPA")-COUNTIF(B23,"CERT")-COUNTIF(B23,"CET")-COUNTIF(B23,"CMED")-COUNTIF(B23,"COME")-COUNTIF(B23,"COMS")-COUNTIF(B23,"COMT")-COUNTIF(B23,"DESC")-COUNTIF(B23,"KATC")-COUNTIF(B23,"LICR")-COUNTIF(B23,"MATF")-COUNTIF(B23,"MCAE")-COUNTIF(B23,"MCHC")-COUNTIF(B23,"MCOR")-COUNTIF(B23,"MDBM")-COUNTIF(B23,"MDOC")-COUNTIF(B23,"MENT")-COUNTIF(B23,"MGST")-COUNTIF(B23,"MINS")-COUNTIF(B23,"MOFI")-COUNTIF(B23,"MPRO")-COUNTIF(B23,"MSMS")-COUNTIF(B23,"NCHC")-COUNTIF(B23,"NENT")-COUNTIF(B23,"NINS")-COUNTIF(B23,"SIND")-COUNTIF(B23,"TATF")-COUNTIF(B23,"TCAE")-COUNTIF(B23,"TCHC")-COUNTIF(B23,"TCOR")-COUNTIF(B23,"TDBM")-COUNTIF(B23,"TDOC")-COUNTIF(B23,"TENT")-COUNTIF(B23,"TGST")-COUNTIF(B23,"TINS")-COUNTIF(B23,"TOFI")-COUNTIF(B23,"TPRO")-COUNTIF(B23,"TROP")-COUNTIF(B23,"TSMS")-COUNTIF(B23,"VACA")-COUNTIF(B23,"X")-COUNTIF(B23,"XATC")-COUNTIF(B23,"YATC")-COUNTIF(B23,"ZATC")+COUNTBLANK(B21)+COUNTIF(B21,"&lt;&gt;")-COUNTIF(B21,"ACHC")-COUNTIF(B21,"AENT")-COUNTIF(B21,"AINS")-COUNTIF(B21,"ATC")-COUNTIF(B21,"CAPA")-COUNTIF(B21,"CERT")-COUNTIF(B21,"CET")-COUNTIF(B21,"CMED")-COUNTIF(B21,"COME")-COUNTIF(B21,"COMS")-COUNTIF(B21,"COMT")-COUNTIF(B21,"DESC")-COUNTIF(B21,"KATC")-COUNTIF(B21,"LICR")-COUNTIF(B21,"MATF")-COUNTIF(B21,"MCAE")-COUNTIF(B21,"MCHC")-COUNTIF(B21,"MCOR")-COUNTIF(B21,"MDBM")-COUNTIF(B21,"MDOC")-COUNTIF(B21,"MENT")-COUNTIF(B21,"MGST")-COUNTIF(B21,"MINS")-COUNTIF(B21,"MOFI")-COUNTIF(B21,"MPRO")-COUNTIF(B21,"MSMS")-COUNTIF(B21,"NCHC")-COUNTIF(B21,"NENT")-COUNTIF(B21,"NINS")-COUNTIF(B21,"SIND")-COUNTIF(B21,"TATF")-COUNTIF(B21,"TCAE")-COUNTIF(B21,"TCHC")-COUNTIF(B21,"TCOR")-COUNTIF(B21,"TDBM")-COUNTIF(B21,"TDOC")-COUNTIF(B21,"TENT")-COUNTIF(B21,"TGST")-COUNTIF(B21,"TINS")-COUNTIF(B21,"TOFI")-COUNTIF(B21,"TPRO")-COUNTIF(B21,"TROP")-COUNTIF(B21,"TSMS")-COUNTIF(B21,"VACA")-COUNTIF(B21,"X")-COUNTIF(B21,"XATC")-COUNTIF(B21,"YATC")-COUNTIF(B21,"ZATC")+COUNTBLANK(B24)+COUNTIF(B24,"&lt;&gt;")-COUNTIF(B24,"ACHC")-COUNTIF(B24,"AENT")-COUNTIF(B24,"AINS")-COUNTIF(B24,"ATC")-COUNTIF(B24,"CAPA")-COUNTIF(B24,"CERT")-COUNTIF(B24,"CET")-COUNTIF(B24,"CMED")-COUNTIF(B24,"COME")-COUNTIF(B24,"COMS")-COUNTIF(B24,"COMT")-COUNTIF(B24,"DESC")-COUNTIF(B24,"KATC")-COUNTIF(B24,"LICR")-COUNTIF(B24,"MATF")-COUNTIF(B24,"MCAE")-COUNTIF(B24,"MCHC")-COUNTIF(B24,"MCOR")-COUNTIF(B24,"MDBM")-COUNTIF(B24,"MDOC")-COUNTIF(B24,"MENT")-COUNTIF(B24,"MGST")-COUNTIF(B24,"MINS")-COUNTIF(B24,"MOFI")-COUNTIF(B24,"MPRO")-COUNTIF(B24,"MSMS")-COUNTIF(B24,"NCHC")-COUNTIF(B24,"NENT")-COUNTIF(B24,"NINS")-COUNTIF(B24,"SIND")-COUNTIF(B24,"TATF")-COUNTIF(B24,"TCAE")-COUNTIF(B24,"TCHC")-COUNTIF(B24,"TCOR")-COUNTIF(B24,"TDBM")-COUNTIF(B24,"TDOC")-COUNTIF(B24,"TENT")-COUNTIF(B24,"TGST")-COUNTIF(B24,"TINS")-COUNTIF(B24,"TOFI")-COUNTIF(B24,"TPRO")-COUNTIF(B24,"TROP")-COUNTIF(B24,"TSMS")-COUNTIF(B24,"VACA")-COUNTIF(B24,"X")-COUNTIF(B24,"XATC")-COUNTIF(B24,"YATC")-COUNTIF(B24,"ZATC")</f>
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="B26" t="e">
+        <f>COUNTBLANK(B21)+COUNTIF(B21,"&lt;&gt;")-COUNTIF(B21,"ACHC")-COUNTIF(B21,"AENT")-COUNTIF(B21,"AINS")-COUNTIF(B21,"ATC")-COUNTIF(B21,"CAPA")-COUNTIF(B21,"CERT")-COUNTIF(B21,"CET")-COUNTIF(B21,"CMED")-COUNTIF(B21,"COME")-COUNTIF(B21,"COMS")-COUNTIF(B21,"COMT")-COUNTIF(B21,"DESC")-COUNTIF(B21,"KATC")-COUNTIF(B21,"LICR")-COUNTIF(B21,"MATF")-COUNTIF(B21,"MCAE")-COUNTIF(B21,"MCHC")-COUNTIF(B21,"MCOR")-COUNTIF(B21,"MDBM")-COUNTIF(B21,"MDOC")-COUNTIF(B21,"MENT")-COUNTIF(B21,"MGST")-COUNTIF(B21,"MINS")-COUNTIF(B21,"MOFI")-COUNTIF(B21,"MPRO")-COUNTIF(B21,"MSMS")-COUNTIF(B21,"NCHC")-COUNTIF(B21,"NENT")-COUNTIF(B21,"NINS")-COUNTIF(B21,"SIND")-COUNTIF(B21,"TATF")-COUNTIF(B21,"TCAE")-COUNTIF(B21,"TCHC")-COUNTIF(B21,"TCOR")-COUNTIF(B21,"TDBM")-COUNTIF(B21,"TDOC")-COUNTIF(B21,"TENT")-COUNTIF(B21,"TGST")-COUNTIF(B21,"TINS")-COUNTIF(B21,"TOFI")-COUNTIF(B21,"TPRO")-COUNTIF(B21,"TROP")-COUNTIF(B21,"TSMS")-COUNTIF(B21,"VACA")-COUNTIF(B21,"X")-COUNTIF(B21,"XATC")-COUNTIF(B21,"YATC")-COUNTIF(B21,"ZATC")+COUNTBLANK(B25)+COUNTIF(B25,"&lt;&gt;")-COUNTIF(B25,"ACHC")-COUNTIF(B25,"AENT")-COUNTIF(B25,"AINS")-COUNTIF(B25,"ATC")-COUNTIF(B25,"CAPA")-COUNTIF(B25,"CERT")-COUNTIF(B25,"CET")-COUNTIF(B25,"CMED")-COUNTIF(B25,"COME")-COUNTIF(B25,"COMS")-COUNTIF(B25,"COMT")-COUNTIF(B25,"DESC")-COUNTIF(B25,"KATC")-COUNTIF(B25,"LICR")-COUNTIF(B25,"MATF")-COUNTIF(B25,"MCAE")-COUNTIF(B25,"MCHC")-COUNTIF(B25,"MCOR")-COUNTIF(B25,"MDBM")-COUNTIF(B25,"MDOC")-COUNTIF(B25,"MENT")-COUNTIF(B25,"MGST")-COUNTIF(B25,"MINS")-COUNTIF(B25,"MOFI")-COUNTIF(B25,"MPRO")-COUNTIF(B25,"MSMS")-COUNTIF(B25,"NCHC")-COUNTIF(B25,"NENT")-COUNTIF(B25,"NINS")-COUNTIF(B25,"SIND")-COUNTIF(B25,"TATF")-COUNTIF(B25,"TCAE")-COUNTIF(B25,"TCHC")-COUNTIF(B25,"TCOR")-COUNTIF(B25,"TDBM")-COUNTIF(B25,"TDOC")-COUNTIF(B25,"TENT")-COUNTIF(B25,"TGST")-COUNTIF(B25,"TINS")-COUNTIF(B25,"TOFI")-COUNTIF(B25,"TPRO")-COUNTIF(B25,"TROP")-COUNTIF(B25,"TSMS")-COUNTIF(B25,"VACA")-COUNTIF(B25,"X")-COUNTIF(B25,"XATC")-COUNTIF(B25,"YATC")-COUNTIF(B25,"ZATC")+COUNTBLANK(B20)+COUNTIF(B20,"&lt;&gt;")-COUNTIF(B20,"ACHC")-COUNTIF(B20,"AENT")-COUNTIF(B20,"AINS")-COUNTIF(B20,"ATC")-COUNTIF(B20,"CAPA")-COUNTIF(B20,"CERT")-COUNTIF(B20,"CET")-COUNTIF(B20,"CMED")-COUNTIF(B20,"COME")-COUNTIF(B20,"COMS")-COUNTIF(B20,"COMT")-COUNTIF(B20,"DESC")-COUNTIF(B20,"KATC")-COUNTIF(B20,"LICR")-COUNTIF(B20,"MATF")-COUNTIF(B20,"MCAE")-COUNTIF(B20,"MCHC")-COUNTIF(B20,"MCOR")-COUNTIF(B20,"MDBM")-COUNTIF(B20,"MDOC")-COUNTIF(B20,"MENT")-COUNTIF(B20,"MGST")-COUNTIF(B20,"MINS")-COUNTIF(B20,"MOFI")-COUNTIF(B20,"MPRO")-COUNTIF(B20,"MSMS")-COUNTIF(B20,"NCHC")-COUNTIF(B20,"NENT")-COUNTIF(B20,"NINS")-COUNTIF(B20,"SIND")-COUNTIF(B20,"TATF")-COUNTIF(B20,"TCAE")-COUNTIF(B20,"TCHC")-COUNTIF(B20,"TCOR")-COUNTIF(B20,"TDBM")-COUNTIF(B20,"TDOC")-COUNTIF(B20,"TENT")-COUNTIF(B20,"TGST")-COUNTIF(B20,"TINS")-COUNTIF(B20,"TOFI")-COUNTIF(B20,"TPRO")-COUNTIF(B20,"TROP")-COUNTIF(B20,"TSMS")-COUNTIF(B20,"VACA")-COUNTIF(B20,"X")-COUNTIF(B20,"XATC")-COUNTIF(B20,"YATC")-COUNTIF(B20,"ZATC")+COUNTBLANK(B23)+COUNTIF(B23,"&lt;&gt;")-COUNTIF(B23,"ACHC")-COUNTIF(B23,"AENT")-COUNTIF(B23,"AINS")-COUNTIF(B23,"ATC")-COUNTIF(B23,"CAPA")-COUNTIF(B23,"CERT")-COUNTIF(B23,"CET")-COUNTIF(B23,"CMED")-COUNTIF(B23,"COME")-COUNTIF(B23,"COMS")-COUNTIF(B23,"COMT")-COUNTIF(B23,"DESC")-COUNTIF(B23,"KATC")-COUNTIF(B23,"LICR")-COUNTIF(B23,"MATF")-COUNTIF(B23,"MCAE")-COUNTIF(B23,"MCHC")-COUNTIF(B23,"MCOR")-COUNTIF(B23,"MDBM")-COUNTIF(B23,"MDOC")-COUNTIF(B23,"MENT")-COUNTIF(B23,"MGST")-COUNTIF(B23,"MINS")-COUNTIF(B23,"MOFI")-COUNTIF(B23,"MPRO")-COUNTIF(B23,"MSMS")-COUNTIF(B23,"NCHC")-COUNTIF(B23,"NENT")-COUNTIF(B23,"NINS")-COUNTIF(B23,"SIND")-COUNTIF(B23,"TATF")-COUNTIF(B23,"TCAE")-COUNTIF(B23,"TCHC")-COUNTIF(B23,"TCOR")-COUNTIF(B23,"TDBM")-COUNTIF(B23,"TDOC")-COUNTIF(B23,"TENT")-COUNTIF(B23,"TGST")-COUNTIF(B23,"TINS")-COUNTIF(B23,"TOFI")-COUNTIF(B23,"TPRO")-COUNTIF(B23,"TROP")-COUNTIF(B23,"TSMS")-COUNTIF(B23,"VACA")-COUNTIF(B23,"X")-COUNTIF(B23,"XATC")-COUNTIF(B23,"YATC")-COUNTIF(B23,"ZATC")+COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(B24)+COUNTIF(B24,"&lt;&gt;")-COUNTIF(B24,"ACHC")-COUNTIF(B24,"AENT")-COUNTIF(B24,"AINS")-COUNTIF(B24,"ATC")-COUNTIF(B24,"CAPA")-COUNTIF(B24,"CERT")-COUNTIF(B24,"CET")-COUNTIF(B24,"CMED")-COUNTIF(B24,"COME")-COUNTIF(B24,"COMS")-COUNTIF(B24,"COMT")-COUNTIF(B24,"DESC")-COUNTIF(B24,"KATC")-COUNTIF(B24,"LICR")-COUNTIF(B24,"MATF")-COUNTIF(B24,"MCAE")-COUNTIF(B24,"MCHC")-COUNTIF(B24,"MCOR")-COUNTIF(B24,"MDBM")-COUNTIF(B24,"MDOC")-COUNTIF(B24,"MENT")-COUNTIF(B24,"MGST")-COUNTIF(B24,"MINS")-COUNTIF(B24,"MOFI")-COUNTIF(B24,"MPRO")-COUNTIF(B24,"MSMS")-COUNTIF(B24,"NCHC")-COUNTIF(B24,"NENT")-COUNTIF(B24,"NINS")-COUNTIF(B24,"SIND")-COUNTIF(B24,"TATF")-COUNTIF(B24,"TCAE")-COUNTIF(B24,"TCHC")-COUNTIF(B24,"TCOR")-COUNTIF(B24,"TDBM")-COUNTIF(B24,"TDOC")-COUNTIF(B24,"TENT")-COUNTIF(B24,"TGST")-COUNTIF(B24,"TINS")-COUNTIF(B24,"TOFI")-COUNTIF(B24,"TPRO")-COUNTIF(B24,"TROP")-COUNTIF(B24,"TSMS")-COUNTIF(B24,"VACA")-COUNTIF(B24,"X")-COUNTIF(B24,"XATC")-COUNTIF(B24,"YATC")-COUNTIF(B24,"ZATC")</f>
+        <v>#REF!</v>
       </c>
       <c r="C26" t="e">
-        <f>COUNTBLANK(C22)+COUNTIF(C22,"&lt;&gt;")-COUNTIF(C22,"ACHC")-COUNTIF(C22,"AENT")-COUNTIF(C22,"AINS")-COUNTIF(C22,"ATC")-COUNTIF(C22,"CAPA")-COUNTIF(C22,"CERT")-COUNTIF(C22,"CET")-COUNTIF(C22,"CMED")-COUNTIF(C22,"COME")-COUNTIF(C22,"COMS")-COUNTIF(C22,"COMT")-COUNTIF(C22,"DESC")-COUNTIF(C22,"KATC")-COUNTIF(C22,"LICR")-COUNTIF(C22,"MATF")-COUNTIF(C22,"MCAE")-COUNTIF(C22,"MCHC")-COUNTIF(C22,"MCOR")-COUNTIF(C22,"MDBM")-COUNTIF(C22,"MDOC")-COUNTIF(C22,"MENT")-COUNTIF(C22,"MGST")-COUNTIF(C22,"MINS")-COUNTIF(C22,"MOFI")-COUNTIF(C22,"MPRO")-COUNTIF(C22,"MSMS")-COUNTIF(C22,"NCHC")-COUNTIF(C22,"NENT")-COUNTIF(C22,"NINS")-COUNTIF(C22,"SIND")-COUNTIF(C22,"TATF")-COUNTIF(C22,"TCAE")-COUNTIF(C22,"TCHC")-COUNTIF(C22,"TCOR")-COUNTIF(C22,"TDBM")-COUNTIF(C22,"TDOC")-COUNTIF(C22,"TENT")-COUNTIF(C22,"TGST")-COUNTIF(C22,"TINS")-COUNTIF(C22,"TOFI")-COUNTIF(C22,"TPRO")-COUNTIF(C22,"TROP")-COUNTIF(C22,"TSMS")-COUNTIF(C22,"VACA")-COUNTIF(C22,"X")-COUNTIF(C22,"XATC")-COUNTIF(C22,"YATC")-COUNTIF(C22,"ZATC")+COUNTBLANK(C25)+COUNTIF(C25,"&lt;&gt;")-COUNTIF(C25,"ACHC")-COUNTIF(C25,"AENT")-COUNTIF(C25,"AINS")-COUNTIF(C25,"ATC")-COUNTIF(C25,"CAPA")-COUNTIF(C25,"CERT")-COUNTIF(C25,"CET")-COUNTIF(C25,"CMED")-COUNTIF(C25,"COME")-COUNTIF(C25,"COMS")-COUNTIF(C25,"COMT")-COUNTIF(C25,"DESC")-COUNTIF(C25,"KATC")-COUNTIF(C25,"LICR")-COUNTIF(C25,"MATF")-COUNTIF(C25,"MCAE")-COUNTIF(C25,"MCHC")-COUNTIF(C25,"MCOR")-COUNTIF(C25,"MDBM")-COUNTIF(C25,"MDOC")-COUNTIF(C25,"MENT")-COUNTIF(C25,"MGST")-COUNTIF(C25,"MINS")-COUNTIF(C25,"MOFI")-COUNTIF(C25,"MPRO")-COUNTIF(C25,"MSMS")-COUNTIF(C25,"NCHC")-COUNTIF(C25,"NENT")-COUNTIF(C25,"NINS")-COUNTIF(C25,"SIND")-COUNTIF(C25,"TATF")-COUNTIF(C25,"TCAE")-COUNTIF(C25,"TCHC")-COUNTIF(C25,"TCOR")-COUNTIF(C25,"TDBM")-COUNTIF(C25,"TDOC")-COUNTIF(C25,"TENT")-COUNTIF(C25,"TGST")-COUNTIF(C25,"TINS")-COUNTIF(C25,"TOFI")-COUNTIF(C25,"TPRO")-COUNTIF(C25,"TROP")-COUNTIF(C25,"TSMS")-COUNTIF(C25,"VACA")-COUNTIF(C25,"X")-COUNTIF(C25,"XATC")-COUNTIF(C25,"YATC")-COUNTIF(C25,"ZATC")+COUNTBLANK(C20)+COUNTIF(C20,"&lt;&gt;")-COUNTIF(C20,"ACHC")-COUNTIF(C20,"AENT")-COUNTIF(C20,"AINS")-COUNTIF(C20,"ATC")-COUNTIF(C20,"CAPA")-COUNTIF(C20,"CERT")-COUNTIF(C20,"CET")-COUNTIF(C20,"CMED")-COUNTIF(C20,"COME")-COUNTIF(C20,"COMS")-COUNTIF(C20,"COMT")-COUNTIF(C20,"DESC")-COUNTIF(C20,"KATC")-COUNTIF(C20,"LICR")-COUNTIF(C20,"MATF")-COUNTIF(C20,"MCAE")-COUNTIF(C20,"MCHC")-COUNTIF(C20,"MCOR")-COUNTIF(C20,"MDBM")-COUNTIF(C20,"MDOC")-COUNTIF(C20,"MENT")-COUNTIF(C20,"MGST")-COUNTIF(C20,"MINS")-COUNTIF(C20,"MOFI")-COUNTIF(C20,"MPRO")-COUNTIF(C20,"MSMS")-COUNTIF(C20,"NCHC")-COUNTIF(C20,"NENT")-COUNTIF(C20,"NINS")-COUNTIF(C20,"SIND")-COUNTIF(C20,"TATF")-COUNTIF(C20,"TCAE")-COUNTIF(C20,"TCHC")-COUNTIF(C20,"TCOR")-COUNTIF(C20,"TDBM")-COUNTIF(C20,"TDOC")-COUNTIF(C20,"TENT")-COUNTIF(C20,"TGST")-COUNTIF(C20,"TINS")-COUNTIF(C20,"TOFI")-COUNTIF(C20,"TPRO")-COUNTIF(C20,"TROP")-COUNTIF(C20,"TSMS")-COUNTIF(C20,"VACA")-COUNTIF(C20,"X")-COUNTIF(C20,"XATC")-COUNTIF(C20,"YATC")-COUNTIF(C20,"ZATC")+COUNTBLANK(C21)+COUNTIF(C21,"&lt;&gt;")-COUNTIF(C21,"ACHC")-COUNTIF(C21,"AENT")-COUNTIF(C21,"AINS")-COUNTIF(C21,"ATC")-COUNTIF(C21,"CAPA")-COUNTIF(C21,"CERT")-COUNTIF(C21,"CET")-COUNTIF(C21,"CMED")-COUNTIF(C21,"COME")-COUNTIF(C21,"COMS")-COUNTIF(C21,"COMT")-COUNTIF(C21,"DESC")-COUNTIF(C21,"KATC")-COUNTIF(C21,"LICR")-COUNTIF(C21,"MATF")-COUNTIF(C21,"MCAE")-COUNTIF(C21,"MCHC")-COUNTIF(C21,"MCOR")-COUNTIF(C21,"MDBM")-COUNTIF(C21,"MDOC")-COUNTIF(C21,"MENT")-COUNTIF(C21,"MGST")-COUNTIF(C21,"MINS")-COUNTIF(C21,"MOFI")-COUNTIF(C21,"MPRO")-COUNTIF(C21,"MSMS")-COUNTIF(C21,"NCHC")-COUNTIF(C21,"NENT")-COUNTIF(C21,"NINS")-COUNTIF(C21,"SIND")-COUNTIF(C21,"TATF")-COUNTIF(C21,"TCAE")-COUNTIF(C21,"TCHC")-COUNTIF(C21,"TCOR")-COUNTIF(C21,"TDBM")-COUNTIF(C21,"TDOC")-COUNTIF(C21,"TENT")-COUNTIF(C21,"TGST")-COUNTIF(C21,"TINS")-COUNTIF(C21,"TOFI")-COUNTIF(C21,"TPRO")-COUNTIF(C21,"TROP")-COUNTIF(C21,"TSMS")-COUNTIF(C21,"VACA")-COUNTIF(C21,"X")-COUNTIF(C21,"XATC")-COUNTIF(C21,"YATC")-COUNTIF(C21,"ZATC")+COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(C24)+COUNTIF(C24,"&lt;&gt;")-COUNTIF(C24,"ACHC")-COUNTIF(C24,"AENT")-COUNTIF(C24,"AINS")-COUNTIF(C24,"ATC")-COUNTIF(C24,"CAPA")-COUNTIF(C24,"CERT")-COUNTIF(C24,"CET")-COUNTIF(C24,"CMED")-COUNTIF(C24,"COME")-COUNTIF(C24,"COMS")-COUNTIF(C24,"COMT")-COUNTIF(C24,"DESC")-COUNTIF(C24,"KATC")-COUNTIF(C24,"LICR")-COUNTIF(C24,"MATF")-COUNTIF(C24,"MCAE")-COUNTIF(C24,"MCHC")-COUNTIF(C24,"MCOR")-COUNTIF(C24,"MDBM")-COUNTIF(C24,"MDOC")-COUNTIF(C24,"MENT")-COUNTIF(C24,"MGST")-COUNTIF(C24,"MINS")-COUNTIF(C24,"MOFI")-COUNTIF(C24,"MPRO")-COUNTIF(C24,"MSMS")-COUNTIF(C24,"NCHC")-COUNTIF(C24,"NENT")-COUNTIF(C24,"NINS")-COUNTIF(C24,"SIND")-COUNTIF(C24,"TATF")-COUNTIF(C24,"TCAE")-COUNTIF(C24,"TCHC")-COUNTIF(C24,"TCOR")-COUNTIF(C24,"TDBM")-COUNTIF(C24,"TDOC")-COUNTIF(C24,"TENT")-COUNTIF(C24,"TGST")-COUNTIF(C24,"TINS")-COUNTIF(C24,"TOFI")-COUNTIF(C24,"TPRO")-COUNTIF(C24,"TROP")-COUNTIF(C24,"TSMS")-COUNTIF(C24,"VACA")-COUNTIF(C24,"X")-COUNTIF(C24,"XATC")-COUNTIF(C24,"YATC")-COUNTIF(C24,"ZATC")</f>
+        <f>COUNTBLANK(C21)+COUNTIF(C21,"&lt;&gt;")-COUNTIF(C21,"ACHC")-COUNTIF(C21,"AENT")-COUNTIF(C21,"AINS")-COUNTIF(C21,"ATC")-COUNTIF(C21,"CAPA")-COUNTIF(C21,"CERT")-COUNTIF(C21,"CET")-COUNTIF(C21,"CMED")-COUNTIF(C21,"COME")-COUNTIF(C21,"COMS")-COUNTIF(C21,"COMT")-COUNTIF(C21,"DESC")-COUNTIF(C21,"KATC")-COUNTIF(C21,"LICR")-COUNTIF(C21,"MATF")-COUNTIF(C21,"MCAE")-COUNTIF(C21,"MCHC")-COUNTIF(C21,"MCOR")-COUNTIF(C21,"MDBM")-COUNTIF(C21,"MDOC")-COUNTIF(C21,"MENT")-COUNTIF(C21,"MGST")-COUNTIF(C21,"MINS")-COUNTIF(C21,"MOFI")-COUNTIF(C21,"MPRO")-COUNTIF(C21,"MSMS")-COUNTIF(C21,"NCHC")-COUNTIF(C21,"NENT")-COUNTIF(C21,"NINS")-COUNTIF(C21,"SIND")-COUNTIF(C21,"TATF")-COUNTIF(C21,"TCAE")-COUNTIF(C21,"TCHC")-COUNTIF(C21,"TCOR")-COUNTIF(C21,"TDBM")-COUNTIF(C21,"TDOC")-COUNTIF(C21,"TENT")-COUNTIF(C21,"TGST")-COUNTIF(C21,"TINS")-COUNTIF(C21,"TOFI")-COUNTIF(C21,"TPRO")-COUNTIF(C21,"TROP")-COUNTIF(C21,"TSMS")-COUNTIF(C21,"VACA")-COUNTIF(C21,"X")-COUNTIF(C21,"XATC")-COUNTIF(C21,"YATC")-COUNTIF(C21,"ZATC")+COUNTBLANK(C25)+COUNTIF(C25,"&lt;&gt;")-COUNTIF(C25,"ACHC")-COUNTIF(C25,"AENT")-COUNTIF(C25,"AINS")-COUNTIF(C25,"ATC")-COUNTIF(C25,"CAPA")-COUNTIF(C25,"CERT")-COUNTIF(C25,"CET")-COUNTIF(C25,"CMED")-COUNTIF(C25,"COME")-COUNTIF(C25,"COMS")-COUNTIF(C25,"COMT")-COUNTIF(C25,"DESC")-COUNTIF(C25,"KATC")-COUNTIF(C25,"LICR")-COUNTIF(C25,"MATF")-COUNTIF(C25,"MCAE")-COUNTIF(C25,"MCHC")-COUNTIF(C25,"MCOR")-COUNTIF(C25,"MDBM")-COUNTIF(C25,"MDOC")-COUNTIF(C25,"MENT")-COUNTIF(C25,"MGST")-COUNTIF(C25,"MINS")-COUNTIF(C25,"MOFI")-COUNTIF(C25,"MPRO")-COUNTIF(C25,"MSMS")-COUNTIF(C25,"NCHC")-COUNTIF(C25,"NENT")-COUNTIF(C25,"NINS")-COUNTIF(C25,"SIND")-COUNTIF(C25,"TATF")-COUNTIF(C25,"TCAE")-COUNTIF(C25,"TCHC")-COUNTIF(C25,"TCOR")-COUNTIF(C25,"TDBM")-COUNTIF(C25,"TDOC")-COUNTIF(C25,"TENT")-COUNTIF(C25,"TGST")-COUNTIF(C25,"TINS")-COUNTIF(C25,"TOFI")-COUNTIF(C25,"TPRO")-COUNTIF(C25,"TROP")-COUNTIF(C25,"TSMS")-COUNTIF(C25,"VACA")-COUNTIF(C25,"X")-COUNTIF(C25,"XATC")-COUNTIF(C25,"YATC")-COUNTIF(C25,"ZATC")+COUNTBLANK(C20)+COUNTIF(C20,"&lt;&gt;")-COUNTIF(C20,"ACHC")-COUNTIF(C20,"AENT")-COUNTIF(C20,"AINS")-COUNTIF(C20,"ATC")-COUNTIF(C20,"CAPA")-COUNTIF(C20,"CERT")-COUNTIF(C20,"CET")-COUNTIF(C20,"CMED")-COUNTIF(C20,"COME")-COUNTIF(C20,"COMS")-COUNTIF(C20,"COMT")-COUNTIF(C20,"DESC")-COUNTIF(C20,"KATC")-COUNTIF(C20,"LICR")-COUNTIF(C20,"MATF")-COUNTIF(C20,"MCAE")-COUNTIF(C20,"MCHC")-COUNTIF(C20,"MCOR")-COUNTIF(C20,"MDBM")-COUNTIF(C20,"MDOC")-COUNTIF(C20,"MENT")-COUNTIF(C20,"MGST")-COUNTIF(C20,"MINS")-COUNTIF(C20,"MOFI")-COUNTIF(C20,"MPRO")-COUNTIF(C20,"MSMS")-COUNTIF(C20,"NCHC")-COUNTIF(C20,"NENT")-COUNTIF(C20,"NINS")-COUNTIF(C20,"SIND")-COUNTIF(C20,"TATF")-COUNTIF(C20,"TCAE")-COUNTIF(C20,"TCHC")-COUNTIF(C20,"TCOR")-COUNTIF(C20,"TDBM")-COUNTIF(C20,"TDOC")-COUNTIF(C20,"TENT")-COUNTIF(C20,"TGST")-COUNTIF(C20,"TINS")-COUNTIF(C20,"TOFI")-COUNTIF(C20,"TPRO")-COUNTIF(C20,"TROP")-COUNTIF(C20,"TSMS")-COUNTIF(C20,"VACA")-COUNTIF(C20,"X")-COUNTIF(C20,"XATC")-COUNTIF(C20,"YATC")-COUNTIF(C20,"ZATC")+COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(C24)+COUNTIF(C24,"&lt;&gt;")-COUNTIF(C24,"ACHC")-COUNTIF(C24,"AENT")-COUNTIF(C24,"AINS")-COUNTIF(C24,"ATC")-COUNTIF(C24,"CAPA")-COUNTIF(C24,"CERT")-COUNTIF(C24,"CET")-COUNTIF(C24,"CMED")-COUNTIF(C24,"COME")-COUNTIF(C24,"COMS")-COUNTIF(C24,"COMT")-COUNTIF(C24,"DESC")-COUNTIF(C24,"KATC")-COUNTIF(C24,"LICR")-COUNTIF(C24,"MATF")-COUNTIF(C24,"MCAE")-COUNTIF(C24,"MCHC")-COUNTIF(C24,"MCOR")-COUNTIF(C24,"MDBM")-COUNTIF(C24,"MDOC")-COUNTIF(C24,"MENT")-COUNTIF(C24,"MGST")-COUNTIF(C24,"MINS")-COUNTIF(C24,"MOFI")-COUNTIF(C24,"MPRO")-COUNTIF(C24,"MSMS")-COUNTIF(C24,"NCHC")-COUNTIF(C24,"NENT")-COUNTIF(C24,"NINS")-COUNTIF(C24,"SIND")-COUNTIF(C24,"TATF")-COUNTIF(C24,"TCAE")-COUNTIF(C24,"TCHC")-COUNTIF(C24,"TCOR")-COUNTIF(C24,"TDBM")-COUNTIF(C24,"TDOC")-COUNTIF(C24,"TENT")-COUNTIF(C24,"TGST")-COUNTIF(C24,"TINS")-COUNTIF(C24,"TOFI")-COUNTIF(C24,"TPRO")-COUNTIF(C24,"TROP")-COUNTIF(C24,"TSMS")-COUNTIF(C24,"VACA")-COUNTIF(C24,"X")-COUNTIF(C24,"XATC")-COUNTIF(C24,"YATC")-COUNTIF(C24,"ZATC")</f>
         <v>#REF!</v>
       </c>
       <c r="D26">
@@ -3152,9 +3173,9 @@
         <f>COUNTBLANK(M22)+COUNTIF(M22,"&lt;&gt;")-COUNTIF(M22,"ACHC")-COUNTIF(M22,"AENT")-COUNTIF(M22,"AINS")-COUNTIF(M22,"ATC")-COUNTIF(M22,"CAPA")-COUNTIF(M22,"CERT")-COUNTIF(M22,"CET")-COUNTIF(M22,"CMED")-COUNTIF(M22,"COME")-COUNTIF(M22,"COMS")-COUNTIF(M22,"COMT")-COUNTIF(M22,"DESC")-COUNTIF(M22,"KATC")-COUNTIF(M22,"LICR")-COUNTIF(M22,"MATF")-COUNTIF(M22,"MCAE")-COUNTIF(M22,"MCHC")-COUNTIF(M22,"MCOR")-COUNTIF(M22,"MDBM")-COUNTIF(M22,"MDOC")-COUNTIF(M22,"MENT")-COUNTIF(M22,"MGST")-COUNTIF(M22,"MINS")-COUNTIF(M22,"MOFI")-COUNTIF(M22,"MPRO")-COUNTIF(M22,"MSMS")-COUNTIF(M22,"NCHC")-COUNTIF(M22,"NENT")-COUNTIF(M22,"NINS")-COUNTIF(M22,"SIND")-COUNTIF(M22,"TATF")-COUNTIF(M22,"TCAE")-COUNTIF(M22,"TCHC")-COUNTIF(M22,"TCOR")-COUNTIF(M22,"TDBM")-COUNTIF(M22,"TDOC")-COUNTIF(M22,"TENT")-COUNTIF(M22,"TGST")-COUNTIF(M22,"TINS")-COUNTIF(M22,"TOFI")-COUNTIF(M22,"TPRO")-COUNTIF(M22,"TROP")-COUNTIF(M22,"TSMS")-COUNTIF(M22,"VACA")-COUNTIF(M22,"X")-COUNTIF(M22,"XATC")-COUNTIF(M22,"YATC")-COUNTIF(M22,"ZATC")+COUNTBLANK(M25)+COUNTIF(M25,"&lt;&gt;")-COUNTIF(M25,"ACHC")-COUNTIF(M25,"AENT")-COUNTIF(M25,"AINS")-COUNTIF(M25,"ATC")-COUNTIF(M25,"CAPA")-COUNTIF(M25,"CERT")-COUNTIF(M25,"CET")-COUNTIF(M25,"CMED")-COUNTIF(M25,"COME")-COUNTIF(M25,"COMS")-COUNTIF(M25,"COMT")-COUNTIF(M25,"DESC")-COUNTIF(M25,"KATC")-COUNTIF(M25,"LICR")-COUNTIF(M25,"MATF")-COUNTIF(M25,"MCAE")-COUNTIF(M25,"MCHC")-COUNTIF(M25,"MCOR")-COUNTIF(M25,"MDBM")-COUNTIF(M25,"MDOC")-COUNTIF(M25,"MENT")-COUNTIF(M25,"MGST")-COUNTIF(M25,"MINS")-COUNTIF(M25,"MOFI")-COUNTIF(M25,"MPRO")-COUNTIF(M25,"MSMS")-COUNTIF(M25,"NCHC")-COUNTIF(M25,"NENT")-COUNTIF(M25,"NINS")-COUNTIF(M25,"SIND")-COUNTIF(M25,"TATF")-COUNTIF(M25,"TCAE")-COUNTIF(M25,"TCHC")-COUNTIF(M25,"TCOR")-COUNTIF(M25,"TDBM")-COUNTIF(M25,"TDOC")-COUNTIF(M25,"TENT")-COUNTIF(M25,"TGST")-COUNTIF(M25,"TINS")-COUNTIF(M25,"TOFI")-COUNTIF(M25,"TPRO")-COUNTIF(M25,"TROP")-COUNTIF(M25,"TSMS")-COUNTIF(M25,"VACA")-COUNTIF(M25,"X")-COUNTIF(M25,"XATC")-COUNTIF(M25,"YATC")-COUNTIF(M25,"ZATC")+COUNTBLANK(M20)+COUNTIF(M20,"&lt;&gt;")-COUNTIF(M20,"ACHC")-COUNTIF(M20,"AENT")-COUNTIF(M20,"AINS")-COUNTIF(M20,"ATC")-COUNTIF(M20,"CAPA")-COUNTIF(M20,"CERT")-COUNTIF(M20,"CET")-COUNTIF(M20,"CMED")-COUNTIF(M20,"COME")-COUNTIF(M20,"COMS")-COUNTIF(M20,"COMT")-COUNTIF(M20,"DESC")-COUNTIF(M20,"KATC")-COUNTIF(M20,"LICR")-COUNTIF(M20,"MATF")-COUNTIF(M20,"MCAE")-COUNTIF(M20,"MCHC")-COUNTIF(M20,"MCOR")-COUNTIF(M20,"MDBM")-COUNTIF(M20,"MDOC")-COUNTIF(M20,"MENT")-COUNTIF(M20,"MGST")-COUNTIF(M20,"MINS")-COUNTIF(M20,"MOFI")-COUNTIF(M20,"MPRO")-COUNTIF(M20,"MSMS")-COUNTIF(M20,"NCHC")-COUNTIF(M20,"NENT")-COUNTIF(M20,"NINS")-COUNTIF(M20,"SIND")-COUNTIF(M20,"TATF")-COUNTIF(M20,"TCAE")-COUNTIF(M20,"TCHC")-COUNTIF(M20,"TCOR")-COUNTIF(M20,"TDBM")-COUNTIF(M20,"TDOC")-COUNTIF(M20,"TENT")-COUNTIF(M20,"TGST")-COUNTIF(M20,"TINS")-COUNTIF(M20,"TOFI")-COUNTIF(M20,"TPRO")-COUNTIF(M20,"TROP")-COUNTIF(M20,"TSMS")-COUNTIF(M20,"VACA")-COUNTIF(M20,"X")-COUNTIF(M20,"XATC")-COUNTIF(M20,"YATC")-COUNTIF(M20,"ZATC")+COUNTBLANK(M23)+COUNTIF(M23,"&lt;&gt;")-COUNTIF(M23,"ACHC")-COUNTIF(M23,"AENT")-COUNTIF(M23,"AINS")-COUNTIF(M23,"ATC")-COUNTIF(M23,"CAPA")-COUNTIF(M23,"CERT")-COUNTIF(M23,"CET")-COUNTIF(M23,"CMED")-COUNTIF(M23,"COME")-COUNTIF(M23,"COMS")-COUNTIF(M23,"COMT")-COUNTIF(M23,"DESC")-COUNTIF(M23,"KATC")-COUNTIF(M23,"LICR")-COUNTIF(M23,"MATF")-COUNTIF(M23,"MCAE")-COUNTIF(M23,"MCHC")-COUNTIF(M23,"MCOR")-COUNTIF(M23,"MDBM")-COUNTIF(M23,"MDOC")-COUNTIF(M23,"MENT")-COUNTIF(M23,"MGST")-COUNTIF(M23,"MINS")-COUNTIF(M23,"MOFI")-COUNTIF(M23,"MPRO")-COUNTIF(M23,"MSMS")-COUNTIF(M23,"NCHC")-COUNTIF(M23,"NENT")-COUNTIF(M23,"NINS")-COUNTIF(M23,"SIND")-COUNTIF(M23,"TATF")-COUNTIF(M23,"TCAE")-COUNTIF(M23,"TCHC")-COUNTIF(M23,"TCOR")-COUNTIF(M23,"TDBM")-COUNTIF(M23,"TDOC")-COUNTIF(M23,"TENT")-COUNTIF(M23,"TGST")-COUNTIF(M23,"TINS")-COUNTIF(M23,"TOFI")-COUNTIF(M23,"TPRO")-COUNTIF(M23,"TROP")-COUNTIF(M23,"TSMS")-COUNTIF(M23,"VACA")-COUNTIF(M23,"X")-COUNTIF(M23,"XATC")-COUNTIF(M23,"YATC")-COUNTIF(M23,"ZATC")+COUNTBLANK(M21)+COUNTIF(M21,"&lt;&gt;")-COUNTIF(M21,"ACHC")-COUNTIF(M21,"AENT")-COUNTIF(M21,"AINS")-COUNTIF(M21,"ATC")-COUNTIF(M21,"CAPA")-COUNTIF(M21,"CERT")-COUNTIF(M21,"CET")-COUNTIF(M21,"CMED")-COUNTIF(M21,"COME")-COUNTIF(M21,"COMS")-COUNTIF(M21,"COMT")-COUNTIF(M21,"DESC")-COUNTIF(M21,"KATC")-COUNTIF(M21,"LICR")-COUNTIF(M21,"MATF")-COUNTIF(M21,"MCAE")-COUNTIF(M21,"MCHC")-COUNTIF(M21,"MCOR")-COUNTIF(M21,"MDBM")-COUNTIF(M21,"MDOC")-COUNTIF(M21,"MENT")-COUNTIF(M21,"MGST")-COUNTIF(M21,"MINS")-COUNTIF(M21,"MOFI")-COUNTIF(M21,"MPRO")-COUNTIF(M21,"MSMS")-COUNTIF(M21,"NCHC")-COUNTIF(M21,"NENT")-COUNTIF(M21,"NINS")-COUNTIF(M21,"SIND")-COUNTIF(M21,"TATF")-COUNTIF(M21,"TCAE")-COUNTIF(M21,"TCHC")-COUNTIF(M21,"TCOR")-COUNTIF(M21,"TDBM")-COUNTIF(M21,"TDOC")-COUNTIF(M21,"TENT")-COUNTIF(M21,"TGST")-COUNTIF(M21,"TINS")-COUNTIF(M21,"TOFI")-COUNTIF(M21,"TPRO")-COUNTIF(M21,"TROP")-COUNTIF(M21,"TSMS")-COUNTIF(M21,"VACA")-COUNTIF(M21,"X")-COUNTIF(M21,"XATC")-COUNTIF(M21,"YATC")-COUNTIF(M21,"ZATC")+COUNTBLANK(M24)+COUNTIF(M24,"&lt;&gt;")-COUNTIF(M24,"ACHC")-COUNTIF(M24,"AENT")-COUNTIF(M24,"AINS")-COUNTIF(M24,"ATC")-COUNTIF(M24,"CAPA")-COUNTIF(M24,"CERT")-COUNTIF(M24,"CET")-COUNTIF(M24,"CMED")-COUNTIF(M24,"COME")-COUNTIF(M24,"COMS")-COUNTIF(M24,"COMT")-COUNTIF(M24,"DESC")-COUNTIF(M24,"KATC")-COUNTIF(M24,"LICR")-COUNTIF(M24,"MATF")-COUNTIF(M24,"MCAE")-COUNTIF(M24,"MCHC")-COUNTIF(M24,"MCOR")-COUNTIF(M24,"MDBM")-COUNTIF(M24,"MDOC")-COUNTIF(M24,"MENT")-COUNTIF(M24,"MGST")-COUNTIF(M24,"MINS")-COUNTIF(M24,"MOFI")-COUNTIF(M24,"MPRO")-COUNTIF(M24,"MSMS")-COUNTIF(M24,"NCHC")-COUNTIF(M24,"NENT")-COUNTIF(M24,"NINS")-COUNTIF(M24,"SIND")-COUNTIF(M24,"TATF")-COUNTIF(M24,"TCAE")-COUNTIF(M24,"TCHC")-COUNTIF(M24,"TCOR")-COUNTIF(M24,"TDBM")-COUNTIF(M24,"TDOC")-COUNTIF(M24,"TENT")-COUNTIF(M24,"TGST")-COUNTIF(M24,"TINS")-COUNTIF(M24,"TOFI")-COUNTIF(M24,"TPRO")-COUNTIF(M24,"TROP")-COUNTIF(M24,"TSMS")-COUNTIF(M24,"VACA")-COUNTIF(M24,"X")-COUNTIF(M24,"XATC")-COUNTIF(M24,"YATC")-COUNTIF(M24,"ZATC")</f>
         <v>6</v>
       </c>
-      <c r="N26">
-        <f>COUNTBLANK(N22)+COUNTIF(N22,"&lt;&gt;")-COUNTIF(N22,"ACHC")-COUNTIF(N22,"AENT")-COUNTIF(N22,"AINS")-COUNTIF(N22,"ATC")-COUNTIF(N22,"CAPA")-COUNTIF(N22,"CERT")-COUNTIF(N22,"CET")-COUNTIF(N22,"CMED")-COUNTIF(N22,"COME")-COUNTIF(N22,"COMS")-COUNTIF(N22,"COMT")-COUNTIF(N22,"DESC")-COUNTIF(N22,"KATC")-COUNTIF(N22,"LICR")-COUNTIF(N22,"MATF")-COUNTIF(N22,"MCAE")-COUNTIF(N22,"MCHC")-COUNTIF(N22,"MCOR")-COUNTIF(N22,"MDBM")-COUNTIF(N22,"MDOC")-COUNTIF(N22,"MENT")-COUNTIF(N22,"MGST")-COUNTIF(N22,"MINS")-COUNTIF(N22,"MOFI")-COUNTIF(N22,"MPRO")-COUNTIF(N22,"MSMS")-COUNTIF(N22,"NCHC")-COUNTIF(N22,"NENT")-COUNTIF(N22,"NINS")-COUNTIF(N22,"SIND")-COUNTIF(N22,"TATF")-COUNTIF(N22,"TCAE")-COUNTIF(N22,"TCHC")-COUNTIF(N22,"TCOR")-COUNTIF(N22,"TDBM")-COUNTIF(N22,"TDOC")-COUNTIF(N22,"TENT")-COUNTIF(N22,"TGST")-COUNTIF(N22,"TINS")-COUNTIF(N22,"TOFI")-COUNTIF(N22,"TPRO")-COUNTIF(N22,"TROP")-COUNTIF(N22,"TSMS")-COUNTIF(N22,"VACA")-COUNTIF(N22,"X")-COUNTIF(N22,"XATC")-COUNTIF(N22,"YATC")-COUNTIF(N22,"ZATC")+COUNTBLANK(N25)+COUNTIF(N25,"&lt;&gt;")-COUNTIF(N25,"ACHC")-COUNTIF(N25,"AENT")-COUNTIF(N25,"AINS")-COUNTIF(N25,"ATC")-COUNTIF(N25,"CAPA")-COUNTIF(N25,"CERT")-COUNTIF(N25,"CET")-COUNTIF(N25,"CMED")-COUNTIF(N25,"COME")-COUNTIF(N25,"COMS")-COUNTIF(N25,"COMT")-COUNTIF(N25,"DESC")-COUNTIF(N25,"KATC")-COUNTIF(N25,"LICR")-COUNTIF(N25,"MATF")-COUNTIF(N25,"MCAE")-COUNTIF(N25,"MCHC")-COUNTIF(N25,"MCOR")-COUNTIF(N25,"MDBM")-COUNTIF(N25,"MDOC")-COUNTIF(N25,"MENT")-COUNTIF(N25,"MGST")-COUNTIF(N25,"MINS")-COUNTIF(N25,"MOFI")-COUNTIF(N25,"MPRO")-COUNTIF(N25,"MSMS")-COUNTIF(N25,"NCHC")-COUNTIF(N25,"NENT")-COUNTIF(N25,"NINS")-COUNTIF(N25,"SIND")-COUNTIF(N25,"TATF")-COUNTIF(N25,"TCAE")-COUNTIF(N25,"TCHC")-COUNTIF(N25,"TCOR")-COUNTIF(N25,"TDBM")-COUNTIF(N25,"TDOC")-COUNTIF(N25,"TENT")-COUNTIF(N25,"TGST")-COUNTIF(N25,"TINS")-COUNTIF(N25,"TOFI")-COUNTIF(N25,"TPRO")-COUNTIF(N25,"TROP")-COUNTIF(N25,"TSMS")-COUNTIF(N25,"VACA")-COUNTIF(N25,"X")-COUNTIF(N25,"XATC")-COUNTIF(N25,"YATC")-COUNTIF(N25,"ZATC")+COUNTBLANK(N20)+COUNTIF(N20,"&lt;&gt;")-COUNTIF(N20,"ACHC")-COUNTIF(N20,"AENT")-COUNTIF(N20,"AINS")-COUNTIF(N20,"ATC")-COUNTIF(N20,"CAPA")-COUNTIF(N20,"CERT")-COUNTIF(N20,"CET")-COUNTIF(N20,"CMED")-COUNTIF(N20,"COME")-COUNTIF(N20,"COMS")-COUNTIF(N20,"COMT")-COUNTIF(N20,"DESC")-COUNTIF(N20,"KATC")-COUNTIF(N20,"LICR")-COUNTIF(N20,"MATF")-COUNTIF(N20,"MCAE")-COUNTIF(N20,"MCHC")-COUNTIF(N20,"MCOR")-COUNTIF(N20,"MDBM")-COUNTIF(N20,"MDOC")-COUNTIF(N20,"MENT")-COUNTIF(N20,"MGST")-COUNTIF(N20,"MINS")-COUNTIF(N20,"MOFI")-COUNTIF(N20,"MPRO")-COUNTIF(N20,"MSMS")-COUNTIF(N20,"NCHC")-COUNTIF(N20,"NENT")-COUNTIF(N20,"NINS")-COUNTIF(N20,"SIND")-COUNTIF(N20,"TATF")-COUNTIF(N20,"TCAE")-COUNTIF(N20,"TCHC")-COUNTIF(N20,"TCOR")-COUNTIF(N20,"TDBM")-COUNTIF(N20,"TDOC")-COUNTIF(N20,"TENT")-COUNTIF(N20,"TGST")-COUNTIF(N20,"TINS")-COUNTIF(N20,"TOFI")-COUNTIF(N20,"TPRO")-COUNTIF(N20,"TROP")-COUNTIF(N20,"TSMS")-COUNTIF(N20,"VACA")-COUNTIF(N20,"X")-COUNTIF(N20,"XATC")-COUNTIF(N20,"YATC")-COUNTIF(N20,"ZATC")+COUNTBLANK(N23)+COUNTIF(N23,"&lt;&gt;")-COUNTIF(N23,"ACHC")-COUNTIF(N23,"AENT")-COUNTIF(N23,"AINS")-COUNTIF(N23,"ATC")-COUNTIF(N23,"CAPA")-COUNTIF(N23,"CERT")-COUNTIF(N23,"CET")-COUNTIF(N23,"CMED")-COUNTIF(N23,"COME")-COUNTIF(N23,"COMS")-COUNTIF(N23,"COMT")-COUNTIF(N23,"DESC")-COUNTIF(N23,"KATC")-COUNTIF(N23,"LICR")-COUNTIF(N23,"MATF")-COUNTIF(N23,"MCAE")-COUNTIF(N23,"MCHC")-COUNTIF(N23,"MCOR")-COUNTIF(N23,"MDBM")-COUNTIF(N23,"MDOC")-COUNTIF(N23,"MENT")-COUNTIF(N23,"MGST")-COUNTIF(N23,"MINS")-COUNTIF(N23,"MOFI")-COUNTIF(N23,"MPRO")-COUNTIF(N23,"MSMS")-COUNTIF(N23,"NCHC")-COUNTIF(N23,"NENT")-COUNTIF(N23,"NINS")-COUNTIF(N23,"SIND")-COUNTIF(N23,"TATF")-COUNTIF(N23,"TCAE")-COUNTIF(N23,"TCHC")-COUNTIF(N23,"TCOR")-COUNTIF(N23,"TDBM")-COUNTIF(N23,"TDOC")-COUNTIF(N23,"TENT")-COUNTIF(N23,"TGST")-COUNTIF(N23,"TINS")-COUNTIF(N23,"TOFI")-COUNTIF(N23,"TPRO")-COUNTIF(N23,"TROP")-COUNTIF(N23,"TSMS")-COUNTIF(N23,"VACA")-COUNTIF(N23,"X")-COUNTIF(N23,"XATC")-COUNTIF(N23,"YATC")-COUNTIF(N23,"ZATC")+COUNTBLANK(N21)+COUNTIF(N21,"&lt;&gt;")-COUNTIF(N21,"ACHC")-COUNTIF(N21,"AENT")-COUNTIF(N21,"AINS")-COUNTIF(N21,"ATC")-COUNTIF(N21,"CAPA")-COUNTIF(N21,"CERT")-COUNTIF(N21,"CET")-COUNTIF(N21,"CMED")-COUNTIF(N21,"COME")-COUNTIF(N21,"COMS")-COUNTIF(N21,"COMT")-COUNTIF(N21,"DESC")-COUNTIF(N21,"KATC")-COUNTIF(N21,"LICR")-COUNTIF(N21,"MATF")-COUNTIF(N21,"MCAE")-COUNTIF(N21,"MCHC")-COUNTIF(N21,"MCOR")-COUNTIF(N21,"MDBM")-COUNTIF(N21,"MDOC")-COUNTIF(N21,"MENT")-COUNTIF(N21,"MGST")-COUNTIF(N21,"MINS")-COUNTIF(N21,"MOFI")-COUNTIF(N21,"MPRO")-COUNTIF(N21,"MSMS")-COUNTIF(N21,"NCHC")-COUNTIF(N21,"NENT")-COUNTIF(N21,"NINS")-COUNTIF(N21,"SIND")-COUNTIF(N21,"TATF")-COUNTIF(N21,"TCAE")-COUNTIF(N21,"TCHC")-COUNTIF(N21,"TCOR")-COUNTIF(N21,"TDBM")-COUNTIF(N21,"TDOC")-COUNTIF(N21,"TENT")-COUNTIF(N21,"TGST")-COUNTIF(N21,"TINS")-COUNTIF(N21,"TOFI")-COUNTIF(N21,"TPRO")-COUNTIF(N21,"TROP")-COUNTIF(N21,"TSMS")-COUNTIF(N21,"VACA")-COUNTIF(N21,"X")-COUNTIF(N21,"XATC")-COUNTIF(N21,"YATC")-COUNTIF(N21,"ZATC")+COUNTBLANK(N24)+COUNTIF(N24,"&lt;&gt;")-COUNTIF(N24,"ACHC")-COUNTIF(N24,"AENT")-COUNTIF(N24,"AINS")-COUNTIF(N24,"ATC")-COUNTIF(N24,"CAPA")-COUNTIF(N24,"CERT")-COUNTIF(N24,"CET")-COUNTIF(N24,"CMED")-COUNTIF(N24,"COME")-COUNTIF(N24,"COMS")-COUNTIF(N24,"COMT")-COUNTIF(N24,"DESC")-COUNTIF(N24,"KATC")-COUNTIF(N24,"LICR")-COUNTIF(N24,"MATF")-COUNTIF(N24,"MCAE")-COUNTIF(N24,"MCHC")-COUNTIF(N24,"MCOR")-COUNTIF(N24,"MDBM")-COUNTIF(N24,"MDOC")-COUNTIF(N24,"MENT")-COUNTIF(N24,"MGST")-COUNTIF(N24,"MINS")-COUNTIF(N24,"MOFI")-COUNTIF(N24,"MPRO")-COUNTIF(N24,"MSMS")-COUNTIF(N24,"NCHC")-COUNTIF(N24,"NENT")-COUNTIF(N24,"NINS")-COUNTIF(N24,"SIND")-COUNTIF(N24,"TATF")-COUNTIF(N24,"TCAE")-COUNTIF(N24,"TCHC")-COUNTIF(N24,"TCOR")-COUNTIF(N24,"TDBM")-COUNTIF(N24,"TDOC")-COUNTIF(N24,"TENT")-COUNTIF(N24,"TGST")-COUNTIF(N24,"TINS")-COUNTIF(N24,"TOFI")-COUNTIF(N24,"TPRO")-COUNTIF(N24,"TROP")-COUNTIF(N24,"TSMS")-COUNTIF(N24,"VACA")-COUNTIF(N24,"X")-COUNTIF(N24,"XATC")-COUNTIF(N24,"YATC")-COUNTIF(N24,"ZATC")</f>
-        <v>6</v>
+      <c r="N26" t="e">
+        <f>COUNTBLANK(N22)+COUNTIF(N22,"&lt;&gt;")-COUNTIF(N22,"ACHC")-COUNTIF(N22,"AENT")-COUNTIF(N22,"AINS")-COUNTIF(N22,"ATC")-COUNTIF(N22,"CAPA")-COUNTIF(N22,"CERT")-COUNTIF(N22,"CET")-COUNTIF(N22,"CMED")-COUNTIF(N22,"COME")-COUNTIF(N22,"COMS")-COUNTIF(N22,"COMT")-COUNTIF(N22,"DESC")-COUNTIF(N22,"KATC")-COUNTIF(N22,"LICR")-COUNTIF(N22,"MATF")-COUNTIF(N22,"MCAE")-COUNTIF(N22,"MCHC")-COUNTIF(N22,"MCOR")-COUNTIF(N22,"MDBM")-COUNTIF(N22,"MDOC")-COUNTIF(N22,"MENT")-COUNTIF(N22,"MGST")-COUNTIF(N22,"MINS")-COUNTIF(N22,"MOFI")-COUNTIF(N22,"MPRO")-COUNTIF(N22,"MSMS")-COUNTIF(N22,"NCHC")-COUNTIF(N22,"NENT")-COUNTIF(N22,"NINS")-COUNTIF(N22,"SIND")-COUNTIF(N22,"TATF")-COUNTIF(N22,"TCAE")-COUNTIF(N22,"TCHC")-COUNTIF(N22,"TCOR")-COUNTIF(N22,"TDBM")-COUNTIF(N22,"TDOC")-COUNTIF(N22,"TENT")-COUNTIF(N22,"TGST")-COUNTIF(N22,"TINS")-COUNTIF(N22,"TOFI")-COUNTIF(N22,"TPRO")-COUNTIF(N22,"TROP")-COUNTIF(N22,"TSMS")-COUNTIF(N22,"VACA")-COUNTIF(N22,"X")-COUNTIF(N22,"XATC")-COUNTIF(N22,"YATC")-COUNTIF(N22,"ZATC")+COUNTBLANK(N25)+COUNTIF(N25,"&lt;&gt;")-COUNTIF(N25,"ACHC")-COUNTIF(N25,"AENT")-COUNTIF(N25,"AINS")-COUNTIF(N25,"ATC")-COUNTIF(N25,"CAPA")-COUNTIF(N25,"CERT")-COUNTIF(N25,"CET")-COUNTIF(N25,"CMED")-COUNTIF(N25,"COME")-COUNTIF(N25,"COMS")-COUNTIF(N25,"COMT")-COUNTIF(N25,"DESC")-COUNTIF(N25,"KATC")-COUNTIF(N25,"LICR")-COUNTIF(N25,"MATF")-COUNTIF(N25,"MCAE")-COUNTIF(N25,"MCHC")-COUNTIF(N25,"MCOR")-COUNTIF(N25,"MDBM")-COUNTIF(N25,"MDOC")-COUNTIF(N25,"MENT")-COUNTIF(N25,"MGST")-COUNTIF(N25,"MINS")-COUNTIF(N25,"MOFI")-COUNTIF(N25,"MPRO")-COUNTIF(N25,"MSMS")-COUNTIF(N25,"NCHC")-COUNTIF(N25,"NENT")-COUNTIF(N25,"NINS")-COUNTIF(N25,"SIND")-COUNTIF(N25,"TATF")-COUNTIF(N25,"TCAE")-COUNTIF(N25,"TCHC")-COUNTIF(N25,"TCOR")-COUNTIF(N25,"TDBM")-COUNTIF(N25,"TDOC")-COUNTIF(N25,"TENT")-COUNTIF(N25,"TGST")-COUNTIF(N25,"TINS")-COUNTIF(N25,"TOFI")-COUNTIF(N25,"TPRO")-COUNTIF(N25,"TROP")-COUNTIF(N25,"TSMS")-COUNTIF(N25,"VACA")-COUNTIF(N25,"X")-COUNTIF(N25,"XATC")-COUNTIF(N25,"YATC")-COUNTIF(N25,"ZATC")+COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(N23)+COUNTIF(N23,"&lt;&gt;")-COUNTIF(N23,"ACHC")-COUNTIF(N23,"AENT")-COUNTIF(N23,"AINS")-COUNTIF(N23,"ATC")-COUNTIF(N23,"CAPA")-COUNTIF(N23,"CERT")-COUNTIF(N23,"CET")-COUNTIF(N23,"CMED")-COUNTIF(N23,"COME")-COUNTIF(N23,"COMS")-COUNTIF(N23,"COMT")-COUNTIF(N23,"DESC")-COUNTIF(N23,"KATC")-COUNTIF(N23,"LICR")-COUNTIF(N23,"MATF")-COUNTIF(N23,"MCAE")-COUNTIF(N23,"MCHC")-COUNTIF(N23,"MCOR")-COUNTIF(N23,"MDBM")-COUNTIF(N23,"MDOC")-COUNTIF(N23,"MENT")-COUNTIF(N23,"MGST")-COUNTIF(N23,"MINS")-COUNTIF(N23,"MOFI")-COUNTIF(N23,"MPRO")-COUNTIF(N23,"MSMS")-COUNTIF(N23,"NCHC")-COUNTIF(N23,"NENT")-COUNTIF(N23,"NINS")-COUNTIF(N23,"SIND")-COUNTIF(N23,"TATF")-COUNTIF(N23,"TCAE")-COUNTIF(N23,"TCHC")-COUNTIF(N23,"TCOR")-COUNTIF(N23,"TDBM")-COUNTIF(N23,"TDOC")-COUNTIF(N23,"TENT")-COUNTIF(N23,"TGST")-COUNTIF(N23,"TINS")-COUNTIF(N23,"TOFI")-COUNTIF(N23,"TPRO")-COUNTIF(N23,"TROP")-COUNTIF(N23,"TSMS")-COUNTIF(N23,"VACA")-COUNTIF(N23,"X")-COUNTIF(N23,"XATC")-COUNTIF(N23,"YATC")-COUNTIF(N23,"ZATC")+COUNTBLANK(N21)+COUNTIF(N21,"&lt;&gt;")-COUNTIF(N21,"ACHC")-COUNTIF(N21,"AENT")-COUNTIF(N21,"AINS")-COUNTIF(N21,"ATC")-COUNTIF(N21,"CAPA")-COUNTIF(N21,"CERT")-COUNTIF(N21,"CET")-COUNTIF(N21,"CMED")-COUNTIF(N21,"COME")-COUNTIF(N21,"COMS")-COUNTIF(N21,"COMT")-COUNTIF(N21,"DESC")-COUNTIF(N21,"KATC")-COUNTIF(N21,"LICR")-COUNTIF(N21,"MATF")-COUNTIF(N21,"MCAE")-COUNTIF(N21,"MCHC")-COUNTIF(N21,"MCOR")-COUNTIF(N21,"MDBM")-COUNTIF(N21,"MDOC")-COUNTIF(N21,"MENT")-COUNTIF(N21,"MGST")-COUNTIF(N21,"MINS")-COUNTIF(N21,"MOFI")-COUNTIF(N21,"MPRO")-COUNTIF(N21,"MSMS")-COUNTIF(N21,"NCHC")-COUNTIF(N21,"NENT")-COUNTIF(N21,"NINS")-COUNTIF(N21,"SIND")-COUNTIF(N21,"TATF")-COUNTIF(N21,"TCAE")-COUNTIF(N21,"TCHC")-COUNTIF(N21,"TCOR")-COUNTIF(N21,"TDBM")-COUNTIF(N21,"TDOC")-COUNTIF(N21,"TENT")-COUNTIF(N21,"TGST")-COUNTIF(N21,"TINS")-COUNTIF(N21,"TOFI")-COUNTIF(N21,"TPRO")-COUNTIF(N21,"TROP")-COUNTIF(N21,"TSMS")-COUNTIF(N21,"VACA")-COUNTIF(N21,"X")-COUNTIF(N21,"XATC")-COUNTIF(N21,"YATC")-COUNTIF(N21,"ZATC")+COUNTBLANK(N24)+COUNTIF(N24,"&lt;&gt;")-COUNTIF(N24,"ACHC")-COUNTIF(N24,"AENT")-COUNTIF(N24,"AINS")-COUNTIF(N24,"ATC")-COUNTIF(N24,"CAPA")-COUNTIF(N24,"CERT")-COUNTIF(N24,"CET")-COUNTIF(N24,"CMED")-COUNTIF(N24,"COME")-COUNTIF(N24,"COMS")-COUNTIF(N24,"COMT")-COUNTIF(N24,"DESC")-COUNTIF(N24,"KATC")-COUNTIF(N24,"LICR")-COUNTIF(N24,"MATF")-COUNTIF(N24,"MCAE")-COUNTIF(N24,"MCHC")-COUNTIF(N24,"MCOR")-COUNTIF(N24,"MDBM")-COUNTIF(N24,"MDOC")-COUNTIF(N24,"MENT")-COUNTIF(N24,"MGST")-COUNTIF(N24,"MINS")-COUNTIF(N24,"MOFI")-COUNTIF(N24,"MPRO")-COUNTIF(N24,"MSMS")-COUNTIF(N24,"NCHC")-COUNTIF(N24,"NENT")-COUNTIF(N24,"NINS")-COUNTIF(N24,"SIND")-COUNTIF(N24,"TATF")-COUNTIF(N24,"TCAE")-COUNTIF(N24,"TCHC")-COUNTIF(N24,"TCOR")-COUNTIF(N24,"TDBM")-COUNTIF(N24,"TDOC")-COUNTIF(N24,"TENT")-COUNTIF(N24,"TGST")-COUNTIF(N24,"TINS")-COUNTIF(N24,"TOFI")-COUNTIF(N24,"TPRO")-COUNTIF(N24,"TROP")-COUNTIF(N24,"TSMS")-COUNTIF(N24,"VACA")-COUNTIF(N24,"X")-COUNTIF(N24,"XATC")-COUNTIF(N24,"YATC")-COUNTIF(N24,"ZATC")</f>
+        <v>#REF!</v>
       </c>
       <c r="O26" t="e">
         <f>COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(O25)+COUNTIF(O25,"&lt;&gt;")-COUNTIF(O25,"ACHC")-COUNTIF(O25,"AENT")-COUNTIF(O25,"AINS")-COUNTIF(O25,"ATC")-COUNTIF(O25,"CAPA")-COUNTIF(O25,"CERT")-COUNTIF(O25,"CET")-COUNTIF(O25,"CMED")-COUNTIF(O25,"COME")-COUNTIF(O25,"COMS")-COUNTIF(O25,"COMT")-COUNTIF(O25,"DESC")-COUNTIF(O25,"KATC")-COUNTIF(O25,"LICR")-COUNTIF(O25,"MATF")-COUNTIF(O25,"MCAE")-COUNTIF(O25,"MCHC")-COUNTIF(O25,"MCOR")-COUNTIF(O25,"MDBM")-COUNTIF(O25,"MDOC")-COUNTIF(O25,"MENT")-COUNTIF(O25,"MGST")-COUNTIF(O25,"MINS")-COUNTIF(O25,"MOFI")-COUNTIF(O25,"MPRO")-COUNTIF(O25,"MSMS")-COUNTIF(O25,"NCHC")-COUNTIF(O25,"NENT")-COUNTIF(O25,"NINS")-COUNTIF(O25,"SIND")-COUNTIF(O25,"TATF")-COUNTIF(O25,"TCAE")-COUNTIF(O25,"TCHC")-COUNTIF(O25,"TCOR")-COUNTIF(O25,"TDBM")-COUNTIF(O25,"TDOC")-COUNTIF(O25,"TENT")-COUNTIF(O25,"TGST")-COUNTIF(O25,"TINS")-COUNTIF(O25,"TOFI")-COUNTIF(O25,"TPRO")-COUNTIF(O25,"TROP")-COUNTIF(O25,"TSMS")-COUNTIF(O25,"VACA")-COUNTIF(O25,"X")-COUNTIF(O25,"XATC")-COUNTIF(O25,"YATC")-COUNTIF(O25,"ZATC")+COUNTBLANK(O20)+COUNTIF(O20,"&lt;&gt;")-COUNTIF(O20,"ACHC")-COUNTIF(O20,"AENT")-COUNTIF(O20,"AINS")-COUNTIF(O20,"ATC")-COUNTIF(O20,"CAPA")-COUNTIF(O20,"CERT")-COUNTIF(O20,"CET")-COUNTIF(O20,"CMED")-COUNTIF(O20,"COME")-COUNTIF(O20,"COMS")-COUNTIF(O20,"COMT")-COUNTIF(O20,"DESC")-COUNTIF(O20,"KATC")-COUNTIF(O20,"LICR")-COUNTIF(O20,"MATF")-COUNTIF(O20,"MCAE")-COUNTIF(O20,"MCHC")-COUNTIF(O20,"MCOR")-COUNTIF(O20,"MDBM")-COUNTIF(O20,"MDOC")-COUNTIF(O20,"MENT")-COUNTIF(O20,"MGST")-COUNTIF(O20,"MINS")-COUNTIF(O20,"MOFI")-COUNTIF(O20,"MPRO")-COUNTIF(O20,"MSMS")-COUNTIF(O20,"NCHC")-COUNTIF(O20,"NENT")-COUNTIF(O20,"NINS")-COUNTIF(O20,"SIND")-COUNTIF(O20,"TATF")-COUNTIF(O20,"TCAE")-COUNTIF(O20,"TCHC")-COUNTIF(O20,"TCOR")-COUNTIF(O20,"TDBM")-COUNTIF(O20,"TDOC")-COUNTIF(O20,"TENT")-COUNTIF(O20,"TGST")-COUNTIF(O20,"TINS")-COUNTIF(O20,"TOFI")-COUNTIF(O20,"TPRO")-COUNTIF(O20,"TROP")-COUNTIF(O20,"TSMS")-COUNTIF(O20,"VACA")-COUNTIF(O20,"X")-COUNTIF(O20,"XATC")-COUNTIF(O20,"YATC")-COUNTIF(O20,"ZATC")+COUNTBLANK(O23)+COUNTIF(O23,"&lt;&gt;")-COUNTIF(O23,"ACHC")-COUNTIF(O23,"AENT")-COUNTIF(O23,"AINS")-COUNTIF(O23,"ATC")-COUNTIF(O23,"CAPA")-COUNTIF(O23,"CERT")-COUNTIF(O23,"CET")-COUNTIF(O23,"CMED")-COUNTIF(O23,"COME")-COUNTIF(O23,"COMS")-COUNTIF(O23,"COMT")-COUNTIF(O23,"DESC")-COUNTIF(O23,"KATC")-COUNTIF(O23,"LICR")-COUNTIF(O23,"MATF")-COUNTIF(O23,"MCAE")-COUNTIF(O23,"MCHC")-COUNTIF(O23,"MCOR")-COUNTIF(O23,"MDBM")-COUNTIF(O23,"MDOC")-COUNTIF(O23,"MENT")-COUNTIF(O23,"MGST")-COUNTIF(O23,"MINS")-COUNTIF(O23,"MOFI")-COUNTIF(O23,"MPRO")-COUNTIF(O23,"MSMS")-COUNTIF(O23,"NCHC")-COUNTIF(O23,"NENT")-COUNTIF(O23,"NINS")-COUNTIF(O23,"SIND")-COUNTIF(O23,"TATF")-COUNTIF(O23,"TCAE")-COUNTIF(O23,"TCHC")-COUNTIF(O23,"TCOR")-COUNTIF(O23,"TDBM")-COUNTIF(O23,"TDOC")-COUNTIF(O23,"TENT")-COUNTIF(O23,"TGST")-COUNTIF(O23,"TINS")-COUNTIF(O23,"TOFI")-COUNTIF(O23,"TPRO")-COUNTIF(O23,"TROP")-COUNTIF(O23,"TSMS")-COUNTIF(O23,"VACA")-COUNTIF(O23,"X")-COUNTIF(O23,"XATC")-COUNTIF(O23,"YATC")-COUNTIF(O23,"ZATC")+COUNTBLANK(O21)+COUNTIF(O21,"&lt;&gt;")-COUNTIF(O21,"ACHC")-COUNTIF(O21,"AENT")-COUNTIF(O21,"AINS")-COUNTIF(O21,"ATC")-COUNTIF(O21,"CAPA")-COUNTIF(O21,"CERT")-COUNTIF(O21,"CET")-COUNTIF(O21,"CMED")-COUNTIF(O21,"COME")-COUNTIF(O21,"COMS")-COUNTIF(O21,"COMT")-COUNTIF(O21,"DESC")-COUNTIF(O21,"KATC")-COUNTIF(O21,"LICR")-COUNTIF(O21,"MATF")-COUNTIF(O21,"MCAE")-COUNTIF(O21,"MCHC")-COUNTIF(O21,"MCOR")-COUNTIF(O21,"MDBM")-COUNTIF(O21,"MDOC")-COUNTIF(O21,"MENT")-COUNTIF(O21,"MGST")-COUNTIF(O21,"MINS")-COUNTIF(O21,"MOFI")-COUNTIF(O21,"MPRO")-COUNTIF(O21,"MSMS")-COUNTIF(O21,"NCHC")-COUNTIF(O21,"NENT")-COUNTIF(O21,"NINS")-COUNTIF(O21,"SIND")-COUNTIF(O21,"TATF")-COUNTIF(O21,"TCAE")-COUNTIF(O21,"TCHC")-COUNTIF(O21,"TCOR")-COUNTIF(O21,"TDBM")-COUNTIF(O21,"TDOC")-COUNTIF(O21,"TENT")-COUNTIF(O21,"TGST")-COUNTIF(O21,"TINS")-COUNTIF(O21,"TOFI")-COUNTIF(O21,"TPRO")-COUNTIF(O21,"TROP")-COUNTIF(O21,"TSMS")-COUNTIF(O21,"VACA")-COUNTIF(O21,"X")-COUNTIF(O21,"XATC")-COUNTIF(O21,"YATC")-COUNTIF(O21,"ZATC")+COUNTBLANK(O24)+COUNTIF(O24,"&lt;&gt;")-COUNTIF(O24,"ACHC")-COUNTIF(O24,"AENT")-COUNTIF(O24,"AINS")-COUNTIF(O24,"ATC")-COUNTIF(O24,"CAPA")-COUNTIF(O24,"CERT")-COUNTIF(O24,"CET")-COUNTIF(O24,"CMED")-COUNTIF(O24,"COME")-COUNTIF(O24,"COMS")-COUNTIF(O24,"COMT")-COUNTIF(O24,"DESC")-COUNTIF(O24,"KATC")-COUNTIF(O24,"LICR")-COUNTIF(O24,"MATF")-COUNTIF(O24,"MCAE")-COUNTIF(O24,"MCHC")-COUNTIF(O24,"MCOR")-COUNTIF(O24,"MDBM")-COUNTIF(O24,"MDOC")-COUNTIF(O24,"MENT")-COUNTIF(O24,"MGST")-COUNTIF(O24,"MINS")-COUNTIF(O24,"MOFI")-COUNTIF(O24,"MPRO")-COUNTIF(O24,"MSMS")-COUNTIF(O24,"NCHC")-COUNTIF(O24,"NENT")-COUNTIF(O24,"NINS")-COUNTIF(O24,"SIND")-COUNTIF(O24,"TATF")-COUNTIF(O24,"TCAE")-COUNTIF(O24,"TCHC")-COUNTIF(O24,"TCOR")-COUNTIF(O24,"TDBM")-COUNTIF(O24,"TDOC")-COUNTIF(O24,"TENT")-COUNTIF(O24,"TGST")-COUNTIF(O24,"TINS")-COUNTIF(O24,"TOFI")-COUNTIF(O24,"TPRO")-COUNTIF(O24,"TROP")-COUNTIF(O24,"TSMS")-COUNTIF(O24,"VACA")-COUNTIF(O24,"X")-COUNTIF(O24,"XATC")-COUNTIF(O24,"YATC")-COUNTIF(O24,"ZATC")</f>
@@ -3177,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(T22)+COUNTIF(T22,"&lt;&gt;")-COUNTIF(T22,"ACHC")-COUNTIF(T22,"AENT")-COUNTIF(T22,"AINS")-COUNTIF(T22,"ATC")-COUNTIF(T22,"CAPA")-COUNTIF(T22,"CERT")-COUNTIF(T22,"CET")-COUNTIF(T22,"CMED")-COUNTIF(T22,"COME")-COUNTIF(T22,"COMS")-COUNTIF(T22,"COMT")-COUNTIF(T22,"DESC")-COUNTIF(T22,"KATC")-COUNTIF(T22,"LICR")-COUNTIF(T22,"MATF")-COUNTIF(T22,"MCAE")-COUNTIF(T22,"MCHC")-COUNTIF(T22,"MCOR")-COUNTIF(T22,"MDBM")-COUNTIF(T22,"MDOC")-COUNTIF(T22,"MENT")-COUNTIF(T22,"MGST")-COUNTIF(T22,"MINS")-COUNTIF(T22,"MOFI")-COUNTIF(T22,"MPRO")-COUNTIF(T22,"MSMS")-COUNTIF(T22,"NCHC")-COUNTIF(T22,"NENT")-COUNTIF(T22,"NINS")-COUNTIF(T22,"SIND")-COUNTIF(T22,"TATF")-COUNTIF(T22,"TCAE")-COUNTIF(T22,"TCHC")-COUNTIF(T22,"TCOR")-COUNTIF(T22,"TDBM")-COUNTIF(T22,"TDOC")-COUNTIF(T22,"TENT")-COUNTIF(T22,"TGST")-COUNTIF(T22,"TINS")-COUNTIF(T22,"TOFI")-COUNTIF(T22,"TPRO")-COUNTIF(T22,"TROP")-COUNTIF(T22,"TSMS")-COUNTIF(T22,"VACA")-COUNTIF(T22,"X")-COUNTIF(T22,"XATC")-COUNTIF(T22,"YATC")-COUNTIF(T22,"ZATC")+COUNTBLANK(T25)+COUNTIF(T25,"&lt;&gt;")-COUNTIF(T25,"ACHC")-COUNTIF(T25,"AENT")-COUNTIF(T25,"AINS")-COUNTIF(T25,"ATC")-COUNTIF(T25,"CAPA")-COUNTIF(T25,"CERT")-COUNTIF(T25,"CET")-COUNTIF(T25,"CMED")-COUNTIF(T25,"COME")-COUNTIF(T25,"COMS")-COUNTIF(T25,"COMT")-COUNTIF(T25,"DESC")-COUNTIF(T25,"KATC")-COUNTIF(T25,"LICR")-COUNTIF(T25,"MATF")-COUNTIF(T25,"MCAE")-COUNTIF(T25,"MCHC")-COUNTIF(T25,"MCOR")-COUNTIF(T25,"MDBM")-COUNTIF(T25,"MDOC")-COUNTIF(T25,"MENT")-COUNTIF(T25,"MGST")-COUNTIF(T25,"MINS")-COUNTIF(T25,"MOFI")-COUNTIF(T25,"MPRO")-COUNTIF(T25,"MSMS")-COUNTIF(T25,"NCHC")-COUNTIF(T25,"NENT")-COUNTIF(T25,"NINS")-COUNTIF(T25,"SIND")-COUNTIF(T25,"TATF")-COUNTIF(T25,"TCAE")-COUNTIF(T25,"TCHC")-COUNTIF(T25,"TCOR")-COUNTIF(T25,"TDBM")-COUNTIF(T25,"TDOC")-COUNTIF(T25,"TENT")-COUNTIF(T25,"TGST")-COUNTIF(T25,"TINS")-COUNTIF(T25,"TOFI")-COUNTIF(T25,"TPRO")-COUNTIF(T25,"TROP")-COUNTIF(T25,"TSMS")-COUNTIF(T25,"VACA")-COUNTIF(T25,"X")-COUNTIF(T25,"XATC")-COUNTIF(T25,"YATC")-COUNTIF(T25,"ZATC")+COUNTBLANK(N20)+COUNTIF(N20,"&lt;&gt;")-COUNTIF(N20,"ACHC")-COUNTIF(N20,"AENT")-COUNTIF(N20,"AINS")-COUNTIF(N20,"ATC")-COUNTIF(N20,"CAPA")-COUNTIF(N20,"CERT")-COUNTIF(N20,"CET")-COUNTIF(N20,"CMED")-COUNTIF(N20,"COME")-COUNTIF(N20,"COMS")-COUNTIF(N20,"COMT")-COUNTIF(N20,"DESC")-COUNTIF(N20,"KATC")-COUNTIF(N20,"LICR")-COUNTIF(N20,"MATF")-COUNTIF(N20,"MCAE")-COUNTIF(N20,"MCHC")-COUNTIF(N20,"MCOR")-COUNTIF(N20,"MDBM")-COUNTIF(N20,"MDOC")-COUNTIF(N20,"MENT")-COUNTIF(N20,"MGST")-COUNTIF(N20,"MINS")-COUNTIF(N20,"MOFI")-COUNTIF(N20,"MPRO")-COUNTIF(N20,"MSMS")-COUNTIF(N20,"NCHC")-COUNTIF(N20,"NENT")-COUNTIF(N20,"NINS")-COUNTIF(N20,"SIND")-COUNTIF(N20,"TATF")-COUNTIF(N20,"TCAE")-COUNTIF(N20,"TCHC")-COUNTIF(N20,"TCOR")-COUNTIF(N20,"TDBM")-COUNTIF(N20,"TDOC")-COUNTIF(N20,"TENT")-COUNTIF(N20,"TGST")-COUNTIF(N20,"TINS")-COUNTIF(N20,"TOFI")-COUNTIF(N20,"TPRO")-COUNTIF(N20,"TROP")-COUNTIF(N20,"TSMS")-COUNTIF(N20,"VACA")-COUNTIF(N20,"X")-COUNTIF(N20,"XATC")-COUNTIF(N20,"YATC")-COUNTIF(N20,"ZATC")+COUNTBLANK(T23)+COUNTIF(T23,"&lt;&gt;")-COUNTIF(T23,"ACHC")-COUNTIF(T23,"AENT")-COUNTIF(T23,"AINS")-COUNTIF(T23,"ATC")-COUNTIF(T23,"CAPA")-COUNTIF(T23,"CERT")-COUNTIF(T23,"CET")-COUNTIF(T23,"CMED")-COUNTIF(T23,"COME")-COUNTIF(T23,"COMS")-COUNTIF(T23,"COMT")-COUNTIF(T23,"DESC")-COUNTIF(T23,"KATC")-COUNTIF(T23,"LICR")-COUNTIF(T23,"MATF")-COUNTIF(T23,"MCAE")-COUNTIF(T23,"MCHC")-COUNTIF(T23,"MCOR")-COUNTIF(T23,"MDBM")-COUNTIF(T23,"MDOC")-COUNTIF(T23,"MENT")-COUNTIF(T23,"MGST")-COUNTIF(T23,"MINS")-COUNTIF(T23,"MOFI")-COUNTIF(T23,"MPRO")-COUNTIF(T23,"MSMS")-COUNTIF(T23,"NCHC")-COUNTIF(T23,"NENT")-COUNTIF(T23,"NINS")-COUNTIF(T23,"SIND")-COUNTIF(T23,"TATF")-COUNTIF(T23,"TCAE")-COUNTIF(T23,"TCHC")-COUNTIF(T23,"TCOR")-COUNTIF(T23,"TDBM")-COUNTIF(T23,"TDOC")-COUNTIF(T23,"TENT")-COUNTIF(T23,"TGST")-COUNTIF(T23,"TINS")-COUNTIF(T23,"TOFI")-COUNTIF(T23,"TPRO")-COUNTIF(T23,"TROP")-COUNTIF(T23,"TSMS")-COUNTIF(T23,"VACA")-COUNTIF(T23,"X")-COUNTIF(T23,"XATC")-COUNTIF(T23,"YATC")-COUNTIF(T23,"ZATC")+COUNTBLANK(T21)+COUNTIF(T21,"&lt;&gt;")-COUNTIF(T21,"ACHC")-COUNTIF(T21,"AENT")-COUNTIF(T21,"AINS")-COUNTIF(T21,"ATC")-COUNTIF(T21,"CAPA")-COUNTIF(T21,"CERT")-COUNTIF(T21,"CET")-COUNTIF(T21,"CMED")-COUNTIF(T21,"COME")-COUNTIF(T21,"COMS")-COUNTIF(T21,"COMT")-COUNTIF(T21,"DESC")-COUNTIF(T21,"KATC")-COUNTIF(T21,"LICR")-COUNTIF(T21,"MATF")-COUNTIF(T21,"MCAE")-COUNTIF(T21,"MCHC")-COUNTIF(T21,"MCOR")-COUNTIF(T21,"MDBM")-COUNTIF(T21,"MDOC")-COUNTIF(T21,"MENT")-COUNTIF(T21,"MGST")-COUNTIF(T21,"MINS")-COUNTIF(T21,"MOFI")-COUNTIF(T21,"MPRO")-COUNTIF(T21,"MSMS")-COUNTIF(T21,"NCHC")-COUNTIF(T21,"NENT")-COUNTIF(T21,"NINS")-COUNTIF(T21,"SIND")-COUNTIF(T21,"TATF")-COUNTIF(T21,"TCAE")-COUNTIF(T21,"TCHC")-COUNTIF(T21,"TCOR")-COUNTIF(T21,"TDBM")-COUNTIF(T21,"TDOC")-COUNTIF(T21,"TENT")-COUNTIF(T21,"TGST")-COUNTIF(T21,"TINS")-COUNTIF(T21,"TOFI")-COUNTIF(T21,"TPRO")-COUNTIF(T21,"TROP")-COUNTIF(T21,"TSMS")-COUNTIF(T21,"VACA")-COUNTIF(T21,"X")-COUNTIF(T21,"XATC")-COUNTIF(T21,"YATC")-COUNTIF(T21,"ZATC")+COUNTBLANK(T24)+COUNTIF(T24,"&lt;&gt;")-COUNTIF(T24,"ACHC")-COUNTIF(T24,"AENT")-COUNTIF(T24,"AINS")-COUNTIF(T24,"ATC")-COUNTIF(T24,"CAPA")-COUNTIF(T24,"CERT")-COUNTIF(T24,"CET")-COUNTIF(T24,"CMED")-COUNTIF(T24,"COME")-COUNTIF(T24,"COMS")-COUNTIF(T24,"COMT")-COUNTIF(T24,"DESC")-COUNTIF(T24,"KATC")-COUNTIF(T24,"LICR")-COUNTIF(T24,"MATF")-COUNTIF(T24,"MCAE")-COUNTIF(T24,"MCHC")-COUNTIF(T24,"MCOR")-COUNTIF(T24,"MDBM")-COUNTIF(T24,"MDOC")-COUNTIF(T24,"MENT")-COUNTIF(T24,"MGST")-COUNTIF(T24,"MINS")-COUNTIF(T24,"MOFI")-COUNTIF(T24,"MPRO")-COUNTIF(T24,"MSMS")-COUNTIF(T24,"NCHC")-COUNTIF(T24,"NENT")-COUNTIF(T24,"NINS")-COUNTIF(T24,"SIND")-COUNTIF(T24,"TATF")-COUNTIF(T24,"TCAE")-COUNTIF(T24,"TCHC")-COUNTIF(T24,"TCOR")-COUNTIF(T24,"TDBM")-COUNTIF(T24,"TDOC")-COUNTIF(T24,"TENT")-COUNTIF(T24,"TGST")-COUNTIF(T24,"TINS")-COUNTIF(T24,"TOFI")-COUNTIF(T24,"TPRO")-COUNTIF(T24,"TROP")-COUNTIF(T24,"TSMS")-COUNTIF(T24,"VACA")-COUNTIF(T24,"X")-COUNTIF(T24,"XATC")-COUNTIF(T24,"YATC")-COUNTIF(T24,"ZATC")</f>
         <v>6</v>
       </c>
       <c r="U26">
@@ -3231,7 +3252,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27:AF27" si="1">COUNTBLANK(B2:B25)+COUNTIF(B2:B25,"&lt;&gt;")-COUNTIF(B2:B25,"ACHC")-COUNTIF(B2:B25,"AENT")-COUNTIF(B2:B25,"AINS")-COUNTIF(B2:B25,"ATC")-COUNTIF(B2:B25,"CAPA")-COUNTIF(B2:B25,"CERT")-COUNTIF(B2:B25,"CET")-COUNTIF(B2:B25,"CMED")-COUNTIF(B2:B25,"COME")-COUNTIF(B2:B25,"COMS")-COUNTIF(B2:B25,"COMT")-COUNTIF(B2:B25,"DESC")-COUNTIF(B2:B25,"KATC")-COUNTIF(B2:B25,"LICR")-COUNTIF(B2:B25,"MATF")-COUNTIF(B2:B25,"MCAE")-COUNTIF(B2:B25,"MCHC")-COUNTIF(B2:B25,"MCOR")-COUNTIF(B2:B25,"MDBM")-COUNTIF(B2:B25,"MDOC")-COUNTIF(B2:B25,"MENT")-COUNTIF(B2:B25,"MGST")-COUNTIF(B2:B25,"MINS")-COUNTIF(B2:B25,"MOFI")-COUNTIF(B2:B25,"MPRO")-COUNTIF(B2:B25,"MSMS")-COUNTIF(B2:B25,"NCHC")-COUNTIF(B2:B25,"NENT")-COUNTIF(B2:B25,"NINS")-COUNTIF(B2:B25,"SIND")-COUNTIF(B2:B25,"TATF")-COUNTIF(B2:B25,"TCAE")-COUNTIF(B2:B25,"TCHC")-COUNTIF(B2:B25,"TCOR")-COUNTIF(B2:B25,"TDBM")-COUNTIF(B2:B25,"TDOC")-COUNTIF(B2:B25,"TENT")-COUNTIF(B2:B25,"TGST")-COUNTIF(B2:B25,"TINS")-COUNTIF(B2:B25,"TOFI")-COUNTIF(B2:B25,"TPRO")-COUNTIF(B2:B25,"TROP")-COUNTIF(B2:B25,"TSMS")-COUNTIF(B2:B25,"VACA")-COUNTIF(B2:B25,"X")-COUNTIF(B2:B25,"XATC")-COUNTIF(B2:B25,"YATC")-COUNTIF(B2:B25,"ZATC")</f>
@@ -3251,7 +3272,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
@@ -3279,11 +3300,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
@@ -3291,7 +3312,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
@@ -3307,7 +3328,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
@@ -3335,7 +3356,7 @@
       </c>
       <c r="AA27">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB27">
         <f t="shared" si="1"/>
@@ -3360,7 +3381,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="16">
         <v>10</v>
@@ -3458,7 +3479,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3566,7 +3587,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3579,40 +3600,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -3621,7 +3642,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(HorarioUnificado!B2:AF2,"DESC")+COUNTIF(HorarioUnificado!B2:AF2,"TROP")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>COUNTIF(HorarioUnificado!B2:AF2,"1T")+COUNTIF(HorarioUnificado!B2:AF2,"7")+COUNTIF(HorarioUnificado!B2:AF2,"1")</f>
@@ -3666,7 +3687,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <f>COUNTIF(HorarioUnificado!B3:AF3,"DESC")+COUNTIF(HorarioUnificado!B3:AF3,"TROP")</f>
@@ -3715,7 +3736,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <f>COUNTIF(HorarioUnificado!B4:AF4,"DESC")+COUNTIF(HorarioUnificado!B4:AF4,"TROP")</f>
@@ -3764,7 +3785,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"DESC")+COUNTIF(HorarioUnificado!B5:AF5,"TROP")</f>
@@ -3792,7 +3813,7 @@
       </c>
       <c r="H5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"6N")+COUNTIF(HorarioUnificado!B5:AF5,"S")+COUNTIF(HorarioUnificado!B5:AF5,"N")+COUNTIF(HorarioUnificado!B5:AF5,"MCORTS")+COUNTIF(HorarioUnificado!B5:AF5,"MCORTN")+COUNTIF(HorarioUnificado!B5:AF5,"MANRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TANRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TNAS")+COUNTIF(HorarioUnificado!B5:AF5,"MNAS")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"6S")+COUNTIF(HorarioUnificado!B5:AF5,"6N")</f>
@@ -3813,7 +3834,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <f>COUNTIF(HorarioUnificado!B6:AF6,"DESC")+COUNTIF(HorarioUnificado!B6:AF6,"TROP")</f>
@@ -3862,11 +3883,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"DESC")+COUNTIF(HorarioUnificado!B7:AF7,"TROP")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"1T")+COUNTIF(HorarioUnificado!B7:AF7,"7")+COUNTIF(HorarioUnificado!B7:AF7,"1")</f>
@@ -3882,19 +3903,19 @@
       </c>
       <c r="F7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"3")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"6S")+COUNTIF(HorarioUnificado!B7:AF7,"MASRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TASRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TSAS")+COUNTIF(HorarioUnificado!B7:AF7,"MSAS")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"6N")+COUNTIF(HorarioUnificado!B7:AF7,"S")+COUNTIF(HorarioUnificado!B7:AF7,"N")+COUNTIF(HorarioUnificado!B7:AF7,"MCORTS")+COUNTIF(HorarioUnificado!B7:AF7,"MCORTN")+COUNTIF(HorarioUnificado!B7:AF7,"MANRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TANRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TNAS")+COUNTIF(HorarioUnificado!B7:AF7,"MNAS")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"6S")+COUNTIF(HorarioUnificado!B7:AF7,"6N")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"BANTD")+COUNTIF(HorarioUnificado!B7:AF7,"BLPTD")+6*COUNTIF(HorarioUnificado!B7:AF7,"6ND")+6*COUNTIF(HorarioUnificado!B7:AF7,"6SN")+6*COUNTIF(HorarioUnificado!B7:AF7,"6MTD")</f>
@@ -3911,7 +3932,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <f>COUNTIF(HorarioUnificado!B8:AF8,"DESC")+COUNTIF(HorarioUnificado!B8:AF8,"TROP")</f>
@@ -3939,7 +3960,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(HorarioUnificado!B8:AF8,"6N")+COUNTIF(HorarioUnificado!B8:AF8,"S")+COUNTIF(HorarioUnificado!B8:AF8,"N")+COUNTIF(HorarioUnificado!B8:AF8,"MCORTS")+COUNTIF(HorarioUnificado!B8:AF8,"MCORTN")+COUNTIF(HorarioUnificado!B8:AF8,"MANRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TANRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TNAS")+COUNTIF(HorarioUnificado!B8:AF8,"MNAS")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <f>COUNTIF(HorarioUnificado!B8:AF8,"6S")+COUNTIF(HorarioUnificado!B8:AF8,"6N")</f>
@@ -3960,7 +3981,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <f>COUNTIF(HorarioUnificado!B9:AF9,"DESC")+COUNTIF(HorarioUnificado!B9:AF9,"TROP")</f>
@@ -4009,7 +4030,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <f>COUNTIF(HorarioUnificado!B10:AF10,"DESC")+COUNTIF(HorarioUnificado!B10:AF10,"TROP")</f>
@@ -4058,7 +4079,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"DESC")+COUNTIF(HorarioUnificado!B11:AF11,"TROP")</f>
@@ -4078,7 +4099,7 @@
       </c>
       <c r="F11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"3")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"6S")+COUNTIF(HorarioUnificado!B11:AF11,"MASRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TASRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TSAS")+COUNTIF(HorarioUnificado!B11:AF11,"MSAS")</f>
@@ -4086,11 +4107,11 @@
       </c>
       <c r="H11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"6N")+COUNTIF(HorarioUnificado!B11:AF11,"S")+COUNTIF(HorarioUnificado!B11:AF11,"N")+COUNTIF(HorarioUnificado!B11:AF11,"MCORTS")+COUNTIF(HorarioUnificado!B11:AF11,"MCORTN")+COUNTIF(HorarioUnificado!B11:AF11,"MANRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TANRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TNAS")+COUNTIF(HorarioUnificado!B11:AF11,"MNAS")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"6S")+COUNTIF(HorarioUnificado!B11:AF11,"6N")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"BANTD")+COUNTIF(HorarioUnificado!B11:AF11,"BLPTD")+6*COUNTIF(HorarioUnificado!B11:AF11,"6ND")+6*COUNTIF(HorarioUnificado!B11:AF11,"6SN")+6*COUNTIF(HorarioUnificado!B11:AF11,"6MTD")</f>
@@ -4107,7 +4128,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <f>COUNTIF(HorarioUnificado!B12:AF12,"DESC")+COUNTIF(HorarioUnificado!B12:AF12,"TROP")</f>
@@ -4156,7 +4177,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HorarioUnificado!B13:AF13,"DESC")+COUNTIF(HorarioUnificado!B13:AF13,"TROP")</f>
@@ -4205,7 +4226,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <f>COUNTIF(HorarioUnificado!B14:AF14,"DESC")+COUNTIF(HorarioUnificado!B14:AF14,"TROP")</f>
@@ -4254,7 +4275,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <f>COUNTIF(HorarioUnificado!B15:AF15,"DESC")+COUNTIF(HorarioUnificado!B15:AF15,"TROP")</f>
@@ -4303,7 +4324,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <f>COUNTIF(HorarioUnificado!B16:AF16,"DESC")+COUNTIF(HorarioUnificado!B16:AF16,"TROP")</f>
@@ -4352,7 +4373,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"DESC")+COUNTIF(HorarioUnificado!B17:AF17,"TROP")</f>
@@ -4372,11 +4393,11 @@
       </c>
       <c r="F17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"3")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"6S")+COUNTIF(HorarioUnificado!B17:AF17,"MASRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TASRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TSAS")+COUNTIF(HorarioUnificado!B17:AF17,"MSAS")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"6N")+COUNTIF(HorarioUnificado!B17:AF17,"S")+COUNTIF(HorarioUnificado!B17:AF17,"N")+COUNTIF(HorarioUnificado!B17:AF17,"MCORTS")+COUNTIF(HorarioUnificado!B17:AF17,"MCORTN")+COUNTIF(HorarioUnificado!B17:AF17,"MANRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TANRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TNAS")+COUNTIF(HorarioUnificado!B17:AF17,"MNAS")</f>
@@ -4384,7 +4405,7 @@
       </c>
       <c r="I17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"6S")+COUNTIF(HorarioUnificado!B17:AF17,"6N")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"BANTD")+COUNTIF(HorarioUnificado!B17:AF17,"BLPTD")+6*COUNTIF(HorarioUnificado!B17:AF17,"6ND")+6*COUNTIF(HorarioUnificado!B17:AF17,"6SN")+6*COUNTIF(HorarioUnificado!B17:AF17,"6MTD")</f>
@@ -4401,7 +4422,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"DESC")+COUNTIF(HorarioUnificado!B18:AF18,"TROP")</f>
@@ -4425,11 +4446,11 @@
       </c>
       <c r="G18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"6S")+COUNTIF(HorarioUnificado!B18:AF18,"MASRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TASRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TSAS")+COUNTIF(HorarioUnificado!B18:AF18,"MSAS")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"6N")+COUNTIF(HorarioUnificado!B18:AF18,"S")+COUNTIF(HorarioUnificado!B18:AF18,"N")+COUNTIF(HorarioUnificado!B18:AF18,"MCORTS")+COUNTIF(HorarioUnificado!B18:AF18,"MCORTN")+COUNTIF(HorarioUnificado!B18:AF18,"MANRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TANRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TNAS")+COUNTIF(HorarioUnificado!B18:AF18,"MNAS")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"6S")+COUNTIF(HorarioUnificado!B18:AF18,"6N")</f>
@@ -4450,7 +4471,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <f>COUNTIF(HorarioUnificado!B19:AF19,"DESC")+COUNTIF(HorarioUnificado!B19:AF19,"TROP")</f>
@@ -4499,7 +4520,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <f>COUNTIF(HorarioUnificado!B20:AF20,"DESC")+COUNTIF(HorarioUnificado!B20:AF20,"TROP")</f>
@@ -4548,7 +4569,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <f>COUNTIF(HorarioUnificado!B21:AF21,"DESC")+COUNTIF(HorarioUnificado!B21:AF21,"TROP")</f>
@@ -4597,7 +4618,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <f>COUNTIF(HorarioUnificado!B22:AF22,"DESC")+COUNTIF(HorarioUnificado!B22:AF22,"TROP")</f>
@@ -4646,7 +4667,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <f>COUNTIF(HorarioUnificado!B23:AF23,"DESC")+COUNTIF(HorarioUnificado!B23:AF23,"TROP")</f>
@@ -4695,7 +4716,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"DESC")+COUNTIF(HorarioUnificado!B24:AF24,"TROP")</f>
@@ -4744,7 +4765,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"DESC")+COUNTIF(HorarioUnificado!B25:AF25,"TROP")</f>

--- a/horarioUnificado_con_mofis.xlsx
+++ b/horarioUnificado_con_mofis.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="107">
   <si>
     <t>SIGLA ATCO</t>
   </si>
@@ -157,12 +157,18 @@
     <t>TROP</t>
   </si>
   <si>
+    <t>MN</t>
+  </si>
+  <si>
     <t>DESC</t>
   </si>
   <si>
     <t>COMS</t>
   </si>
   <si>
+    <t>LIBR</t>
+  </si>
+  <si>
     <t>HLG</t>
   </si>
   <si>
@@ -196,18 +202,15 @@
     <t>TN</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>VCM</t>
   </si>
   <si>
+    <t>TS</t>
+  </si>
+  <si>
     <t>ROP</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -241,9 +244,15 @@
     <t>3D</t>
   </si>
   <si>
+    <t>TLPR</t>
+  </si>
+  <si>
     <t>FCE</t>
   </si>
   <si>
+    <t>1T</t>
+  </si>
+  <si>
     <t>BANTD</t>
   </si>
   <si>
@@ -253,48 +262,48 @@
     <t>JBV</t>
   </si>
   <si>
-    <t>1T</t>
+    <t/>
   </si>
   <si>
     <t>GMT</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>SIND</t>
   </si>
   <si>
     <t>BRS</t>
   </si>
   <si>
-    <t>TLPR</t>
+    <t>TANR</t>
   </si>
   <si>
     <t>HZG</t>
   </si>
   <si>
+    <t>MDBM</t>
+  </si>
+  <si>
+    <t>JIS</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>WGG</t>
+  </si>
+  <si>
+    <t>GCE</t>
+  </si>
+  <si>
+    <t>YIS</t>
+  </si>
+  <si>
     <t>6RT</t>
   </si>
   <si>
-    <t>MDBM</t>
-  </si>
-  <si>
-    <t>JIS</t>
-  </si>
-  <si>
-    <t>CDT</t>
-  </si>
-  <si>
-    <t>WGG</t>
-  </si>
-  <si>
-    <t>GCE</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>YIS</t>
-  </si>
-  <si>
     <t>NLPRD</t>
   </si>
   <si>
@@ -346,19 +355,19 @@
     <t>6D</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>MANRAS</t>
-  </si>
-  <si>
-    <t>TANR</t>
-  </si>
-  <si>
-    <t>LIBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>MANRTN</t>
+  </si>
+  <si>
+    <t>MNTANR</t>
+  </si>
+  <si>
+    <t>ASTANR</t>
+  </si>
+  <si>
+    <t>MANR</t>
+  </si>
+  <si>
+    <t>MCORTS</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +503,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6A7201"/>
+        <bgColor rgb="FF6A7201"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
@@ -526,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -536,22 +551,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,9 +855,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:TZ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -845,8 +865,8 @@
     <col min="1" max="31" width="6.6328125" customWidth="1"/>
     <col min="32" max="32" width="5.6328125" customWidth="1"/>
     <col min="33" max="546" width="6.6328125" hidden="1" customWidth="1"/>
-    <col min="547" max="553" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="554" max="16384" width="8.7265625" hidden="1"/>
+    <col min="547" max="554" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="555" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -951,672 +971,681 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="Q2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>37</v>
+      <c r="S2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>44</v>
+      <c r="U3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="H4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="19" t="s">
+      <c r="T4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="V4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>48</v>
+      <c r="Z4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N5" s="19" t="s">
+      <c r="L5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="N5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="AA5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AF5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="3" t="s">
+      <c r="N6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="W6" s="3" t="s">
+      <c r="Y6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>46</v>
+      <c r="AD6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="10" t="s">
+      <c r="B7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="11" t="s">
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>36</v>
+      <c r="AE7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="W8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD8" s="19" t="s">
+      <c r="O8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF8" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>35</v>
@@ -1624,1506 +1653,1581 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="13" t="s">
+      <c r="V9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="AC9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="AE9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>39</v>
+      <c r="AF9" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="O10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="13" t="s">
+      <c r="Q10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB10" s="11" t="s">
+      <c r="Z10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF10">
+      <c r="AF10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="X11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF11" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>99</v>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF12" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" t="s">
-        <v>43</v>
-      </c>
-      <c r="T13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>43</v>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="AC14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" t="s">
-        <v>63</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>36</v>
+      <c r="AD14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="P15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="15"/>
+      <c r="U15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M15" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF15" s="3" t="s">
+      <c r="Y15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="Q16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="T16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" t="s">
-        <v>55</v>
-      </c>
-      <c r="T16" t="s">
-        <v>59</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AD16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="12" t="s">
         <v>42</v>
+      </c>
+      <c r="AF16" s="21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="15"/>
+      <c r="O17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="S17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" s="10" t="s">
+      <c r="AA17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AE17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AD17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>36</v>
+      <c r="AF17" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="15"/>
+      <c r="U18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF18" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF18" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19">
+        <v>82</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="15">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X19" s="11" t="s">
+      <c r="S19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="T19" s="15"/>
+      <c r="U19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC19" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" s="15"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>72</v>
-      </c>
-      <c r="R20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" t="s">
-        <v>68</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" t="s">
-        <v>72</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>68</v>
+      <c r="B20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="X20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF20" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="L21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M21" t="s">
-        <v>86</v>
-      </c>
-      <c r="N21" t="s">
-        <v>82</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="S21" t="s">
-        <v>72</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" t="s">
-        <v>72</v>
-      </c>
-      <c r="W21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>72</v>
+      <c r="O21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="W21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF21" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T22" t="s">
-        <v>83</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF22" s="3" t="s">
-        <v>37</v>
+      <c r="U22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s">
-        <v>86</v>
-      </c>
-      <c r="U23" t="s">
-        <v>72</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="X23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF23" s="9" t="s">
-        <v>66</v>
+      <c r="AB23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF23" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="U24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" t="s">
-        <v>68</v>
-      </c>
-      <c r="T24" t="s">
-        <v>82</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" t="s">
-        <v>68</v>
-      </c>
-      <c r="X24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AB24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N25" t="s">
-        <v>83</v>
-      </c>
-      <c r="O25" t="s">
-        <v>85</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T25" t="s">
-        <v>72</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X25" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="AB25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF25" s="8" t="s">
-        <v>74</v>
+      <c r="O25" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF25" s="24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B26" t="e">
         <f>COUNTBLANK(B21)+COUNTIF(B21,"&lt;&gt;")-COUNTIF(B21,"ACHC")-COUNTIF(B21,"AENT")-COUNTIF(B21,"AINS")-COUNTIF(B21,"ATC")-COUNTIF(B21,"CAPA")-COUNTIF(B21,"CERT")-COUNTIF(B21,"CET")-COUNTIF(B21,"CMED")-COUNTIF(B21,"COME")-COUNTIF(B21,"COMS")-COUNTIF(B21,"COMT")-COUNTIF(B21,"DESC")-COUNTIF(B21,"KATC")-COUNTIF(B21,"LICR")-COUNTIF(B21,"MATF")-COUNTIF(B21,"MCAE")-COUNTIF(B21,"MCHC")-COUNTIF(B21,"MCOR")-COUNTIF(B21,"MDBM")-COUNTIF(B21,"MDOC")-COUNTIF(B21,"MENT")-COUNTIF(B21,"MGST")-COUNTIF(B21,"MINS")-COUNTIF(B21,"MOFI")-COUNTIF(B21,"MPRO")-COUNTIF(B21,"MSMS")-COUNTIF(B21,"NCHC")-COUNTIF(B21,"NENT")-COUNTIF(B21,"NINS")-COUNTIF(B21,"SIND")-COUNTIF(B21,"TATF")-COUNTIF(B21,"TCAE")-COUNTIF(B21,"TCHC")-COUNTIF(B21,"TCOR")-COUNTIF(B21,"TDBM")-COUNTIF(B21,"TDOC")-COUNTIF(B21,"TENT")-COUNTIF(B21,"TGST")-COUNTIF(B21,"TINS")-COUNTIF(B21,"TOFI")-COUNTIF(B21,"TPRO")-COUNTIF(B21,"TROP")-COUNTIF(B21,"TSMS")-COUNTIF(B21,"VACA")-COUNTIF(B21,"X")-COUNTIF(B21,"XATC")-COUNTIF(B21,"YATC")-COUNTIF(B21,"ZATC")+COUNTBLANK(B25)+COUNTIF(B25,"&lt;&gt;")-COUNTIF(B25,"ACHC")-COUNTIF(B25,"AENT")-COUNTIF(B25,"AINS")-COUNTIF(B25,"ATC")-COUNTIF(B25,"CAPA")-COUNTIF(B25,"CERT")-COUNTIF(B25,"CET")-COUNTIF(B25,"CMED")-COUNTIF(B25,"COME")-COUNTIF(B25,"COMS")-COUNTIF(B25,"COMT")-COUNTIF(B25,"DESC")-COUNTIF(B25,"KATC")-COUNTIF(B25,"LICR")-COUNTIF(B25,"MATF")-COUNTIF(B25,"MCAE")-COUNTIF(B25,"MCHC")-COUNTIF(B25,"MCOR")-COUNTIF(B25,"MDBM")-COUNTIF(B25,"MDOC")-COUNTIF(B25,"MENT")-COUNTIF(B25,"MGST")-COUNTIF(B25,"MINS")-COUNTIF(B25,"MOFI")-COUNTIF(B25,"MPRO")-COUNTIF(B25,"MSMS")-COUNTIF(B25,"NCHC")-COUNTIF(B25,"NENT")-COUNTIF(B25,"NINS")-COUNTIF(B25,"SIND")-COUNTIF(B25,"TATF")-COUNTIF(B25,"TCAE")-COUNTIF(B25,"TCHC")-COUNTIF(B25,"TCOR")-COUNTIF(B25,"TDBM")-COUNTIF(B25,"TDOC")-COUNTIF(B25,"TENT")-COUNTIF(B25,"TGST")-COUNTIF(B25,"TINS")-COUNTIF(B25,"TOFI")-COUNTIF(B25,"TPRO")-COUNTIF(B25,"TROP")-COUNTIF(B25,"TSMS")-COUNTIF(B25,"VACA")-COUNTIF(B25,"X")-COUNTIF(B25,"XATC")-COUNTIF(B25,"YATC")-COUNTIF(B25,"ZATC")+COUNTBLANK(B20)+COUNTIF(B20,"&lt;&gt;")-COUNTIF(B20,"ACHC")-COUNTIF(B20,"AENT")-COUNTIF(B20,"AINS")-COUNTIF(B20,"ATC")-COUNTIF(B20,"CAPA")-COUNTIF(B20,"CERT")-COUNTIF(B20,"CET")-COUNTIF(B20,"CMED")-COUNTIF(B20,"COME")-COUNTIF(B20,"COMS")-COUNTIF(B20,"COMT")-COUNTIF(B20,"DESC")-COUNTIF(B20,"KATC")-COUNTIF(B20,"LICR")-COUNTIF(B20,"MATF")-COUNTIF(B20,"MCAE")-COUNTIF(B20,"MCHC")-COUNTIF(B20,"MCOR")-COUNTIF(B20,"MDBM")-COUNTIF(B20,"MDOC")-COUNTIF(B20,"MENT")-COUNTIF(B20,"MGST")-COUNTIF(B20,"MINS")-COUNTIF(B20,"MOFI")-COUNTIF(B20,"MPRO")-COUNTIF(B20,"MSMS")-COUNTIF(B20,"NCHC")-COUNTIF(B20,"NENT")-COUNTIF(B20,"NINS")-COUNTIF(B20,"SIND")-COUNTIF(B20,"TATF")-COUNTIF(B20,"TCAE")-COUNTIF(B20,"TCHC")-COUNTIF(B20,"TCOR")-COUNTIF(B20,"TDBM")-COUNTIF(B20,"TDOC")-COUNTIF(B20,"TENT")-COUNTIF(B20,"TGST")-COUNTIF(B20,"TINS")-COUNTIF(B20,"TOFI")-COUNTIF(B20,"TPRO")-COUNTIF(B20,"TROP")-COUNTIF(B20,"TSMS")-COUNTIF(B20,"VACA")-COUNTIF(B20,"X")-COUNTIF(B20,"XATC")-COUNTIF(B20,"YATC")-COUNTIF(B20,"ZATC")+COUNTBLANK(B23)+COUNTIF(B23,"&lt;&gt;")-COUNTIF(B23,"ACHC")-COUNTIF(B23,"AENT")-COUNTIF(B23,"AINS")-COUNTIF(B23,"ATC")-COUNTIF(B23,"CAPA")-COUNTIF(B23,"CERT")-COUNTIF(B23,"CET")-COUNTIF(B23,"CMED")-COUNTIF(B23,"COME")-COUNTIF(B23,"COMS")-COUNTIF(B23,"COMT")-COUNTIF(B23,"DESC")-COUNTIF(B23,"KATC")-COUNTIF(B23,"LICR")-COUNTIF(B23,"MATF")-COUNTIF(B23,"MCAE")-COUNTIF(B23,"MCHC")-COUNTIF(B23,"MCOR")-COUNTIF(B23,"MDBM")-COUNTIF(B23,"MDOC")-COUNTIF(B23,"MENT")-COUNTIF(B23,"MGST")-COUNTIF(B23,"MINS")-COUNTIF(B23,"MOFI")-COUNTIF(B23,"MPRO")-COUNTIF(B23,"MSMS")-COUNTIF(B23,"NCHC")-COUNTIF(B23,"NENT")-COUNTIF(B23,"NINS")-COUNTIF(B23,"SIND")-COUNTIF(B23,"TATF")-COUNTIF(B23,"TCAE")-COUNTIF(B23,"TCHC")-COUNTIF(B23,"TCOR")-COUNTIF(B23,"TDBM")-COUNTIF(B23,"TDOC")-COUNTIF(B23,"TENT")-COUNTIF(B23,"TGST")-COUNTIF(B23,"TINS")-COUNTIF(B23,"TOFI")-COUNTIF(B23,"TPRO")-COUNTIF(B23,"TROP")-COUNTIF(B23,"TSMS")-COUNTIF(B23,"VACA")-COUNTIF(B23,"X")-COUNTIF(B23,"XATC")-COUNTIF(B23,"YATC")-COUNTIF(B23,"ZATC")+COUNTBLANK(#REF!)+COUNTIF(#REF!,"&lt;&gt;")-COUNTIF(#REF!,"ACHC")-COUNTIF(#REF!,"AENT")-COUNTIF(#REF!,"AINS")-COUNTIF(#REF!,"ATC")-COUNTIF(#REF!,"CAPA")-COUNTIF(#REF!,"CERT")-COUNTIF(#REF!,"CET")-COUNTIF(#REF!,"CMED")-COUNTIF(#REF!,"COME")-COUNTIF(#REF!,"COMS")-COUNTIF(#REF!,"COMT")-COUNTIF(#REF!,"DESC")-COUNTIF(#REF!,"KATC")-COUNTIF(#REF!,"LICR")-COUNTIF(#REF!,"MATF")-COUNTIF(#REF!,"MCAE")-COUNTIF(#REF!,"MCHC")-COUNTIF(#REF!,"MCOR")-COUNTIF(#REF!,"MDBM")-COUNTIF(#REF!,"MDOC")-COUNTIF(#REF!,"MENT")-COUNTIF(#REF!,"MGST")-COUNTIF(#REF!,"MINS")-COUNTIF(#REF!,"MOFI")-COUNTIF(#REF!,"MPRO")-COUNTIF(#REF!,"MSMS")-COUNTIF(#REF!,"NCHC")-COUNTIF(#REF!,"NENT")-COUNTIF(#REF!,"NINS")-COUNTIF(#REF!,"SIND")-COUNTIF(#REF!,"TATF")-COUNTIF(#REF!,"TCAE")-COUNTIF(#REF!,"TCHC")-COUNTIF(#REF!,"TCOR")-COUNTIF(#REF!,"TDBM")-COUNTIF(#REF!,"TDOC")-COUNTIF(#REF!,"TENT")-COUNTIF(#REF!,"TGST")-COUNTIF(#REF!,"TINS")-COUNTIF(#REF!,"TOFI")-COUNTIF(#REF!,"TPRO")-COUNTIF(#REF!,"TROP")-COUNTIF(#REF!,"TSMS")-COUNTIF(#REF!,"VACA")-COUNTIF(#REF!,"X")-COUNTIF(#REF!,"XATC")-COUNTIF(#REF!,"YATC")-COUNTIF(#REF!,"ZATC")+COUNTBLANK(B24)+COUNTIF(B24,"&lt;&gt;")-COUNTIF(B24,"ACHC")-COUNTIF(B24,"AENT")-COUNTIF(B24,"AINS")-COUNTIF(B24,"ATC")-COUNTIF(B24,"CAPA")-COUNTIF(B24,"CERT")-COUNTIF(B24,"CET")-COUNTIF(B24,"CMED")-COUNTIF(B24,"COME")-COUNTIF(B24,"COMS")-COUNTIF(B24,"COMT")-COUNTIF(B24,"DESC")-COUNTIF(B24,"KATC")-COUNTIF(B24,"LICR")-COUNTIF(B24,"MATF")-COUNTIF(B24,"MCAE")-COUNTIF(B24,"MCHC")-COUNTIF(B24,"MCOR")-COUNTIF(B24,"MDBM")-COUNTIF(B24,"MDOC")-COUNTIF(B24,"MENT")-COUNTIF(B24,"MGST")-COUNTIF(B24,"MINS")-COUNTIF(B24,"MOFI")-COUNTIF(B24,"MPRO")-COUNTIF(B24,"MSMS")-COUNTIF(B24,"NCHC")-COUNTIF(B24,"NENT")-COUNTIF(B24,"NINS")-COUNTIF(B24,"SIND")-COUNTIF(B24,"TATF")-COUNTIF(B24,"TCAE")-COUNTIF(B24,"TCHC")-COUNTIF(B24,"TCOR")-COUNTIF(B24,"TDBM")-COUNTIF(B24,"TDOC")-COUNTIF(B24,"TENT")-COUNTIF(B24,"TGST")-COUNTIF(B24,"TINS")-COUNTIF(B24,"TOFI")-COUNTIF(B24,"TPRO")-COUNTIF(B24,"TROP")-COUNTIF(B24,"TSMS")-COUNTIF(B24,"VACA")-COUNTIF(B24,"X")-COUNTIF(B24,"XATC")-COUNTIF(B24,"YATC")-COUNTIF(B24,"ZATC")</f>
@@ -3194,7 +3298,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:AD26" si="0">COUNTBLANK(S22)+COUNTIF(S22,"&lt;&gt;")-COUNTIF(S22,"ACHC")-COUNTIF(S22,"AENT")-COUNTIF(S22,"AINS")-COUNTIF(S22,"ATC")-COUNTIF(S22,"CAPA")-COUNTIF(S22,"CERT")-COUNTIF(S22,"CET")-COUNTIF(S22,"CMED")-COUNTIF(S22,"COME")-COUNTIF(S22,"COMS")-COUNTIF(S22,"COMT")-COUNTIF(S22,"DESC")-COUNTIF(S22,"KATC")-COUNTIF(S22,"LICR")-COUNTIF(S22,"MATF")-COUNTIF(S22,"MCAE")-COUNTIF(S22,"MCHC")-COUNTIF(S22,"MCOR")-COUNTIF(S22,"MDBM")-COUNTIF(S22,"MDOC")-COUNTIF(S22,"MENT")-COUNTIF(S22,"MGST")-COUNTIF(S22,"MINS")-COUNTIF(S22,"MOFI")-COUNTIF(S22,"MPRO")-COUNTIF(S22,"MSMS")-COUNTIF(S22,"NCHC")-COUNTIF(S22,"NENT")-COUNTIF(S22,"NINS")-COUNTIF(S22,"SIND")-COUNTIF(S22,"TATF")-COUNTIF(S22,"TCAE")-COUNTIF(S22,"TCHC")-COUNTIF(S22,"TCOR")-COUNTIF(S22,"TDBM")-COUNTIF(S22,"TDOC")-COUNTIF(S22,"TENT")-COUNTIF(S22,"TGST")-COUNTIF(S22,"TINS")-COUNTIF(S22,"TOFI")-COUNTIF(S22,"TPRO")-COUNTIF(S22,"TROP")-COUNTIF(S22,"TSMS")-COUNTIF(S22,"VACA")-COUNTIF(S22,"X")-COUNTIF(S22,"XATC")-COUNTIF(S22,"YATC")-COUNTIF(S22,"ZATC")+COUNTBLANK(S25)+COUNTIF(S25,"&lt;&gt;")-COUNTIF(S25,"ACHC")-COUNTIF(S25,"AENT")-COUNTIF(S25,"AINS")-COUNTIF(S25,"ATC")-COUNTIF(S25,"CAPA")-COUNTIF(S25,"CERT")-COUNTIF(S25,"CET")-COUNTIF(S25,"CMED")-COUNTIF(S25,"COME")-COUNTIF(S25,"COMS")-COUNTIF(S25,"COMT")-COUNTIF(S25,"DESC")-COUNTIF(S25,"KATC")-COUNTIF(S25,"LICR")-COUNTIF(S25,"MATF")-COUNTIF(S25,"MCAE")-COUNTIF(S25,"MCHC")-COUNTIF(S25,"MCOR")-COUNTIF(S25,"MDBM")-COUNTIF(S25,"MDOC")-COUNTIF(S25,"MENT")-COUNTIF(S25,"MGST")-COUNTIF(S25,"MINS")-COUNTIF(S25,"MOFI")-COUNTIF(S25,"MPRO")-COUNTIF(S25,"MSMS")-COUNTIF(S25,"NCHC")-COUNTIF(S25,"NENT")-COUNTIF(S25,"NINS")-COUNTIF(S25,"SIND")-COUNTIF(S25,"TATF")-COUNTIF(S25,"TCAE")-COUNTIF(S25,"TCHC")-COUNTIF(S25,"TCOR")-COUNTIF(S25,"TDBM")-COUNTIF(S25,"TDOC")-COUNTIF(S25,"TENT")-COUNTIF(S25,"TGST")-COUNTIF(S25,"TINS")-COUNTIF(S25,"TOFI")-COUNTIF(S25,"TPRO")-COUNTIF(S25,"TROP")-COUNTIF(S25,"TSMS")-COUNTIF(S25,"VACA")-COUNTIF(S25,"X")-COUNTIF(S25,"XATC")-COUNTIF(S25,"YATC")-COUNTIF(S25,"ZATC")+COUNTBLANK(S20)+COUNTIF(S20,"&lt;&gt;")-COUNTIF(S20,"ACHC")-COUNTIF(S20,"AENT")-COUNTIF(S20,"AINS")-COUNTIF(S20,"ATC")-COUNTIF(S20,"CAPA")-COUNTIF(S20,"CERT")-COUNTIF(S20,"CET")-COUNTIF(S20,"CMED")-COUNTIF(S20,"COME")-COUNTIF(S20,"COMS")-COUNTIF(S20,"COMT")-COUNTIF(S20,"DESC")-COUNTIF(S20,"KATC")-COUNTIF(S20,"LICR")-COUNTIF(S20,"MATF")-COUNTIF(S20,"MCAE")-COUNTIF(S20,"MCHC")-COUNTIF(S20,"MCOR")-COUNTIF(S20,"MDBM")-COUNTIF(S20,"MDOC")-COUNTIF(S20,"MENT")-COUNTIF(S20,"MGST")-COUNTIF(S20,"MINS")-COUNTIF(S20,"MOFI")-COUNTIF(S20,"MPRO")-COUNTIF(S20,"MSMS")-COUNTIF(S20,"NCHC")-COUNTIF(S20,"NENT")-COUNTIF(S20,"NINS")-COUNTIF(S20,"SIND")-COUNTIF(S20,"TATF")-COUNTIF(S20,"TCAE")-COUNTIF(S20,"TCHC")-COUNTIF(S20,"TCOR")-COUNTIF(S20,"TDBM")-COUNTIF(S20,"TDOC")-COUNTIF(S20,"TENT")-COUNTIF(S20,"TGST")-COUNTIF(S20,"TINS")-COUNTIF(S20,"TOFI")-COUNTIF(S20,"TPRO")-COUNTIF(S20,"TROP")-COUNTIF(S20,"TSMS")-COUNTIF(S20,"VACA")-COUNTIF(S20,"X")-COUNTIF(S20,"XATC")-COUNTIF(S20,"YATC")-COUNTIF(S20,"ZATC")+COUNTBLANK(S23)+COUNTIF(S23,"&lt;&gt;")-COUNTIF(S23,"ACHC")-COUNTIF(S23,"AENT")-COUNTIF(S23,"AINS")-COUNTIF(S23,"ATC")-COUNTIF(S23,"CAPA")-COUNTIF(S23,"CERT")-COUNTIF(S23,"CET")-COUNTIF(S23,"CMED")-COUNTIF(S23,"COME")-COUNTIF(S23,"COMS")-COUNTIF(S23,"COMT")-COUNTIF(S23,"DESC")-COUNTIF(S23,"KATC")-COUNTIF(S23,"LICR")-COUNTIF(S23,"MATF")-COUNTIF(S23,"MCAE")-COUNTIF(S23,"MCHC")-COUNTIF(S23,"MCOR")-COUNTIF(S23,"MDBM")-COUNTIF(S23,"MDOC")-COUNTIF(S23,"MENT")-COUNTIF(S23,"MGST")-COUNTIF(S23,"MINS")-COUNTIF(S23,"MOFI")-COUNTIF(S23,"MPRO")-COUNTIF(S23,"MSMS")-COUNTIF(S23,"NCHC")-COUNTIF(S23,"NENT")-COUNTIF(S23,"NINS")-COUNTIF(S23,"SIND")-COUNTIF(S23,"TATF")-COUNTIF(S23,"TCAE")-COUNTIF(S23,"TCHC")-COUNTIF(S23,"TCOR")-COUNTIF(S23,"TDBM")-COUNTIF(S23,"TDOC")-COUNTIF(S23,"TENT")-COUNTIF(S23,"TGST")-COUNTIF(S23,"TINS")-COUNTIF(S23,"TOFI")-COUNTIF(S23,"TPRO")-COUNTIF(S23,"TROP")-COUNTIF(S23,"TSMS")-COUNTIF(S23,"VACA")-COUNTIF(S23,"X")-COUNTIF(S23,"XATC")-COUNTIF(S23,"YATC")-COUNTIF(S23,"ZATC")+COUNTBLANK(S21)+COUNTIF(S21,"&lt;&gt;")-COUNTIF(S21,"ACHC")-COUNTIF(S21,"AENT")-COUNTIF(S21,"AINS")-COUNTIF(S21,"ATC")-COUNTIF(S21,"CAPA")-COUNTIF(S21,"CERT")-COUNTIF(S21,"CET")-COUNTIF(S21,"CMED")-COUNTIF(S21,"COME")-COUNTIF(S21,"COMS")-COUNTIF(S21,"COMT")-COUNTIF(S21,"DESC")-COUNTIF(S21,"KATC")-COUNTIF(S21,"LICR")-COUNTIF(S21,"MATF")-COUNTIF(S21,"MCAE")-COUNTIF(S21,"MCHC")-COUNTIF(S21,"MCOR")-COUNTIF(S21,"MDBM")-COUNTIF(S21,"MDOC")-COUNTIF(S21,"MENT")-COUNTIF(S21,"MGST")-COUNTIF(S21,"MINS")-COUNTIF(S21,"MOFI")-COUNTIF(S21,"MPRO")-COUNTIF(S21,"MSMS")-COUNTIF(S21,"NCHC")-COUNTIF(S21,"NENT")-COUNTIF(S21,"NINS")-COUNTIF(S21,"SIND")-COUNTIF(S21,"TATF")-COUNTIF(S21,"TCAE")-COUNTIF(S21,"TCHC")-COUNTIF(S21,"TCOR")-COUNTIF(S21,"TDBM")-COUNTIF(S21,"TDOC")-COUNTIF(S21,"TENT")-COUNTIF(S21,"TGST")-COUNTIF(S21,"TINS")-COUNTIF(S21,"TOFI")-COUNTIF(S21,"TPRO")-COUNTIF(S21,"TROP")-COUNTIF(S21,"TSMS")-COUNTIF(S21,"VACA")-COUNTIF(S21,"X")-COUNTIF(S21,"XATC")-COUNTIF(S21,"YATC")-COUNTIF(S21,"ZATC")+COUNTBLANK(S24)+COUNTIF(S24,"&lt;&gt;")-COUNTIF(S24,"ACHC")-COUNTIF(S24,"AENT")-COUNTIF(S24,"AINS")-COUNTIF(S24,"ATC")-COUNTIF(S24,"CAPA")-COUNTIF(S24,"CERT")-COUNTIF(S24,"CET")-COUNTIF(S24,"CMED")-COUNTIF(S24,"COME")-COUNTIF(S24,"COMS")-COUNTIF(S24,"COMT")-COUNTIF(S24,"DESC")-COUNTIF(S24,"KATC")-COUNTIF(S24,"LICR")-COUNTIF(S24,"MATF")-COUNTIF(S24,"MCAE")-COUNTIF(S24,"MCHC")-COUNTIF(S24,"MCOR")-COUNTIF(S24,"MDBM")-COUNTIF(S24,"MDOC")-COUNTIF(S24,"MENT")-COUNTIF(S24,"MGST")-COUNTIF(S24,"MINS")-COUNTIF(S24,"MOFI")-COUNTIF(S24,"MPRO")-COUNTIF(S24,"MSMS")-COUNTIF(S24,"NCHC")-COUNTIF(S24,"NENT")-COUNTIF(S24,"NINS")-COUNTIF(S24,"SIND")-COUNTIF(S24,"TATF")-COUNTIF(S24,"TCAE")-COUNTIF(S24,"TCHC")-COUNTIF(S24,"TCOR")-COUNTIF(S24,"TDBM")-COUNTIF(S24,"TDOC")-COUNTIF(S24,"TENT")-COUNTIF(S24,"TGST")-COUNTIF(S24,"TINS")-COUNTIF(S24,"TOFI")-COUNTIF(S24,"TPRO")-COUNTIF(S24,"TROP")-COUNTIF(S24,"TSMS")-COUNTIF(S24,"VACA")-COUNTIF(S24,"X")-COUNTIF(S24,"XATC")-COUNTIF(S24,"YATC")-COUNTIF(S24,"ZATC")</f>
+        <f>COUNTBLANK(S22)+COUNTIF(S22,"&lt;&gt;")-COUNTIF(S22,"ACHC")-COUNTIF(S22,"AENT")-COUNTIF(S22,"AINS")-COUNTIF(S22,"ATC")-COUNTIF(S22,"CAPA")-COUNTIF(S22,"CERT")-COUNTIF(S22,"CET")-COUNTIF(S22,"CMED")-COUNTIF(S22,"COME")-COUNTIF(S22,"COMS")-COUNTIF(S22,"COMT")-COUNTIF(S22,"DESC")-COUNTIF(S22,"KATC")-COUNTIF(S22,"LICR")-COUNTIF(S22,"MATF")-COUNTIF(S22,"MCAE")-COUNTIF(S22,"MCHC")-COUNTIF(S22,"MCOR")-COUNTIF(S22,"MDBM")-COUNTIF(S22,"MDOC")-COUNTIF(S22,"MENT")-COUNTIF(S22,"MGST")-COUNTIF(S22,"MINS")-COUNTIF(S22,"MOFI")-COUNTIF(S22,"MPRO")-COUNTIF(S22,"MSMS")-COUNTIF(S22,"NCHC")-COUNTIF(S22,"NENT")-COUNTIF(S22,"NINS")-COUNTIF(S22,"SIND")-COUNTIF(S22,"TATF")-COUNTIF(S22,"TCAE")-COUNTIF(S22,"TCHC")-COUNTIF(S22,"TCOR")-COUNTIF(S22,"TDBM")-COUNTIF(S22,"TDOC")-COUNTIF(S22,"TENT")-COUNTIF(S22,"TGST")-COUNTIF(S22,"TINS")-COUNTIF(S22,"TOFI")-COUNTIF(S22,"TPRO")-COUNTIF(S22,"TROP")-COUNTIF(S22,"TSMS")-COUNTIF(S22,"VACA")-COUNTIF(S22,"X")-COUNTIF(S22,"XATC")-COUNTIF(S22,"YATC")-COUNTIF(S22,"ZATC")+COUNTBLANK(S25)+COUNTIF(S25,"&lt;&gt;")-COUNTIF(S25,"ACHC")-COUNTIF(S25,"AENT")-COUNTIF(S25,"AINS")-COUNTIF(S25,"ATC")-COUNTIF(S25,"CAPA")-COUNTIF(S25,"CERT")-COUNTIF(S25,"CET")-COUNTIF(S25,"CMED")-COUNTIF(S25,"COME")-COUNTIF(S25,"COMS")-COUNTIF(S25,"COMT")-COUNTIF(S25,"DESC")-COUNTIF(S25,"KATC")-COUNTIF(S25,"LICR")-COUNTIF(S25,"MATF")-COUNTIF(S25,"MCAE")-COUNTIF(S25,"MCHC")-COUNTIF(S25,"MCOR")-COUNTIF(S25,"MDBM")-COUNTIF(S25,"MDOC")-COUNTIF(S25,"MENT")-COUNTIF(S25,"MGST")-COUNTIF(S25,"MINS")-COUNTIF(S25,"MOFI")-COUNTIF(S25,"MPRO")-COUNTIF(S25,"MSMS")-COUNTIF(S25,"NCHC")-COUNTIF(S25,"NENT")-COUNTIF(S25,"NINS")-COUNTIF(S25,"SIND")-COUNTIF(S25,"TATF")-COUNTIF(S25,"TCAE")-COUNTIF(S25,"TCHC")-COUNTIF(S25,"TCOR")-COUNTIF(S25,"TDBM")-COUNTIF(S25,"TDOC")-COUNTIF(S25,"TENT")-COUNTIF(S25,"TGST")-COUNTIF(S25,"TINS")-COUNTIF(S25,"TOFI")-COUNTIF(S25,"TPRO")-COUNTIF(S25,"TROP")-COUNTIF(S25,"TSMS")-COUNTIF(S25,"VACA")-COUNTIF(S25,"X")-COUNTIF(S25,"XATC")-COUNTIF(S25,"YATC")-COUNTIF(S25,"ZATC")+COUNTBLANK(S20)+COUNTIF(S20,"&lt;&gt;")-COUNTIF(S20,"ACHC")-COUNTIF(S20,"AENT")-COUNTIF(S20,"AINS")-COUNTIF(S20,"ATC")-COUNTIF(S20,"CAPA")-COUNTIF(S20,"CERT")-COUNTIF(S20,"CET")-COUNTIF(S20,"CMED")-COUNTIF(S20,"COME")-COUNTIF(S20,"COMS")-COUNTIF(S20,"COMT")-COUNTIF(S20,"DESC")-COUNTIF(S20,"KATC")-COUNTIF(S20,"LICR")-COUNTIF(S20,"MATF")-COUNTIF(S20,"MCAE")-COUNTIF(S20,"MCHC")-COUNTIF(S20,"MCOR")-COUNTIF(S20,"MDBM")-COUNTIF(S20,"MDOC")-COUNTIF(S20,"MENT")-COUNTIF(S20,"MGST")-COUNTIF(S20,"MINS")-COUNTIF(S20,"MOFI")-COUNTIF(S20,"MPRO")-COUNTIF(S20,"MSMS")-COUNTIF(S20,"NCHC")-COUNTIF(S20,"NENT")-COUNTIF(S20,"NINS")-COUNTIF(S20,"SIND")-COUNTIF(S20,"TATF")-COUNTIF(S20,"TCAE")-COUNTIF(S20,"TCHC")-COUNTIF(S20,"TCOR")-COUNTIF(S20,"TDBM")-COUNTIF(S20,"TDOC")-COUNTIF(S20,"TENT")-COUNTIF(S20,"TGST")-COUNTIF(S20,"TINS")-COUNTIF(S20,"TOFI")-COUNTIF(S20,"TPRO")-COUNTIF(S20,"TROP")-COUNTIF(S20,"TSMS")-COUNTIF(S20,"VACA")-COUNTIF(S20,"X")-COUNTIF(S20,"XATC")-COUNTIF(S20,"YATC")-COUNTIF(S20,"ZATC")+COUNTBLANK(S23)+COUNTIF(S23,"&lt;&gt;")-COUNTIF(S23,"ACHC")-COUNTIF(S23,"AENT")-COUNTIF(S23,"AINS")-COUNTIF(S23,"ATC")-COUNTIF(S23,"CAPA")-COUNTIF(S23,"CERT")-COUNTIF(S23,"CET")-COUNTIF(S23,"CMED")-COUNTIF(S23,"COME")-COUNTIF(S23,"COMS")-COUNTIF(S23,"COMT")-COUNTIF(S23,"DESC")-COUNTIF(S23,"KATC")-COUNTIF(S23,"LICR")-COUNTIF(S23,"MATF")-COUNTIF(S23,"MCAE")-COUNTIF(S23,"MCHC")-COUNTIF(S23,"MCOR")-COUNTIF(S23,"MDBM")-COUNTIF(S23,"MDOC")-COUNTIF(S23,"MENT")-COUNTIF(S23,"MGST")-COUNTIF(S23,"MINS")-COUNTIF(S23,"MOFI")-COUNTIF(S23,"MPRO")-COUNTIF(S23,"MSMS")-COUNTIF(S23,"NCHC")-COUNTIF(S23,"NENT")-COUNTIF(S23,"NINS")-COUNTIF(S23,"SIND")-COUNTIF(S23,"TATF")-COUNTIF(S23,"TCAE")-COUNTIF(S23,"TCHC")-COUNTIF(S23,"TCOR")-COUNTIF(S23,"TDBM")-COUNTIF(S23,"TDOC")-COUNTIF(S23,"TENT")-COUNTIF(S23,"TGST")-COUNTIF(S23,"TINS")-COUNTIF(S23,"TOFI")-COUNTIF(S23,"TPRO")-COUNTIF(S23,"TROP")-COUNTIF(S23,"TSMS")-COUNTIF(S23,"VACA")-COUNTIF(S23,"X")-COUNTIF(S23,"XATC")-COUNTIF(S23,"YATC")-COUNTIF(S23,"ZATC")+COUNTBLANK(S21)+COUNTIF(S21,"&lt;&gt;")-COUNTIF(S21,"ACHC")-COUNTIF(S21,"AENT")-COUNTIF(S21,"AINS")-COUNTIF(S21,"ATC")-COUNTIF(S21,"CAPA")-COUNTIF(S21,"CERT")-COUNTIF(S21,"CET")-COUNTIF(S21,"CMED")-COUNTIF(S21,"COME")-COUNTIF(S21,"COMS")-COUNTIF(S21,"COMT")-COUNTIF(S21,"DESC")-COUNTIF(S21,"KATC")-COUNTIF(S21,"LICR")-COUNTIF(S21,"MATF")-COUNTIF(S21,"MCAE")-COUNTIF(S21,"MCHC")-COUNTIF(S21,"MCOR")-COUNTIF(S21,"MDBM")-COUNTIF(S21,"MDOC")-COUNTIF(S21,"MENT")-COUNTIF(S21,"MGST")-COUNTIF(S21,"MINS")-COUNTIF(S21,"MOFI")-COUNTIF(S21,"MPRO")-COUNTIF(S21,"MSMS")-COUNTIF(S21,"NCHC")-COUNTIF(S21,"NENT")-COUNTIF(S21,"NINS")-COUNTIF(S21,"SIND")-COUNTIF(S21,"TATF")-COUNTIF(S21,"TCAE")-COUNTIF(S21,"TCHC")-COUNTIF(S21,"TCOR")-COUNTIF(S21,"TDBM")-COUNTIF(S21,"TDOC")-COUNTIF(S21,"TENT")-COUNTIF(S21,"TGST")-COUNTIF(S21,"TINS")-COUNTIF(S21,"TOFI")-COUNTIF(S21,"TPRO")-COUNTIF(S21,"TROP")-COUNTIF(S21,"TSMS")-COUNTIF(S21,"VACA")-COUNTIF(S21,"X")-COUNTIF(S21,"XATC")-COUNTIF(S21,"YATC")-COUNTIF(S21,"ZATC")+COUNTBLANK(S24)+COUNTIF(S24,"&lt;&gt;")-COUNTIF(S24,"ACHC")-COUNTIF(S24,"AENT")-COUNTIF(S24,"AINS")-COUNTIF(S24,"ATC")-COUNTIF(S24,"CAPA")-COUNTIF(S24,"CERT")-COUNTIF(S24,"CET")-COUNTIF(S24,"CMED")-COUNTIF(S24,"COME")-COUNTIF(S24,"COMS")-COUNTIF(S24,"COMT")-COUNTIF(S24,"DESC")-COUNTIF(S24,"KATC")-COUNTIF(S24,"LICR")-COUNTIF(S24,"MATF")-COUNTIF(S24,"MCAE")-COUNTIF(S24,"MCHC")-COUNTIF(S24,"MCOR")-COUNTIF(S24,"MDBM")-COUNTIF(S24,"MDOC")-COUNTIF(S24,"MENT")-COUNTIF(S24,"MGST")-COUNTIF(S24,"MINS")-COUNTIF(S24,"MOFI")-COUNTIF(S24,"MPRO")-COUNTIF(S24,"MSMS")-COUNTIF(S24,"NCHC")-COUNTIF(S24,"NENT")-COUNTIF(S24,"NINS")-COUNTIF(S24,"SIND")-COUNTIF(S24,"TATF")-COUNTIF(S24,"TCAE")-COUNTIF(S24,"TCHC")-COUNTIF(S24,"TCOR")-COUNTIF(S24,"TDBM")-COUNTIF(S24,"TDOC")-COUNTIF(S24,"TENT")-COUNTIF(S24,"TGST")-COUNTIF(S24,"TINS")-COUNTIF(S24,"TOFI")-COUNTIF(S24,"TPRO")-COUNTIF(S24,"TROP")-COUNTIF(S24,"TSMS")-COUNTIF(S24,"VACA")-COUNTIF(S24,"X")-COUNTIF(S24,"XATC")-COUNTIF(S24,"YATC")-COUNTIF(S24,"ZATC")</f>
         <v>4</v>
       </c>
       <c r="T26">
@@ -3202,19 +3306,19 @@
         <v>6</v>
       </c>
       <c r="U26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(U22)+COUNTIF(U22,"&lt;&gt;")-COUNTIF(U22,"ACHC")-COUNTIF(U22,"AENT")-COUNTIF(U22,"AINS")-COUNTIF(U22,"ATC")-COUNTIF(U22,"CAPA")-COUNTIF(U22,"CERT")-COUNTIF(U22,"CET")-COUNTIF(U22,"CMED")-COUNTIF(U22,"COME")-COUNTIF(U22,"COMS")-COUNTIF(U22,"COMT")-COUNTIF(U22,"DESC")-COUNTIF(U22,"KATC")-COUNTIF(U22,"LICR")-COUNTIF(U22,"MATF")-COUNTIF(U22,"MCAE")-COUNTIF(U22,"MCHC")-COUNTIF(U22,"MCOR")-COUNTIF(U22,"MDBM")-COUNTIF(U22,"MDOC")-COUNTIF(U22,"MENT")-COUNTIF(U22,"MGST")-COUNTIF(U22,"MINS")-COUNTIF(U22,"MOFI")-COUNTIF(U22,"MPRO")-COUNTIF(U22,"MSMS")-COUNTIF(U22,"NCHC")-COUNTIF(U22,"NENT")-COUNTIF(U22,"NINS")-COUNTIF(U22,"SIND")-COUNTIF(U22,"TATF")-COUNTIF(U22,"TCAE")-COUNTIF(U22,"TCHC")-COUNTIF(U22,"TCOR")-COUNTIF(U22,"TDBM")-COUNTIF(U22,"TDOC")-COUNTIF(U22,"TENT")-COUNTIF(U22,"TGST")-COUNTIF(U22,"TINS")-COUNTIF(U22,"TOFI")-COUNTIF(U22,"TPRO")-COUNTIF(U22,"TROP")-COUNTIF(U22,"TSMS")-COUNTIF(U22,"VACA")-COUNTIF(U22,"X")-COUNTIF(U22,"XATC")-COUNTIF(U22,"YATC")-COUNTIF(U22,"ZATC")+COUNTBLANK(U25)+COUNTIF(U25,"&lt;&gt;")-COUNTIF(U25,"ACHC")-COUNTIF(U25,"AENT")-COUNTIF(U25,"AINS")-COUNTIF(U25,"ATC")-COUNTIF(U25,"CAPA")-COUNTIF(U25,"CERT")-COUNTIF(U25,"CET")-COUNTIF(U25,"CMED")-COUNTIF(U25,"COME")-COUNTIF(U25,"COMS")-COUNTIF(U25,"COMT")-COUNTIF(U25,"DESC")-COUNTIF(U25,"KATC")-COUNTIF(U25,"LICR")-COUNTIF(U25,"MATF")-COUNTIF(U25,"MCAE")-COUNTIF(U25,"MCHC")-COUNTIF(U25,"MCOR")-COUNTIF(U25,"MDBM")-COUNTIF(U25,"MDOC")-COUNTIF(U25,"MENT")-COUNTIF(U25,"MGST")-COUNTIF(U25,"MINS")-COUNTIF(U25,"MOFI")-COUNTIF(U25,"MPRO")-COUNTIF(U25,"MSMS")-COUNTIF(U25,"NCHC")-COUNTIF(U25,"NENT")-COUNTIF(U25,"NINS")-COUNTIF(U25,"SIND")-COUNTIF(U25,"TATF")-COUNTIF(U25,"TCAE")-COUNTIF(U25,"TCHC")-COUNTIF(U25,"TCOR")-COUNTIF(U25,"TDBM")-COUNTIF(U25,"TDOC")-COUNTIF(U25,"TENT")-COUNTIF(U25,"TGST")-COUNTIF(U25,"TINS")-COUNTIF(U25,"TOFI")-COUNTIF(U25,"TPRO")-COUNTIF(U25,"TROP")-COUNTIF(U25,"TSMS")-COUNTIF(U25,"VACA")-COUNTIF(U25,"X")-COUNTIF(U25,"XATC")-COUNTIF(U25,"YATC")-COUNTIF(U25,"ZATC")+COUNTBLANK(U20)+COUNTIF(U20,"&lt;&gt;")-COUNTIF(U20,"ACHC")-COUNTIF(U20,"AENT")-COUNTIF(U20,"AINS")-COUNTIF(U20,"ATC")-COUNTIF(U20,"CAPA")-COUNTIF(U20,"CERT")-COUNTIF(U20,"CET")-COUNTIF(U20,"CMED")-COUNTIF(U20,"COME")-COUNTIF(U20,"COMS")-COUNTIF(U20,"COMT")-COUNTIF(U20,"DESC")-COUNTIF(U20,"KATC")-COUNTIF(U20,"LICR")-COUNTIF(U20,"MATF")-COUNTIF(U20,"MCAE")-COUNTIF(U20,"MCHC")-COUNTIF(U20,"MCOR")-COUNTIF(U20,"MDBM")-COUNTIF(U20,"MDOC")-COUNTIF(U20,"MENT")-COUNTIF(U20,"MGST")-COUNTIF(U20,"MINS")-COUNTIF(U20,"MOFI")-COUNTIF(U20,"MPRO")-COUNTIF(U20,"MSMS")-COUNTIF(U20,"NCHC")-COUNTIF(U20,"NENT")-COUNTIF(U20,"NINS")-COUNTIF(U20,"SIND")-COUNTIF(U20,"TATF")-COUNTIF(U20,"TCAE")-COUNTIF(U20,"TCHC")-COUNTIF(U20,"TCOR")-COUNTIF(U20,"TDBM")-COUNTIF(U20,"TDOC")-COUNTIF(U20,"TENT")-COUNTIF(U20,"TGST")-COUNTIF(U20,"TINS")-COUNTIF(U20,"TOFI")-COUNTIF(U20,"TPRO")-COUNTIF(U20,"TROP")-COUNTIF(U20,"TSMS")-COUNTIF(U20,"VACA")-COUNTIF(U20,"X")-COUNTIF(U20,"XATC")-COUNTIF(U20,"YATC")-COUNTIF(U20,"ZATC")+COUNTBLANK(U23)+COUNTIF(U23,"&lt;&gt;")-COUNTIF(U23,"ACHC")-COUNTIF(U23,"AENT")-COUNTIF(U23,"AINS")-COUNTIF(U23,"ATC")-COUNTIF(U23,"CAPA")-COUNTIF(U23,"CERT")-COUNTIF(U23,"CET")-COUNTIF(U23,"CMED")-COUNTIF(U23,"COME")-COUNTIF(U23,"COMS")-COUNTIF(U23,"COMT")-COUNTIF(U23,"DESC")-COUNTIF(U23,"KATC")-COUNTIF(U23,"LICR")-COUNTIF(U23,"MATF")-COUNTIF(U23,"MCAE")-COUNTIF(U23,"MCHC")-COUNTIF(U23,"MCOR")-COUNTIF(U23,"MDBM")-COUNTIF(U23,"MDOC")-COUNTIF(U23,"MENT")-COUNTIF(U23,"MGST")-COUNTIF(U23,"MINS")-COUNTIF(U23,"MOFI")-COUNTIF(U23,"MPRO")-COUNTIF(U23,"MSMS")-COUNTIF(U23,"NCHC")-COUNTIF(U23,"NENT")-COUNTIF(U23,"NINS")-COUNTIF(U23,"SIND")-COUNTIF(U23,"TATF")-COUNTIF(U23,"TCAE")-COUNTIF(U23,"TCHC")-COUNTIF(U23,"TCOR")-COUNTIF(U23,"TDBM")-COUNTIF(U23,"TDOC")-COUNTIF(U23,"TENT")-COUNTIF(U23,"TGST")-COUNTIF(U23,"TINS")-COUNTIF(U23,"TOFI")-COUNTIF(U23,"TPRO")-COUNTIF(U23,"TROP")-COUNTIF(U23,"TSMS")-COUNTIF(U23,"VACA")-COUNTIF(U23,"X")-COUNTIF(U23,"XATC")-COUNTIF(U23,"YATC")-COUNTIF(U23,"ZATC")+COUNTBLANK(U21)+COUNTIF(U21,"&lt;&gt;")-COUNTIF(U21,"ACHC")-COUNTIF(U21,"AENT")-COUNTIF(U21,"AINS")-COUNTIF(U21,"ATC")-COUNTIF(U21,"CAPA")-COUNTIF(U21,"CERT")-COUNTIF(U21,"CET")-COUNTIF(U21,"CMED")-COUNTIF(U21,"COME")-COUNTIF(U21,"COMS")-COUNTIF(U21,"COMT")-COUNTIF(U21,"DESC")-COUNTIF(U21,"KATC")-COUNTIF(U21,"LICR")-COUNTIF(U21,"MATF")-COUNTIF(U21,"MCAE")-COUNTIF(U21,"MCHC")-COUNTIF(U21,"MCOR")-COUNTIF(U21,"MDBM")-COUNTIF(U21,"MDOC")-COUNTIF(U21,"MENT")-COUNTIF(U21,"MGST")-COUNTIF(U21,"MINS")-COUNTIF(U21,"MOFI")-COUNTIF(U21,"MPRO")-COUNTIF(U21,"MSMS")-COUNTIF(U21,"NCHC")-COUNTIF(U21,"NENT")-COUNTIF(U21,"NINS")-COUNTIF(U21,"SIND")-COUNTIF(U21,"TATF")-COUNTIF(U21,"TCAE")-COUNTIF(U21,"TCHC")-COUNTIF(U21,"TCOR")-COUNTIF(U21,"TDBM")-COUNTIF(U21,"TDOC")-COUNTIF(U21,"TENT")-COUNTIF(U21,"TGST")-COUNTIF(U21,"TINS")-COUNTIF(U21,"TOFI")-COUNTIF(U21,"TPRO")-COUNTIF(U21,"TROP")-COUNTIF(U21,"TSMS")-COUNTIF(U21,"VACA")-COUNTIF(U21,"X")-COUNTIF(U21,"XATC")-COUNTIF(U21,"YATC")-COUNTIF(U21,"ZATC")+COUNTBLANK(U24)+COUNTIF(U24,"&lt;&gt;")-COUNTIF(U24,"ACHC")-COUNTIF(U24,"AENT")-COUNTIF(U24,"AINS")-COUNTIF(U24,"ATC")-COUNTIF(U24,"CAPA")-COUNTIF(U24,"CERT")-COUNTIF(U24,"CET")-COUNTIF(U24,"CMED")-COUNTIF(U24,"COME")-COUNTIF(U24,"COMS")-COUNTIF(U24,"COMT")-COUNTIF(U24,"DESC")-COUNTIF(U24,"KATC")-COUNTIF(U24,"LICR")-COUNTIF(U24,"MATF")-COUNTIF(U24,"MCAE")-COUNTIF(U24,"MCHC")-COUNTIF(U24,"MCOR")-COUNTIF(U24,"MDBM")-COUNTIF(U24,"MDOC")-COUNTIF(U24,"MENT")-COUNTIF(U24,"MGST")-COUNTIF(U24,"MINS")-COUNTIF(U24,"MOFI")-COUNTIF(U24,"MPRO")-COUNTIF(U24,"MSMS")-COUNTIF(U24,"NCHC")-COUNTIF(U24,"NENT")-COUNTIF(U24,"NINS")-COUNTIF(U24,"SIND")-COUNTIF(U24,"TATF")-COUNTIF(U24,"TCAE")-COUNTIF(U24,"TCHC")-COUNTIF(U24,"TCOR")-COUNTIF(U24,"TDBM")-COUNTIF(U24,"TDOC")-COUNTIF(U24,"TENT")-COUNTIF(U24,"TGST")-COUNTIF(U24,"TINS")-COUNTIF(U24,"TOFI")-COUNTIF(U24,"TPRO")-COUNTIF(U24,"TROP")-COUNTIF(U24,"TSMS")-COUNTIF(U24,"VACA")-COUNTIF(U24,"X")-COUNTIF(U24,"XATC")-COUNTIF(U24,"YATC")-COUNTIF(U24,"ZATC")</f>
         <v>4</v>
       </c>
       <c r="V26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(V22)+COUNTIF(V22,"&lt;&gt;")-COUNTIF(V22,"ACHC")-COUNTIF(V22,"AENT")-COUNTIF(V22,"AINS")-COUNTIF(V22,"ATC")-COUNTIF(V22,"CAPA")-COUNTIF(V22,"CERT")-COUNTIF(V22,"CET")-COUNTIF(V22,"CMED")-COUNTIF(V22,"COME")-COUNTIF(V22,"COMS")-COUNTIF(V22,"COMT")-COUNTIF(V22,"DESC")-COUNTIF(V22,"KATC")-COUNTIF(V22,"LICR")-COUNTIF(V22,"MATF")-COUNTIF(V22,"MCAE")-COUNTIF(V22,"MCHC")-COUNTIF(V22,"MCOR")-COUNTIF(V22,"MDBM")-COUNTIF(V22,"MDOC")-COUNTIF(V22,"MENT")-COUNTIF(V22,"MGST")-COUNTIF(V22,"MINS")-COUNTIF(V22,"MOFI")-COUNTIF(V22,"MPRO")-COUNTIF(V22,"MSMS")-COUNTIF(V22,"NCHC")-COUNTIF(V22,"NENT")-COUNTIF(V22,"NINS")-COUNTIF(V22,"SIND")-COUNTIF(V22,"TATF")-COUNTIF(V22,"TCAE")-COUNTIF(V22,"TCHC")-COUNTIF(V22,"TCOR")-COUNTIF(V22,"TDBM")-COUNTIF(V22,"TDOC")-COUNTIF(V22,"TENT")-COUNTIF(V22,"TGST")-COUNTIF(V22,"TINS")-COUNTIF(V22,"TOFI")-COUNTIF(V22,"TPRO")-COUNTIF(V22,"TROP")-COUNTIF(V22,"TSMS")-COUNTIF(V22,"VACA")-COUNTIF(V22,"X")-COUNTIF(V22,"XATC")-COUNTIF(V22,"YATC")-COUNTIF(V22,"ZATC")+COUNTBLANK(V25)+COUNTIF(V25,"&lt;&gt;")-COUNTIF(V25,"ACHC")-COUNTIF(V25,"AENT")-COUNTIF(V25,"AINS")-COUNTIF(V25,"ATC")-COUNTIF(V25,"CAPA")-COUNTIF(V25,"CERT")-COUNTIF(V25,"CET")-COUNTIF(V25,"CMED")-COUNTIF(V25,"COME")-COUNTIF(V25,"COMS")-COUNTIF(V25,"COMT")-COUNTIF(V25,"DESC")-COUNTIF(V25,"KATC")-COUNTIF(V25,"LICR")-COUNTIF(V25,"MATF")-COUNTIF(V25,"MCAE")-COUNTIF(V25,"MCHC")-COUNTIF(V25,"MCOR")-COUNTIF(V25,"MDBM")-COUNTIF(V25,"MDOC")-COUNTIF(V25,"MENT")-COUNTIF(V25,"MGST")-COUNTIF(V25,"MINS")-COUNTIF(V25,"MOFI")-COUNTIF(V25,"MPRO")-COUNTIF(V25,"MSMS")-COUNTIF(V25,"NCHC")-COUNTIF(V25,"NENT")-COUNTIF(V25,"NINS")-COUNTIF(V25,"SIND")-COUNTIF(V25,"TATF")-COUNTIF(V25,"TCAE")-COUNTIF(V25,"TCHC")-COUNTIF(V25,"TCOR")-COUNTIF(V25,"TDBM")-COUNTIF(V25,"TDOC")-COUNTIF(V25,"TENT")-COUNTIF(V25,"TGST")-COUNTIF(V25,"TINS")-COUNTIF(V25,"TOFI")-COUNTIF(V25,"TPRO")-COUNTIF(V25,"TROP")-COUNTIF(V25,"TSMS")-COUNTIF(V25,"VACA")-COUNTIF(V25,"X")-COUNTIF(V25,"XATC")-COUNTIF(V25,"YATC")-COUNTIF(V25,"ZATC")+COUNTBLANK(V20)+COUNTIF(V20,"&lt;&gt;")-COUNTIF(V20,"ACHC")-COUNTIF(V20,"AENT")-COUNTIF(V20,"AINS")-COUNTIF(V20,"ATC")-COUNTIF(V20,"CAPA")-COUNTIF(V20,"CERT")-COUNTIF(V20,"CET")-COUNTIF(V20,"CMED")-COUNTIF(V20,"COME")-COUNTIF(V20,"COMS")-COUNTIF(V20,"COMT")-COUNTIF(V20,"DESC")-COUNTIF(V20,"KATC")-COUNTIF(V20,"LICR")-COUNTIF(V20,"MATF")-COUNTIF(V20,"MCAE")-COUNTIF(V20,"MCHC")-COUNTIF(V20,"MCOR")-COUNTIF(V20,"MDBM")-COUNTIF(V20,"MDOC")-COUNTIF(V20,"MENT")-COUNTIF(V20,"MGST")-COUNTIF(V20,"MINS")-COUNTIF(V20,"MOFI")-COUNTIF(V20,"MPRO")-COUNTIF(V20,"MSMS")-COUNTIF(V20,"NCHC")-COUNTIF(V20,"NENT")-COUNTIF(V20,"NINS")-COUNTIF(V20,"SIND")-COUNTIF(V20,"TATF")-COUNTIF(V20,"TCAE")-COUNTIF(V20,"TCHC")-COUNTIF(V20,"TCOR")-COUNTIF(V20,"TDBM")-COUNTIF(V20,"TDOC")-COUNTIF(V20,"TENT")-COUNTIF(V20,"TGST")-COUNTIF(V20,"TINS")-COUNTIF(V20,"TOFI")-COUNTIF(V20,"TPRO")-COUNTIF(V20,"TROP")-COUNTIF(V20,"TSMS")-COUNTIF(V20,"VACA")-COUNTIF(V20,"X")-COUNTIF(V20,"XATC")-COUNTIF(V20,"YATC")-COUNTIF(V20,"ZATC")+COUNTBLANK(V23)+COUNTIF(V23,"&lt;&gt;")-COUNTIF(V23,"ACHC")-COUNTIF(V23,"AENT")-COUNTIF(V23,"AINS")-COUNTIF(V23,"ATC")-COUNTIF(V23,"CAPA")-COUNTIF(V23,"CERT")-COUNTIF(V23,"CET")-COUNTIF(V23,"CMED")-COUNTIF(V23,"COME")-COUNTIF(V23,"COMS")-COUNTIF(V23,"COMT")-COUNTIF(V23,"DESC")-COUNTIF(V23,"KATC")-COUNTIF(V23,"LICR")-COUNTIF(V23,"MATF")-COUNTIF(V23,"MCAE")-COUNTIF(V23,"MCHC")-COUNTIF(V23,"MCOR")-COUNTIF(V23,"MDBM")-COUNTIF(V23,"MDOC")-COUNTIF(V23,"MENT")-COUNTIF(V23,"MGST")-COUNTIF(V23,"MINS")-COUNTIF(V23,"MOFI")-COUNTIF(V23,"MPRO")-COUNTIF(V23,"MSMS")-COUNTIF(V23,"NCHC")-COUNTIF(V23,"NENT")-COUNTIF(V23,"NINS")-COUNTIF(V23,"SIND")-COUNTIF(V23,"TATF")-COUNTIF(V23,"TCAE")-COUNTIF(V23,"TCHC")-COUNTIF(V23,"TCOR")-COUNTIF(V23,"TDBM")-COUNTIF(V23,"TDOC")-COUNTIF(V23,"TENT")-COUNTIF(V23,"TGST")-COUNTIF(V23,"TINS")-COUNTIF(V23,"TOFI")-COUNTIF(V23,"TPRO")-COUNTIF(V23,"TROP")-COUNTIF(V23,"TSMS")-COUNTIF(V23,"VACA")-COUNTIF(V23,"X")-COUNTIF(V23,"XATC")-COUNTIF(V23,"YATC")-COUNTIF(V23,"ZATC")+COUNTBLANK(V21)+COUNTIF(V21,"&lt;&gt;")-COUNTIF(V21,"ACHC")-COUNTIF(V21,"AENT")-COUNTIF(V21,"AINS")-COUNTIF(V21,"ATC")-COUNTIF(V21,"CAPA")-COUNTIF(V21,"CERT")-COUNTIF(V21,"CET")-COUNTIF(V21,"CMED")-COUNTIF(V21,"COME")-COUNTIF(V21,"COMS")-COUNTIF(V21,"COMT")-COUNTIF(V21,"DESC")-COUNTIF(V21,"KATC")-COUNTIF(V21,"LICR")-COUNTIF(V21,"MATF")-COUNTIF(V21,"MCAE")-COUNTIF(V21,"MCHC")-COUNTIF(V21,"MCOR")-COUNTIF(V21,"MDBM")-COUNTIF(V21,"MDOC")-COUNTIF(V21,"MENT")-COUNTIF(V21,"MGST")-COUNTIF(V21,"MINS")-COUNTIF(V21,"MOFI")-COUNTIF(V21,"MPRO")-COUNTIF(V21,"MSMS")-COUNTIF(V21,"NCHC")-COUNTIF(V21,"NENT")-COUNTIF(V21,"NINS")-COUNTIF(V21,"SIND")-COUNTIF(V21,"TATF")-COUNTIF(V21,"TCAE")-COUNTIF(V21,"TCHC")-COUNTIF(V21,"TCOR")-COUNTIF(V21,"TDBM")-COUNTIF(V21,"TDOC")-COUNTIF(V21,"TENT")-COUNTIF(V21,"TGST")-COUNTIF(V21,"TINS")-COUNTIF(V21,"TOFI")-COUNTIF(V21,"TPRO")-COUNTIF(V21,"TROP")-COUNTIF(V21,"TSMS")-COUNTIF(V21,"VACA")-COUNTIF(V21,"X")-COUNTIF(V21,"XATC")-COUNTIF(V21,"YATC")-COUNTIF(V21,"ZATC")+COUNTBLANK(V24)+COUNTIF(V24,"&lt;&gt;")-COUNTIF(V24,"ACHC")-COUNTIF(V24,"AENT")-COUNTIF(V24,"AINS")-COUNTIF(V24,"ATC")-COUNTIF(V24,"CAPA")-COUNTIF(V24,"CERT")-COUNTIF(V24,"CET")-COUNTIF(V24,"CMED")-COUNTIF(V24,"COME")-COUNTIF(V24,"COMS")-COUNTIF(V24,"COMT")-COUNTIF(V24,"DESC")-COUNTIF(V24,"KATC")-COUNTIF(V24,"LICR")-COUNTIF(V24,"MATF")-COUNTIF(V24,"MCAE")-COUNTIF(V24,"MCHC")-COUNTIF(V24,"MCOR")-COUNTIF(V24,"MDBM")-COUNTIF(V24,"MDOC")-COUNTIF(V24,"MENT")-COUNTIF(V24,"MGST")-COUNTIF(V24,"MINS")-COUNTIF(V24,"MOFI")-COUNTIF(V24,"MPRO")-COUNTIF(V24,"MSMS")-COUNTIF(V24,"NCHC")-COUNTIF(V24,"NENT")-COUNTIF(V24,"NINS")-COUNTIF(V24,"SIND")-COUNTIF(V24,"TATF")-COUNTIF(V24,"TCAE")-COUNTIF(V24,"TCHC")-COUNTIF(V24,"TCOR")-COUNTIF(V24,"TDBM")-COUNTIF(V24,"TDOC")-COUNTIF(V24,"TENT")-COUNTIF(V24,"TGST")-COUNTIF(V24,"TINS")-COUNTIF(V24,"TOFI")-COUNTIF(V24,"TPRO")-COUNTIF(V24,"TROP")-COUNTIF(V24,"TSMS")-COUNTIF(V24,"VACA")-COUNTIF(V24,"X")-COUNTIF(V24,"XATC")-COUNTIF(V24,"YATC")-COUNTIF(V24,"ZATC")</f>
         <v>4</v>
       </c>
       <c r="W26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(W22)+COUNTIF(W22,"&lt;&gt;")-COUNTIF(W22,"ACHC")-COUNTIF(W22,"AENT")-COUNTIF(W22,"AINS")-COUNTIF(W22,"ATC")-COUNTIF(W22,"CAPA")-COUNTIF(W22,"CERT")-COUNTIF(W22,"CET")-COUNTIF(W22,"CMED")-COUNTIF(W22,"COME")-COUNTIF(W22,"COMS")-COUNTIF(W22,"COMT")-COUNTIF(W22,"DESC")-COUNTIF(W22,"KATC")-COUNTIF(W22,"LICR")-COUNTIF(W22,"MATF")-COUNTIF(W22,"MCAE")-COUNTIF(W22,"MCHC")-COUNTIF(W22,"MCOR")-COUNTIF(W22,"MDBM")-COUNTIF(W22,"MDOC")-COUNTIF(W22,"MENT")-COUNTIF(W22,"MGST")-COUNTIF(W22,"MINS")-COUNTIF(W22,"MOFI")-COUNTIF(W22,"MPRO")-COUNTIF(W22,"MSMS")-COUNTIF(W22,"NCHC")-COUNTIF(W22,"NENT")-COUNTIF(W22,"NINS")-COUNTIF(W22,"SIND")-COUNTIF(W22,"TATF")-COUNTIF(W22,"TCAE")-COUNTIF(W22,"TCHC")-COUNTIF(W22,"TCOR")-COUNTIF(W22,"TDBM")-COUNTIF(W22,"TDOC")-COUNTIF(W22,"TENT")-COUNTIF(W22,"TGST")-COUNTIF(W22,"TINS")-COUNTIF(W22,"TOFI")-COUNTIF(W22,"TPRO")-COUNTIF(W22,"TROP")-COUNTIF(W22,"TSMS")-COUNTIF(W22,"VACA")-COUNTIF(W22,"X")-COUNTIF(W22,"XATC")-COUNTIF(W22,"YATC")-COUNTIF(W22,"ZATC")+COUNTBLANK(W25)+COUNTIF(W25,"&lt;&gt;")-COUNTIF(W25,"ACHC")-COUNTIF(W25,"AENT")-COUNTIF(W25,"AINS")-COUNTIF(W25,"ATC")-COUNTIF(W25,"CAPA")-COUNTIF(W25,"CERT")-COUNTIF(W25,"CET")-COUNTIF(W25,"CMED")-COUNTIF(W25,"COME")-COUNTIF(W25,"COMS")-COUNTIF(W25,"COMT")-COUNTIF(W25,"DESC")-COUNTIF(W25,"KATC")-COUNTIF(W25,"LICR")-COUNTIF(W25,"MATF")-COUNTIF(W25,"MCAE")-COUNTIF(W25,"MCHC")-COUNTIF(W25,"MCOR")-COUNTIF(W25,"MDBM")-COUNTIF(W25,"MDOC")-COUNTIF(W25,"MENT")-COUNTIF(W25,"MGST")-COUNTIF(W25,"MINS")-COUNTIF(W25,"MOFI")-COUNTIF(W25,"MPRO")-COUNTIF(W25,"MSMS")-COUNTIF(W25,"NCHC")-COUNTIF(W25,"NENT")-COUNTIF(W25,"NINS")-COUNTIF(W25,"SIND")-COUNTIF(W25,"TATF")-COUNTIF(W25,"TCAE")-COUNTIF(W25,"TCHC")-COUNTIF(W25,"TCOR")-COUNTIF(W25,"TDBM")-COUNTIF(W25,"TDOC")-COUNTIF(W25,"TENT")-COUNTIF(W25,"TGST")-COUNTIF(W25,"TINS")-COUNTIF(W25,"TOFI")-COUNTIF(W25,"TPRO")-COUNTIF(W25,"TROP")-COUNTIF(W25,"TSMS")-COUNTIF(W25,"VACA")-COUNTIF(W25,"X")-COUNTIF(W25,"XATC")-COUNTIF(W25,"YATC")-COUNTIF(W25,"ZATC")+COUNTBLANK(W20)+COUNTIF(W20,"&lt;&gt;")-COUNTIF(W20,"ACHC")-COUNTIF(W20,"AENT")-COUNTIF(W20,"AINS")-COUNTIF(W20,"ATC")-COUNTIF(W20,"CAPA")-COUNTIF(W20,"CERT")-COUNTIF(W20,"CET")-COUNTIF(W20,"CMED")-COUNTIF(W20,"COME")-COUNTIF(W20,"COMS")-COUNTIF(W20,"COMT")-COUNTIF(W20,"DESC")-COUNTIF(W20,"KATC")-COUNTIF(W20,"LICR")-COUNTIF(W20,"MATF")-COUNTIF(W20,"MCAE")-COUNTIF(W20,"MCHC")-COUNTIF(W20,"MCOR")-COUNTIF(W20,"MDBM")-COUNTIF(W20,"MDOC")-COUNTIF(W20,"MENT")-COUNTIF(W20,"MGST")-COUNTIF(W20,"MINS")-COUNTIF(W20,"MOFI")-COUNTIF(W20,"MPRO")-COUNTIF(W20,"MSMS")-COUNTIF(W20,"NCHC")-COUNTIF(W20,"NENT")-COUNTIF(W20,"NINS")-COUNTIF(W20,"SIND")-COUNTIF(W20,"TATF")-COUNTIF(W20,"TCAE")-COUNTIF(W20,"TCHC")-COUNTIF(W20,"TCOR")-COUNTIF(W20,"TDBM")-COUNTIF(W20,"TDOC")-COUNTIF(W20,"TENT")-COUNTIF(W20,"TGST")-COUNTIF(W20,"TINS")-COUNTIF(W20,"TOFI")-COUNTIF(W20,"TPRO")-COUNTIF(W20,"TROP")-COUNTIF(W20,"TSMS")-COUNTIF(W20,"VACA")-COUNTIF(W20,"X")-COUNTIF(W20,"XATC")-COUNTIF(W20,"YATC")-COUNTIF(W20,"ZATC")+COUNTBLANK(W23)+COUNTIF(W23,"&lt;&gt;")-COUNTIF(W23,"ACHC")-COUNTIF(W23,"AENT")-COUNTIF(W23,"AINS")-COUNTIF(W23,"ATC")-COUNTIF(W23,"CAPA")-COUNTIF(W23,"CERT")-COUNTIF(W23,"CET")-COUNTIF(W23,"CMED")-COUNTIF(W23,"COME")-COUNTIF(W23,"COMS")-COUNTIF(W23,"COMT")-COUNTIF(W23,"DESC")-COUNTIF(W23,"KATC")-COUNTIF(W23,"LICR")-COUNTIF(W23,"MATF")-COUNTIF(W23,"MCAE")-COUNTIF(W23,"MCHC")-COUNTIF(W23,"MCOR")-COUNTIF(W23,"MDBM")-COUNTIF(W23,"MDOC")-COUNTIF(W23,"MENT")-COUNTIF(W23,"MGST")-COUNTIF(W23,"MINS")-COUNTIF(W23,"MOFI")-COUNTIF(W23,"MPRO")-COUNTIF(W23,"MSMS")-COUNTIF(W23,"NCHC")-COUNTIF(W23,"NENT")-COUNTIF(W23,"NINS")-COUNTIF(W23,"SIND")-COUNTIF(W23,"TATF")-COUNTIF(W23,"TCAE")-COUNTIF(W23,"TCHC")-COUNTIF(W23,"TCOR")-COUNTIF(W23,"TDBM")-COUNTIF(W23,"TDOC")-COUNTIF(W23,"TENT")-COUNTIF(W23,"TGST")-COUNTIF(W23,"TINS")-COUNTIF(W23,"TOFI")-COUNTIF(W23,"TPRO")-COUNTIF(W23,"TROP")-COUNTIF(W23,"TSMS")-COUNTIF(W23,"VACA")-COUNTIF(W23,"X")-COUNTIF(W23,"XATC")-COUNTIF(W23,"YATC")-COUNTIF(W23,"ZATC")+COUNTBLANK(W21)+COUNTIF(W21,"&lt;&gt;")-COUNTIF(W21,"ACHC")-COUNTIF(W21,"AENT")-COUNTIF(W21,"AINS")-COUNTIF(W21,"ATC")-COUNTIF(W21,"CAPA")-COUNTIF(W21,"CERT")-COUNTIF(W21,"CET")-COUNTIF(W21,"CMED")-COUNTIF(W21,"COME")-COUNTIF(W21,"COMS")-COUNTIF(W21,"COMT")-COUNTIF(W21,"DESC")-COUNTIF(W21,"KATC")-COUNTIF(W21,"LICR")-COUNTIF(W21,"MATF")-COUNTIF(W21,"MCAE")-COUNTIF(W21,"MCHC")-COUNTIF(W21,"MCOR")-COUNTIF(W21,"MDBM")-COUNTIF(W21,"MDOC")-COUNTIF(W21,"MENT")-COUNTIF(W21,"MGST")-COUNTIF(W21,"MINS")-COUNTIF(W21,"MOFI")-COUNTIF(W21,"MPRO")-COUNTIF(W21,"MSMS")-COUNTIF(W21,"NCHC")-COUNTIF(W21,"NENT")-COUNTIF(W21,"NINS")-COUNTIF(W21,"SIND")-COUNTIF(W21,"TATF")-COUNTIF(W21,"TCAE")-COUNTIF(W21,"TCHC")-COUNTIF(W21,"TCOR")-COUNTIF(W21,"TDBM")-COUNTIF(W21,"TDOC")-COUNTIF(W21,"TENT")-COUNTIF(W21,"TGST")-COUNTIF(W21,"TINS")-COUNTIF(W21,"TOFI")-COUNTIF(W21,"TPRO")-COUNTIF(W21,"TROP")-COUNTIF(W21,"TSMS")-COUNTIF(W21,"VACA")-COUNTIF(W21,"X")-COUNTIF(W21,"XATC")-COUNTIF(W21,"YATC")-COUNTIF(W21,"ZATC")+COUNTBLANK(W24)+COUNTIF(W24,"&lt;&gt;")-COUNTIF(W24,"ACHC")-COUNTIF(W24,"AENT")-COUNTIF(W24,"AINS")-COUNTIF(W24,"ATC")-COUNTIF(W24,"CAPA")-COUNTIF(W24,"CERT")-COUNTIF(W24,"CET")-COUNTIF(W24,"CMED")-COUNTIF(W24,"COME")-COUNTIF(W24,"COMS")-COUNTIF(W24,"COMT")-COUNTIF(W24,"DESC")-COUNTIF(W24,"KATC")-COUNTIF(W24,"LICR")-COUNTIF(W24,"MATF")-COUNTIF(W24,"MCAE")-COUNTIF(W24,"MCHC")-COUNTIF(W24,"MCOR")-COUNTIF(W24,"MDBM")-COUNTIF(W24,"MDOC")-COUNTIF(W24,"MENT")-COUNTIF(W24,"MGST")-COUNTIF(W24,"MINS")-COUNTIF(W24,"MOFI")-COUNTIF(W24,"MPRO")-COUNTIF(W24,"MSMS")-COUNTIF(W24,"NCHC")-COUNTIF(W24,"NENT")-COUNTIF(W24,"NINS")-COUNTIF(W24,"SIND")-COUNTIF(W24,"TATF")-COUNTIF(W24,"TCAE")-COUNTIF(W24,"TCHC")-COUNTIF(W24,"TCOR")-COUNTIF(W24,"TDBM")-COUNTIF(W24,"TDOC")-COUNTIF(W24,"TENT")-COUNTIF(W24,"TGST")-COUNTIF(W24,"TINS")-COUNTIF(W24,"TOFI")-COUNTIF(W24,"TPRO")-COUNTIF(W24,"TROP")-COUNTIF(W24,"TSMS")-COUNTIF(W24,"VACA")-COUNTIF(W24,"X")-COUNTIF(W24,"XATC")-COUNTIF(W24,"YATC")-COUNTIF(W24,"ZATC")</f>
         <v>4</v>
       </c>
       <c r="X26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(X22)+COUNTIF(X22,"&lt;&gt;")-COUNTIF(X22,"ACHC")-COUNTIF(X22,"AENT")-COUNTIF(X22,"AINS")-COUNTIF(X22,"ATC")-COUNTIF(X22,"CAPA")-COUNTIF(X22,"CERT")-COUNTIF(X22,"CET")-COUNTIF(X22,"CMED")-COUNTIF(X22,"COME")-COUNTIF(X22,"COMS")-COUNTIF(X22,"COMT")-COUNTIF(X22,"DESC")-COUNTIF(X22,"KATC")-COUNTIF(X22,"LICR")-COUNTIF(X22,"MATF")-COUNTIF(X22,"MCAE")-COUNTIF(X22,"MCHC")-COUNTIF(X22,"MCOR")-COUNTIF(X22,"MDBM")-COUNTIF(X22,"MDOC")-COUNTIF(X22,"MENT")-COUNTIF(X22,"MGST")-COUNTIF(X22,"MINS")-COUNTIF(X22,"MOFI")-COUNTIF(X22,"MPRO")-COUNTIF(X22,"MSMS")-COUNTIF(X22,"NCHC")-COUNTIF(X22,"NENT")-COUNTIF(X22,"NINS")-COUNTIF(X22,"SIND")-COUNTIF(X22,"TATF")-COUNTIF(X22,"TCAE")-COUNTIF(X22,"TCHC")-COUNTIF(X22,"TCOR")-COUNTIF(X22,"TDBM")-COUNTIF(X22,"TDOC")-COUNTIF(X22,"TENT")-COUNTIF(X22,"TGST")-COUNTIF(X22,"TINS")-COUNTIF(X22,"TOFI")-COUNTIF(X22,"TPRO")-COUNTIF(X22,"TROP")-COUNTIF(X22,"TSMS")-COUNTIF(X22,"VACA")-COUNTIF(X22,"X")-COUNTIF(X22,"XATC")-COUNTIF(X22,"YATC")-COUNTIF(X22,"ZATC")+COUNTBLANK(X25)+COUNTIF(X25,"&lt;&gt;")-COUNTIF(X25,"ACHC")-COUNTIF(X25,"AENT")-COUNTIF(X25,"AINS")-COUNTIF(X25,"ATC")-COUNTIF(X25,"CAPA")-COUNTIF(X25,"CERT")-COUNTIF(X25,"CET")-COUNTIF(X25,"CMED")-COUNTIF(X25,"COME")-COUNTIF(X25,"COMS")-COUNTIF(X25,"COMT")-COUNTIF(X25,"DESC")-COUNTIF(X25,"KATC")-COUNTIF(X25,"LICR")-COUNTIF(X25,"MATF")-COUNTIF(X25,"MCAE")-COUNTIF(X25,"MCHC")-COUNTIF(X25,"MCOR")-COUNTIF(X25,"MDBM")-COUNTIF(X25,"MDOC")-COUNTIF(X25,"MENT")-COUNTIF(X25,"MGST")-COUNTIF(X25,"MINS")-COUNTIF(X25,"MOFI")-COUNTIF(X25,"MPRO")-COUNTIF(X25,"MSMS")-COUNTIF(X25,"NCHC")-COUNTIF(X25,"NENT")-COUNTIF(X25,"NINS")-COUNTIF(X25,"SIND")-COUNTIF(X25,"TATF")-COUNTIF(X25,"TCAE")-COUNTIF(X25,"TCHC")-COUNTIF(X25,"TCOR")-COUNTIF(X25,"TDBM")-COUNTIF(X25,"TDOC")-COUNTIF(X25,"TENT")-COUNTIF(X25,"TGST")-COUNTIF(X25,"TINS")-COUNTIF(X25,"TOFI")-COUNTIF(X25,"TPRO")-COUNTIF(X25,"TROP")-COUNTIF(X25,"TSMS")-COUNTIF(X25,"VACA")-COUNTIF(X25,"X")-COUNTIF(X25,"XATC")-COUNTIF(X25,"YATC")-COUNTIF(X25,"ZATC")+COUNTBLANK(X20)+COUNTIF(X20,"&lt;&gt;")-COUNTIF(X20,"ACHC")-COUNTIF(X20,"AENT")-COUNTIF(X20,"AINS")-COUNTIF(X20,"ATC")-COUNTIF(X20,"CAPA")-COUNTIF(X20,"CERT")-COUNTIF(X20,"CET")-COUNTIF(X20,"CMED")-COUNTIF(X20,"COME")-COUNTIF(X20,"COMS")-COUNTIF(X20,"COMT")-COUNTIF(X20,"DESC")-COUNTIF(X20,"KATC")-COUNTIF(X20,"LICR")-COUNTIF(X20,"MATF")-COUNTIF(X20,"MCAE")-COUNTIF(X20,"MCHC")-COUNTIF(X20,"MCOR")-COUNTIF(X20,"MDBM")-COUNTIF(X20,"MDOC")-COUNTIF(X20,"MENT")-COUNTIF(X20,"MGST")-COUNTIF(X20,"MINS")-COUNTIF(X20,"MOFI")-COUNTIF(X20,"MPRO")-COUNTIF(X20,"MSMS")-COUNTIF(X20,"NCHC")-COUNTIF(X20,"NENT")-COUNTIF(X20,"NINS")-COUNTIF(X20,"SIND")-COUNTIF(X20,"TATF")-COUNTIF(X20,"TCAE")-COUNTIF(X20,"TCHC")-COUNTIF(X20,"TCOR")-COUNTIF(X20,"TDBM")-COUNTIF(X20,"TDOC")-COUNTIF(X20,"TENT")-COUNTIF(X20,"TGST")-COUNTIF(X20,"TINS")-COUNTIF(X20,"TOFI")-COUNTIF(X20,"TPRO")-COUNTIF(X20,"TROP")-COUNTIF(X20,"TSMS")-COUNTIF(X20,"VACA")-COUNTIF(X20,"X")-COUNTIF(X20,"XATC")-COUNTIF(X20,"YATC")-COUNTIF(X20,"ZATC")+COUNTBLANK(X23)+COUNTIF(X23,"&lt;&gt;")-COUNTIF(X23,"ACHC")-COUNTIF(X23,"AENT")-COUNTIF(X23,"AINS")-COUNTIF(X23,"ATC")-COUNTIF(X23,"CAPA")-COUNTIF(X23,"CERT")-COUNTIF(X23,"CET")-COUNTIF(X23,"CMED")-COUNTIF(X23,"COME")-COUNTIF(X23,"COMS")-COUNTIF(X23,"COMT")-COUNTIF(X23,"DESC")-COUNTIF(X23,"KATC")-COUNTIF(X23,"LICR")-COUNTIF(X23,"MATF")-COUNTIF(X23,"MCAE")-COUNTIF(X23,"MCHC")-COUNTIF(X23,"MCOR")-COUNTIF(X23,"MDBM")-COUNTIF(X23,"MDOC")-COUNTIF(X23,"MENT")-COUNTIF(X23,"MGST")-COUNTIF(X23,"MINS")-COUNTIF(X23,"MOFI")-COUNTIF(X23,"MPRO")-COUNTIF(X23,"MSMS")-COUNTIF(X23,"NCHC")-COUNTIF(X23,"NENT")-COUNTIF(X23,"NINS")-COUNTIF(X23,"SIND")-COUNTIF(X23,"TATF")-COUNTIF(X23,"TCAE")-COUNTIF(X23,"TCHC")-COUNTIF(X23,"TCOR")-COUNTIF(X23,"TDBM")-COUNTIF(X23,"TDOC")-COUNTIF(X23,"TENT")-COUNTIF(X23,"TGST")-COUNTIF(X23,"TINS")-COUNTIF(X23,"TOFI")-COUNTIF(X23,"TPRO")-COUNTIF(X23,"TROP")-COUNTIF(X23,"TSMS")-COUNTIF(X23,"VACA")-COUNTIF(X23,"X")-COUNTIF(X23,"XATC")-COUNTIF(X23,"YATC")-COUNTIF(X23,"ZATC")+COUNTBLANK(X21)+COUNTIF(X21,"&lt;&gt;")-COUNTIF(X21,"ACHC")-COUNTIF(X21,"AENT")-COUNTIF(X21,"AINS")-COUNTIF(X21,"ATC")-COUNTIF(X21,"CAPA")-COUNTIF(X21,"CERT")-COUNTIF(X21,"CET")-COUNTIF(X21,"CMED")-COUNTIF(X21,"COME")-COUNTIF(X21,"COMS")-COUNTIF(X21,"COMT")-COUNTIF(X21,"DESC")-COUNTIF(X21,"KATC")-COUNTIF(X21,"LICR")-COUNTIF(X21,"MATF")-COUNTIF(X21,"MCAE")-COUNTIF(X21,"MCHC")-COUNTIF(X21,"MCOR")-COUNTIF(X21,"MDBM")-COUNTIF(X21,"MDOC")-COUNTIF(X21,"MENT")-COUNTIF(X21,"MGST")-COUNTIF(X21,"MINS")-COUNTIF(X21,"MOFI")-COUNTIF(X21,"MPRO")-COUNTIF(X21,"MSMS")-COUNTIF(X21,"NCHC")-COUNTIF(X21,"NENT")-COUNTIF(X21,"NINS")-COUNTIF(X21,"SIND")-COUNTIF(X21,"TATF")-COUNTIF(X21,"TCAE")-COUNTIF(X21,"TCHC")-COUNTIF(X21,"TCOR")-COUNTIF(X21,"TDBM")-COUNTIF(X21,"TDOC")-COUNTIF(X21,"TENT")-COUNTIF(X21,"TGST")-COUNTIF(X21,"TINS")-COUNTIF(X21,"TOFI")-COUNTIF(X21,"TPRO")-COUNTIF(X21,"TROP")-COUNTIF(X21,"TSMS")-COUNTIF(X21,"VACA")-COUNTIF(X21,"X")-COUNTIF(X21,"XATC")-COUNTIF(X21,"YATC")-COUNTIF(X21,"ZATC")+COUNTBLANK(X24)+COUNTIF(X24,"&lt;&gt;")-COUNTIF(X24,"ACHC")-COUNTIF(X24,"AENT")-COUNTIF(X24,"AINS")-COUNTIF(X24,"ATC")-COUNTIF(X24,"CAPA")-COUNTIF(X24,"CERT")-COUNTIF(X24,"CET")-COUNTIF(X24,"CMED")-COUNTIF(X24,"COME")-COUNTIF(X24,"COMS")-COUNTIF(X24,"COMT")-COUNTIF(X24,"DESC")-COUNTIF(X24,"KATC")-COUNTIF(X24,"LICR")-COUNTIF(X24,"MATF")-COUNTIF(X24,"MCAE")-COUNTIF(X24,"MCHC")-COUNTIF(X24,"MCOR")-COUNTIF(X24,"MDBM")-COUNTIF(X24,"MDOC")-COUNTIF(X24,"MENT")-COUNTIF(X24,"MGST")-COUNTIF(X24,"MINS")-COUNTIF(X24,"MOFI")-COUNTIF(X24,"MPRO")-COUNTIF(X24,"MSMS")-COUNTIF(X24,"NCHC")-COUNTIF(X24,"NENT")-COUNTIF(X24,"NINS")-COUNTIF(X24,"SIND")-COUNTIF(X24,"TATF")-COUNTIF(X24,"TCAE")-COUNTIF(X24,"TCHC")-COUNTIF(X24,"TCOR")-COUNTIF(X24,"TDBM")-COUNTIF(X24,"TDOC")-COUNTIF(X24,"TENT")-COUNTIF(X24,"TGST")-COUNTIF(X24,"TINS")-COUNTIF(X24,"TOFI")-COUNTIF(X24,"TPRO")-COUNTIF(X24,"TROP")-COUNTIF(X24,"TSMS")-COUNTIF(X24,"VACA")-COUNTIF(X24,"X")-COUNTIF(X24,"XATC")-COUNTIF(X24,"YATC")-COUNTIF(X24,"ZATC")</f>
         <v>4</v>
       </c>
       <c r="Y26">
@@ -3222,23 +3326,23 @@
         <v>3</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(Z22)+COUNTIF(Z22,"&lt;&gt;")-COUNTIF(Z22,"ACHC")-COUNTIF(Z22,"AENT")-COUNTIF(Z22,"AINS")-COUNTIF(Z22,"ATC")-COUNTIF(Z22,"CAPA")-COUNTIF(Z22,"CERT")-COUNTIF(Z22,"CET")-COUNTIF(Z22,"CMED")-COUNTIF(Z22,"COME")-COUNTIF(Z22,"COMS")-COUNTIF(Z22,"COMT")-COUNTIF(Z22,"DESC")-COUNTIF(Z22,"KATC")-COUNTIF(Z22,"LICR")-COUNTIF(Z22,"MATF")-COUNTIF(Z22,"MCAE")-COUNTIF(Z22,"MCHC")-COUNTIF(Z22,"MCOR")-COUNTIF(Z22,"MDBM")-COUNTIF(Z22,"MDOC")-COUNTIF(Z22,"MENT")-COUNTIF(Z22,"MGST")-COUNTIF(Z22,"MINS")-COUNTIF(Z22,"MOFI")-COUNTIF(Z22,"MPRO")-COUNTIF(Z22,"MSMS")-COUNTIF(Z22,"NCHC")-COUNTIF(Z22,"NENT")-COUNTIF(Z22,"NINS")-COUNTIF(Z22,"SIND")-COUNTIF(Z22,"TATF")-COUNTIF(Z22,"TCAE")-COUNTIF(Z22,"TCHC")-COUNTIF(Z22,"TCOR")-COUNTIF(Z22,"TDBM")-COUNTIF(Z22,"TDOC")-COUNTIF(Z22,"TENT")-COUNTIF(Z22,"TGST")-COUNTIF(Z22,"TINS")-COUNTIF(Z22,"TOFI")-COUNTIF(Z22,"TPRO")-COUNTIF(Z22,"TROP")-COUNTIF(Z22,"TSMS")-COUNTIF(Z22,"VACA")-COUNTIF(Z22,"X")-COUNTIF(Z22,"XATC")-COUNTIF(Z22,"YATC")-COUNTIF(Z22,"ZATC")+COUNTBLANK(Z25)+COUNTIF(Z25,"&lt;&gt;")-COUNTIF(Z25,"ACHC")-COUNTIF(Z25,"AENT")-COUNTIF(Z25,"AINS")-COUNTIF(Z25,"ATC")-COUNTIF(Z25,"CAPA")-COUNTIF(Z25,"CERT")-COUNTIF(Z25,"CET")-COUNTIF(Z25,"CMED")-COUNTIF(Z25,"COME")-COUNTIF(Z25,"COMS")-COUNTIF(Z25,"COMT")-COUNTIF(Z25,"DESC")-COUNTIF(Z25,"KATC")-COUNTIF(Z25,"LICR")-COUNTIF(Z25,"MATF")-COUNTIF(Z25,"MCAE")-COUNTIF(Z25,"MCHC")-COUNTIF(Z25,"MCOR")-COUNTIF(Z25,"MDBM")-COUNTIF(Z25,"MDOC")-COUNTIF(Z25,"MENT")-COUNTIF(Z25,"MGST")-COUNTIF(Z25,"MINS")-COUNTIF(Z25,"MOFI")-COUNTIF(Z25,"MPRO")-COUNTIF(Z25,"MSMS")-COUNTIF(Z25,"NCHC")-COUNTIF(Z25,"NENT")-COUNTIF(Z25,"NINS")-COUNTIF(Z25,"SIND")-COUNTIF(Z25,"TATF")-COUNTIF(Z25,"TCAE")-COUNTIF(Z25,"TCHC")-COUNTIF(Z25,"TCOR")-COUNTIF(Z25,"TDBM")-COUNTIF(Z25,"TDOC")-COUNTIF(Z25,"TENT")-COUNTIF(Z25,"TGST")-COUNTIF(Z25,"TINS")-COUNTIF(Z25,"TOFI")-COUNTIF(Z25,"TPRO")-COUNTIF(Z25,"TROP")-COUNTIF(Z25,"TSMS")-COUNTIF(Z25,"VACA")-COUNTIF(Z25,"X")-COUNTIF(Z25,"XATC")-COUNTIF(Z25,"YATC")-COUNTIF(Z25,"ZATC")+COUNTBLANK(Z20)+COUNTIF(Z20,"&lt;&gt;")-COUNTIF(Z20,"ACHC")-COUNTIF(Z20,"AENT")-COUNTIF(Z20,"AINS")-COUNTIF(Z20,"ATC")-COUNTIF(Z20,"CAPA")-COUNTIF(Z20,"CERT")-COUNTIF(Z20,"CET")-COUNTIF(Z20,"CMED")-COUNTIF(Z20,"COME")-COUNTIF(Z20,"COMS")-COUNTIF(Z20,"COMT")-COUNTIF(Z20,"DESC")-COUNTIF(Z20,"KATC")-COUNTIF(Z20,"LICR")-COUNTIF(Z20,"MATF")-COUNTIF(Z20,"MCAE")-COUNTIF(Z20,"MCHC")-COUNTIF(Z20,"MCOR")-COUNTIF(Z20,"MDBM")-COUNTIF(Z20,"MDOC")-COUNTIF(Z20,"MENT")-COUNTIF(Z20,"MGST")-COUNTIF(Z20,"MINS")-COUNTIF(Z20,"MOFI")-COUNTIF(Z20,"MPRO")-COUNTIF(Z20,"MSMS")-COUNTIF(Z20,"NCHC")-COUNTIF(Z20,"NENT")-COUNTIF(Z20,"NINS")-COUNTIF(Z20,"SIND")-COUNTIF(Z20,"TATF")-COUNTIF(Z20,"TCAE")-COUNTIF(Z20,"TCHC")-COUNTIF(Z20,"TCOR")-COUNTIF(Z20,"TDBM")-COUNTIF(Z20,"TDOC")-COUNTIF(Z20,"TENT")-COUNTIF(Z20,"TGST")-COUNTIF(Z20,"TINS")-COUNTIF(Z20,"TOFI")-COUNTIF(Z20,"TPRO")-COUNTIF(Z20,"TROP")-COUNTIF(Z20,"TSMS")-COUNTIF(Z20,"VACA")-COUNTIF(Z20,"X")-COUNTIF(Z20,"XATC")-COUNTIF(Z20,"YATC")-COUNTIF(Z20,"ZATC")+COUNTBLANK(Z23)+COUNTIF(Z23,"&lt;&gt;")-COUNTIF(Z23,"ACHC")-COUNTIF(Z23,"AENT")-COUNTIF(Z23,"AINS")-COUNTIF(Z23,"ATC")-COUNTIF(Z23,"CAPA")-COUNTIF(Z23,"CERT")-COUNTIF(Z23,"CET")-COUNTIF(Z23,"CMED")-COUNTIF(Z23,"COME")-COUNTIF(Z23,"COMS")-COUNTIF(Z23,"COMT")-COUNTIF(Z23,"DESC")-COUNTIF(Z23,"KATC")-COUNTIF(Z23,"LICR")-COUNTIF(Z23,"MATF")-COUNTIF(Z23,"MCAE")-COUNTIF(Z23,"MCHC")-COUNTIF(Z23,"MCOR")-COUNTIF(Z23,"MDBM")-COUNTIF(Z23,"MDOC")-COUNTIF(Z23,"MENT")-COUNTIF(Z23,"MGST")-COUNTIF(Z23,"MINS")-COUNTIF(Z23,"MOFI")-COUNTIF(Z23,"MPRO")-COUNTIF(Z23,"MSMS")-COUNTIF(Z23,"NCHC")-COUNTIF(Z23,"NENT")-COUNTIF(Z23,"NINS")-COUNTIF(Z23,"SIND")-COUNTIF(Z23,"TATF")-COUNTIF(Z23,"TCAE")-COUNTIF(Z23,"TCHC")-COUNTIF(Z23,"TCOR")-COUNTIF(Z23,"TDBM")-COUNTIF(Z23,"TDOC")-COUNTIF(Z23,"TENT")-COUNTIF(Z23,"TGST")-COUNTIF(Z23,"TINS")-COUNTIF(Z23,"TOFI")-COUNTIF(Z23,"TPRO")-COUNTIF(Z23,"TROP")-COUNTIF(Z23,"TSMS")-COUNTIF(Z23,"VACA")-COUNTIF(Z23,"X")-COUNTIF(Z23,"XATC")-COUNTIF(Z23,"YATC")-COUNTIF(Z23,"ZATC")+COUNTBLANK(Z21)+COUNTIF(Z21,"&lt;&gt;")-COUNTIF(Z21,"ACHC")-COUNTIF(Z21,"AENT")-COUNTIF(Z21,"AINS")-COUNTIF(Z21,"ATC")-COUNTIF(Z21,"CAPA")-COUNTIF(Z21,"CERT")-COUNTIF(Z21,"CET")-COUNTIF(Z21,"CMED")-COUNTIF(Z21,"COME")-COUNTIF(Z21,"COMS")-COUNTIF(Z21,"COMT")-COUNTIF(Z21,"DESC")-COUNTIF(Z21,"KATC")-COUNTIF(Z21,"LICR")-COUNTIF(Z21,"MATF")-COUNTIF(Z21,"MCAE")-COUNTIF(Z21,"MCHC")-COUNTIF(Z21,"MCOR")-COUNTIF(Z21,"MDBM")-COUNTIF(Z21,"MDOC")-COUNTIF(Z21,"MENT")-COUNTIF(Z21,"MGST")-COUNTIF(Z21,"MINS")-COUNTIF(Z21,"MOFI")-COUNTIF(Z21,"MPRO")-COUNTIF(Z21,"MSMS")-COUNTIF(Z21,"NCHC")-COUNTIF(Z21,"NENT")-COUNTIF(Z21,"NINS")-COUNTIF(Z21,"SIND")-COUNTIF(Z21,"TATF")-COUNTIF(Z21,"TCAE")-COUNTIF(Z21,"TCHC")-COUNTIF(Z21,"TCOR")-COUNTIF(Z21,"TDBM")-COUNTIF(Z21,"TDOC")-COUNTIF(Z21,"TENT")-COUNTIF(Z21,"TGST")-COUNTIF(Z21,"TINS")-COUNTIF(Z21,"TOFI")-COUNTIF(Z21,"TPRO")-COUNTIF(Z21,"TROP")-COUNTIF(Z21,"TSMS")-COUNTIF(Z21,"VACA")-COUNTIF(Z21,"X")-COUNTIF(Z21,"XATC")-COUNTIF(Z21,"YATC")-COUNTIF(Z21,"ZATC")+COUNTBLANK(Z24)+COUNTIF(Z24,"&lt;&gt;")-COUNTIF(Z24,"ACHC")-COUNTIF(Z24,"AENT")-COUNTIF(Z24,"AINS")-COUNTIF(Z24,"ATC")-COUNTIF(Z24,"CAPA")-COUNTIF(Z24,"CERT")-COUNTIF(Z24,"CET")-COUNTIF(Z24,"CMED")-COUNTIF(Z24,"COME")-COUNTIF(Z24,"COMS")-COUNTIF(Z24,"COMT")-COUNTIF(Z24,"DESC")-COUNTIF(Z24,"KATC")-COUNTIF(Z24,"LICR")-COUNTIF(Z24,"MATF")-COUNTIF(Z24,"MCAE")-COUNTIF(Z24,"MCHC")-COUNTIF(Z24,"MCOR")-COUNTIF(Z24,"MDBM")-COUNTIF(Z24,"MDOC")-COUNTIF(Z24,"MENT")-COUNTIF(Z24,"MGST")-COUNTIF(Z24,"MINS")-COUNTIF(Z24,"MOFI")-COUNTIF(Z24,"MPRO")-COUNTIF(Z24,"MSMS")-COUNTIF(Z24,"NCHC")-COUNTIF(Z24,"NENT")-COUNTIF(Z24,"NINS")-COUNTIF(Z24,"SIND")-COUNTIF(Z24,"TATF")-COUNTIF(Z24,"TCAE")-COUNTIF(Z24,"TCHC")-COUNTIF(Z24,"TCOR")-COUNTIF(Z24,"TDBM")-COUNTIF(Z24,"TDOC")-COUNTIF(Z24,"TENT")-COUNTIF(Z24,"TGST")-COUNTIF(Z24,"TINS")-COUNTIF(Z24,"TOFI")-COUNTIF(Z24,"TPRO")-COUNTIF(Z24,"TROP")-COUNTIF(Z24,"TSMS")-COUNTIF(Z24,"VACA")-COUNTIF(Z24,"X")-COUNTIF(Z24,"XATC")-COUNTIF(Z24,"YATC")-COUNTIF(Z24,"ZATC")</f>
         <v>3</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(AA22)+COUNTIF(AA22,"&lt;&gt;")-COUNTIF(AA22,"ACHC")-COUNTIF(AA22,"AENT")-COUNTIF(AA22,"AINS")-COUNTIF(AA22,"ATC")-COUNTIF(AA22,"CAPA")-COUNTIF(AA22,"CERT")-COUNTIF(AA22,"CET")-COUNTIF(AA22,"CMED")-COUNTIF(AA22,"COME")-COUNTIF(AA22,"COMS")-COUNTIF(AA22,"COMT")-COUNTIF(AA22,"DESC")-COUNTIF(AA22,"KATC")-COUNTIF(AA22,"LICR")-COUNTIF(AA22,"MATF")-COUNTIF(AA22,"MCAE")-COUNTIF(AA22,"MCHC")-COUNTIF(AA22,"MCOR")-COUNTIF(AA22,"MDBM")-COUNTIF(AA22,"MDOC")-COUNTIF(AA22,"MENT")-COUNTIF(AA22,"MGST")-COUNTIF(AA22,"MINS")-COUNTIF(AA22,"MOFI")-COUNTIF(AA22,"MPRO")-COUNTIF(AA22,"MSMS")-COUNTIF(AA22,"NCHC")-COUNTIF(AA22,"NENT")-COUNTIF(AA22,"NINS")-COUNTIF(AA22,"SIND")-COUNTIF(AA22,"TATF")-COUNTIF(AA22,"TCAE")-COUNTIF(AA22,"TCHC")-COUNTIF(AA22,"TCOR")-COUNTIF(AA22,"TDBM")-COUNTIF(AA22,"TDOC")-COUNTIF(AA22,"TENT")-COUNTIF(AA22,"TGST")-COUNTIF(AA22,"TINS")-COUNTIF(AA22,"TOFI")-COUNTIF(AA22,"TPRO")-COUNTIF(AA22,"TROP")-COUNTIF(AA22,"TSMS")-COUNTIF(AA22,"VACA")-COUNTIF(AA22,"X")-COUNTIF(AA22,"XATC")-COUNTIF(AA22,"YATC")-COUNTIF(AA22,"ZATC")+COUNTBLANK(AA25)+COUNTIF(AA25,"&lt;&gt;")-COUNTIF(AA25,"ACHC")-COUNTIF(AA25,"AENT")-COUNTIF(AA25,"AINS")-COUNTIF(AA25,"ATC")-COUNTIF(AA25,"CAPA")-COUNTIF(AA25,"CERT")-COUNTIF(AA25,"CET")-COUNTIF(AA25,"CMED")-COUNTIF(AA25,"COME")-COUNTIF(AA25,"COMS")-COUNTIF(AA25,"COMT")-COUNTIF(AA25,"DESC")-COUNTIF(AA25,"KATC")-COUNTIF(AA25,"LICR")-COUNTIF(AA25,"MATF")-COUNTIF(AA25,"MCAE")-COUNTIF(AA25,"MCHC")-COUNTIF(AA25,"MCOR")-COUNTIF(AA25,"MDBM")-COUNTIF(AA25,"MDOC")-COUNTIF(AA25,"MENT")-COUNTIF(AA25,"MGST")-COUNTIF(AA25,"MINS")-COUNTIF(AA25,"MOFI")-COUNTIF(AA25,"MPRO")-COUNTIF(AA25,"MSMS")-COUNTIF(AA25,"NCHC")-COUNTIF(AA25,"NENT")-COUNTIF(AA25,"NINS")-COUNTIF(AA25,"SIND")-COUNTIF(AA25,"TATF")-COUNTIF(AA25,"TCAE")-COUNTIF(AA25,"TCHC")-COUNTIF(AA25,"TCOR")-COUNTIF(AA25,"TDBM")-COUNTIF(AA25,"TDOC")-COUNTIF(AA25,"TENT")-COUNTIF(AA25,"TGST")-COUNTIF(AA25,"TINS")-COUNTIF(AA25,"TOFI")-COUNTIF(AA25,"TPRO")-COUNTIF(AA25,"TROP")-COUNTIF(AA25,"TSMS")-COUNTIF(AA25,"VACA")-COUNTIF(AA25,"X")-COUNTIF(AA25,"XATC")-COUNTIF(AA25,"YATC")-COUNTIF(AA25,"ZATC")+COUNTBLANK(AA20)+COUNTIF(AA20,"&lt;&gt;")-COUNTIF(AA20,"ACHC")-COUNTIF(AA20,"AENT")-COUNTIF(AA20,"AINS")-COUNTIF(AA20,"ATC")-COUNTIF(AA20,"CAPA")-COUNTIF(AA20,"CERT")-COUNTIF(AA20,"CET")-COUNTIF(AA20,"CMED")-COUNTIF(AA20,"COME")-COUNTIF(AA20,"COMS")-COUNTIF(AA20,"COMT")-COUNTIF(AA20,"DESC")-COUNTIF(AA20,"KATC")-COUNTIF(AA20,"LICR")-COUNTIF(AA20,"MATF")-COUNTIF(AA20,"MCAE")-COUNTIF(AA20,"MCHC")-COUNTIF(AA20,"MCOR")-COUNTIF(AA20,"MDBM")-COUNTIF(AA20,"MDOC")-COUNTIF(AA20,"MENT")-COUNTIF(AA20,"MGST")-COUNTIF(AA20,"MINS")-COUNTIF(AA20,"MOFI")-COUNTIF(AA20,"MPRO")-COUNTIF(AA20,"MSMS")-COUNTIF(AA20,"NCHC")-COUNTIF(AA20,"NENT")-COUNTIF(AA20,"NINS")-COUNTIF(AA20,"SIND")-COUNTIF(AA20,"TATF")-COUNTIF(AA20,"TCAE")-COUNTIF(AA20,"TCHC")-COUNTIF(AA20,"TCOR")-COUNTIF(AA20,"TDBM")-COUNTIF(AA20,"TDOC")-COUNTIF(AA20,"TENT")-COUNTIF(AA20,"TGST")-COUNTIF(AA20,"TINS")-COUNTIF(AA20,"TOFI")-COUNTIF(AA20,"TPRO")-COUNTIF(AA20,"TROP")-COUNTIF(AA20,"TSMS")-COUNTIF(AA20,"VACA")-COUNTIF(AA20,"X")-COUNTIF(AA20,"XATC")-COUNTIF(AA20,"YATC")-COUNTIF(AA20,"ZATC")+COUNTBLANK(AA23)+COUNTIF(AA23,"&lt;&gt;")-COUNTIF(AA23,"ACHC")-COUNTIF(AA23,"AENT")-COUNTIF(AA23,"AINS")-COUNTIF(AA23,"ATC")-COUNTIF(AA23,"CAPA")-COUNTIF(AA23,"CERT")-COUNTIF(AA23,"CET")-COUNTIF(AA23,"CMED")-COUNTIF(AA23,"COME")-COUNTIF(AA23,"COMS")-COUNTIF(AA23,"COMT")-COUNTIF(AA23,"DESC")-COUNTIF(AA23,"KATC")-COUNTIF(AA23,"LICR")-COUNTIF(AA23,"MATF")-COUNTIF(AA23,"MCAE")-COUNTIF(AA23,"MCHC")-COUNTIF(AA23,"MCOR")-COUNTIF(AA23,"MDBM")-COUNTIF(AA23,"MDOC")-COUNTIF(AA23,"MENT")-COUNTIF(AA23,"MGST")-COUNTIF(AA23,"MINS")-COUNTIF(AA23,"MOFI")-COUNTIF(AA23,"MPRO")-COUNTIF(AA23,"MSMS")-COUNTIF(AA23,"NCHC")-COUNTIF(AA23,"NENT")-COUNTIF(AA23,"NINS")-COUNTIF(AA23,"SIND")-COUNTIF(AA23,"TATF")-COUNTIF(AA23,"TCAE")-COUNTIF(AA23,"TCHC")-COUNTIF(AA23,"TCOR")-COUNTIF(AA23,"TDBM")-COUNTIF(AA23,"TDOC")-COUNTIF(AA23,"TENT")-COUNTIF(AA23,"TGST")-COUNTIF(AA23,"TINS")-COUNTIF(AA23,"TOFI")-COUNTIF(AA23,"TPRO")-COUNTIF(AA23,"TROP")-COUNTIF(AA23,"TSMS")-COUNTIF(AA23,"VACA")-COUNTIF(AA23,"X")-COUNTIF(AA23,"XATC")-COUNTIF(AA23,"YATC")-COUNTIF(AA23,"ZATC")+COUNTBLANK(AA21)+COUNTIF(AA21,"&lt;&gt;")-COUNTIF(AA21,"ACHC")-COUNTIF(AA21,"AENT")-COUNTIF(AA21,"AINS")-COUNTIF(AA21,"ATC")-COUNTIF(AA21,"CAPA")-COUNTIF(AA21,"CERT")-COUNTIF(AA21,"CET")-COUNTIF(AA21,"CMED")-COUNTIF(AA21,"COME")-COUNTIF(AA21,"COMS")-COUNTIF(AA21,"COMT")-COUNTIF(AA21,"DESC")-COUNTIF(AA21,"KATC")-COUNTIF(AA21,"LICR")-COUNTIF(AA21,"MATF")-COUNTIF(AA21,"MCAE")-COUNTIF(AA21,"MCHC")-COUNTIF(AA21,"MCOR")-COUNTIF(AA21,"MDBM")-COUNTIF(AA21,"MDOC")-COUNTIF(AA21,"MENT")-COUNTIF(AA21,"MGST")-COUNTIF(AA21,"MINS")-COUNTIF(AA21,"MOFI")-COUNTIF(AA21,"MPRO")-COUNTIF(AA21,"MSMS")-COUNTIF(AA21,"NCHC")-COUNTIF(AA21,"NENT")-COUNTIF(AA21,"NINS")-COUNTIF(AA21,"SIND")-COUNTIF(AA21,"TATF")-COUNTIF(AA21,"TCAE")-COUNTIF(AA21,"TCHC")-COUNTIF(AA21,"TCOR")-COUNTIF(AA21,"TDBM")-COUNTIF(AA21,"TDOC")-COUNTIF(AA21,"TENT")-COUNTIF(AA21,"TGST")-COUNTIF(AA21,"TINS")-COUNTIF(AA21,"TOFI")-COUNTIF(AA21,"TPRO")-COUNTIF(AA21,"TROP")-COUNTIF(AA21,"TSMS")-COUNTIF(AA21,"VACA")-COUNTIF(AA21,"X")-COUNTIF(AA21,"XATC")-COUNTIF(AA21,"YATC")-COUNTIF(AA21,"ZATC")+COUNTBLANK(AA24)+COUNTIF(AA24,"&lt;&gt;")-COUNTIF(AA24,"ACHC")-COUNTIF(AA24,"AENT")-COUNTIF(AA24,"AINS")-COUNTIF(AA24,"ATC")-COUNTIF(AA24,"CAPA")-COUNTIF(AA24,"CERT")-COUNTIF(AA24,"CET")-COUNTIF(AA24,"CMED")-COUNTIF(AA24,"COME")-COUNTIF(AA24,"COMS")-COUNTIF(AA24,"COMT")-COUNTIF(AA24,"DESC")-COUNTIF(AA24,"KATC")-COUNTIF(AA24,"LICR")-COUNTIF(AA24,"MATF")-COUNTIF(AA24,"MCAE")-COUNTIF(AA24,"MCHC")-COUNTIF(AA24,"MCOR")-COUNTIF(AA24,"MDBM")-COUNTIF(AA24,"MDOC")-COUNTIF(AA24,"MENT")-COUNTIF(AA24,"MGST")-COUNTIF(AA24,"MINS")-COUNTIF(AA24,"MOFI")-COUNTIF(AA24,"MPRO")-COUNTIF(AA24,"MSMS")-COUNTIF(AA24,"NCHC")-COUNTIF(AA24,"NENT")-COUNTIF(AA24,"NINS")-COUNTIF(AA24,"SIND")-COUNTIF(AA24,"TATF")-COUNTIF(AA24,"TCAE")-COUNTIF(AA24,"TCHC")-COUNTIF(AA24,"TCOR")-COUNTIF(AA24,"TDBM")-COUNTIF(AA24,"TDOC")-COUNTIF(AA24,"TENT")-COUNTIF(AA24,"TGST")-COUNTIF(AA24,"TINS")-COUNTIF(AA24,"TOFI")-COUNTIF(AA24,"TPRO")-COUNTIF(AA24,"TROP")-COUNTIF(AA24,"TSMS")-COUNTIF(AA24,"VACA")-COUNTIF(AA24,"X")-COUNTIF(AA24,"XATC")-COUNTIF(AA24,"YATC")-COUNTIF(AA24,"ZATC")</f>
         <v>5</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(AB22)+COUNTIF(AB22,"&lt;&gt;")-COUNTIF(AB22,"ACHC")-COUNTIF(AB22,"AENT")-COUNTIF(AB22,"AINS")-COUNTIF(AB22,"ATC")-COUNTIF(AB22,"CAPA")-COUNTIF(AB22,"CERT")-COUNTIF(AB22,"CET")-COUNTIF(AB22,"CMED")-COUNTIF(AB22,"COME")-COUNTIF(AB22,"COMS")-COUNTIF(AB22,"COMT")-COUNTIF(AB22,"DESC")-COUNTIF(AB22,"KATC")-COUNTIF(AB22,"LICR")-COUNTIF(AB22,"MATF")-COUNTIF(AB22,"MCAE")-COUNTIF(AB22,"MCHC")-COUNTIF(AB22,"MCOR")-COUNTIF(AB22,"MDBM")-COUNTIF(AB22,"MDOC")-COUNTIF(AB22,"MENT")-COUNTIF(AB22,"MGST")-COUNTIF(AB22,"MINS")-COUNTIF(AB22,"MOFI")-COUNTIF(AB22,"MPRO")-COUNTIF(AB22,"MSMS")-COUNTIF(AB22,"NCHC")-COUNTIF(AB22,"NENT")-COUNTIF(AB22,"NINS")-COUNTIF(AB22,"SIND")-COUNTIF(AB22,"TATF")-COUNTIF(AB22,"TCAE")-COUNTIF(AB22,"TCHC")-COUNTIF(AB22,"TCOR")-COUNTIF(AB22,"TDBM")-COUNTIF(AB22,"TDOC")-COUNTIF(AB22,"TENT")-COUNTIF(AB22,"TGST")-COUNTIF(AB22,"TINS")-COUNTIF(AB22,"TOFI")-COUNTIF(AB22,"TPRO")-COUNTIF(AB22,"TROP")-COUNTIF(AB22,"TSMS")-COUNTIF(AB22,"VACA")-COUNTIF(AB22,"X")-COUNTIF(AB22,"XATC")-COUNTIF(AB22,"YATC")-COUNTIF(AB22,"ZATC")+COUNTBLANK(AB25)+COUNTIF(AB25,"&lt;&gt;")-COUNTIF(AB25,"ACHC")-COUNTIF(AB25,"AENT")-COUNTIF(AB25,"AINS")-COUNTIF(AB25,"ATC")-COUNTIF(AB25,"CAPA")-COUNTIF(AB25,"CERT")-COUNTIF(AB25,"CET")-COUNTIF(AB25,"CMED")-COUNTIF(AB25,"COME")-COUNTIF(AB25,"COMS")-COUNTIF(AB25,"COMT")-COUNTIF(AB25,"DESC")-COUNTIF(AB25,"KATC")-COUNTIF(AB25,"LICR")-COUNTIF(AB25,"MATF")-COUNTIF(AB25,"MCAE")-COUNTIF(AB25,"MCHC")-COUNTIF(AB25,"MCOR")-COUNTIF(AB25,"MDBM")-COUNTIF(AB25,"MDOC")-COUNTIF(AB25,"MENT")-COUNTIF(AB25,"MGST")-COUNTIF(AB25,"MINS")-COUNTIF(AB25,"MOFI")-COUNTIF(AB25,"MPRO")-COUNTIF(AB25,"MSMS")-COUNTIF(AB25,"NCHC")-COUNTIF(AB25,"NENT")-COUNTIF(AB25,"NINS")-COUNTIF(AB25,"SIND")-COUNTIF(AB25,"TATF")-COUNTIF(AB25,"TCAE")-COUNTIF(AB25,"TCHC")-COUNTIF(AB25,"TCOR")-COUNTIF(AB25,"TDBM")-COUNTIF(AB25,"TDOC")-COUNTIF(AB25,"TENT")-COUNTIF(AB25,"TGST")-COUNTIF(AB25,"TINS")-COUNTIF(AB25,"TOFI")-COUNTIF(AB25,"TPRO")-COUNTIF(AB25,"TROP")-COUNTIF(AB25,"TSMS")-COUNTIF(AB25,"VACA")-COUNTIF(AB25,"X")-COUNTIF(AB25,"XATC")-COUNTIF(AB25,"YATC")-COUNTIF(AB25,"ZATC")+COUNTBLANK(AB20)+COUNTIF(AB20,"&lt;&gt;")-COUNTIF(AB20,"ACHC")-COUNTIF(AB20,"AENT")-COUNTIF(AB20,"AINS")-COUNTIF(AB20,"ATC")-COUNTIF(AB20,"CAPA")-COUNTIF(AB20,"CERT")-COUNTIF(AB20,"CET")-COUNTIF(AB20,"CMED")-COUNTIF(AB20,"COME")-COUNTIF(AB20,"COMS")-COUNTIF(AB20,"COMT")-COUNTIF(AB20,"DESC")-COUNTIF(AB20,"KATC")-COUNTIF(AB20,"LICR")-COUNTIF(AB20,"MATF")-COUNTIF(AB20,"MCAE")-COUNTIF(AB20,"MCHC")-COUNTIF(AB20,"MCOR")-COUNTIF(AB20,"MDBM")-COUNTIF(AB20,"MDOC")-COUNTIF(AB20,"MENT")-COUNTIF(AB20,"MGST")-COUNTIF(AB20,"MINS")-COUNTIF(AB20,"MOFI")-COUNTIF(AB20,"MPRO")-COUNTIF(AB20,"MSMS")-COUNTIF(AB20,"NCHC")-COUNTIF(AB20,"NENT")-COUNTIF(AB20,"NINS")-COUNTIF(AB20,"SIND")-COUNTIF(AB20,"TATF")-COUNTIF(AB20,"TCAE")-COUNTIF(AB20,"TCHC")-COUNTIF(AB20,"TCOR")-COUNTIF(AB20,"TDBM")-COUNTIF(AB20,"TDOC")-COUNTIF(AB20,"TENT")-COUNTIF(AB20,"TGST")-COUNTIF(AB20,"TINS")-COUNTIF(AB20,"TOFI")-COUNTIF(AB20,"TPRO")-COUNTIF(AB20,"TROP")-COUNTIF(AB20,"TSMS")-COUNTIF(AB20,"VACA")-COUNTIF(AB20,"X")-COUNTIF(AB20,"XATC")-COUNTIF(AB20,"YATC")-COUNTIF(AB20,"ZATC")+COUNTBLANK(AB23)+COUNTIF(AB23,"&lt;&gt;")-COUNTIF(AB23,"ACHC")-COUNTIF(AB23,"AENT")-COUNTIF(AB23,"AINS")-COUNTIF(AB23,"ATC")-COUNTIF(AB23,"CAPA")-COUNTIF(AB23,"CERT")-COUNTIF(AB23,"CET")-COUNTIF(AB23,"CMED")-COUNTIF(AB23,"COME")-COUNTIF(AB23,"COMS")-COUNTIF(AB23,"COMT")-COUNTIF(AB23,"DESC")-COUNTIF(AB23,"KATC")-COUNTIF(AB23,"LICR")-COUNTIF(AB23,"MATF")-COUNTIF(AB23,"MCAE")-COUNTIF(AB23,"MCHC")-COUNTIF(AB23,"MCOR")-COUNTIF(AB23,"MDBM")-COUNTIF(AB23,"MDOC")-COUNTIF(AB23,"MENT")-COUNTIF(AB23,"MGST")-COUNTIF(AB23,"MINS")-COUNTIF(AB23,"MOFI")-COUNTIF(AB23,"MPRO")-COUNTIF(AB23,"MSMS")-COUNTIF(AB23,"NCHC")-COUNTIF(AB23,"NENT")-COUNTIF(AB23,"NINS")-COUNTIF(AB23,"SIND")-COUNTIF(AB23,"TATF")-COUNTIF(AB23,"TCAE")-COUNTIF(AB23,"TCHC")-COUNTIF(AB23,"TCOR")-COUNTIF(AB23,"TDBM")-COUNTIF(AB23,"TDOC")-COUNTIF(AB23,"TENT")-COUNTIF(AB23,"TGST")-COUNTIF(AB23,"TINS")-COUNTIF(AB23,"TOFI")-COUNTIF(AB23,"TPRO")-COUNTIF(AB23,"TROP")-COUNTIF(AB23,"TSMS")-COUNTIF(AB23,"VACA")-COUNTIF(AB23,"X")-COUNTIF(AB23,"XATC")-COUNTIF(AB23,"YATC")-COUNTIF(AB23,"ZATC")+COUNTBLANK(AB21)+COUNTIF(AB21,"&lt;&gt;")-COUNTIF(AB21,"ACHC")-COUNTIF(AB21,"AENT")-COUNTIF(AB21,"AINS")-COUNTIF(AB21,"ATC")-COUNTIF(AB21,"CAPA")-COUNTIF(AB21,"CERT")-COUNTIF(AB21,"CET")-COUNTIF(AB21,"CMED")-COUNTIF(AB21,"COME")-COUNTIF(AB21,"COMS")-COUNTIF(AB21,"COMT")-COUNTIF(AB21,"DESC")-COUNTIF(AB21,"KATC")-COUNTIF(AB21,"LICR")-COUNTIF(AB21,"MATF")-COUNTIF(AB21,"MCAE")-COUNTIF(AB21,"MCHC")-COUNTIF(AB21,"MCOR")-COUNTIF(AB21,"MDBM")-COUNTIF(AB21,"MDOC")-COUNTIF(AB21,"MENT")-COUNTIF(AB21,"MGST")-COUNTIF(AB21,"MINS")-COUNTIF(AB21,"MOFI")-COUNTIF(AB21,"MPRO")-COUNTIF(AB21,"MSMS")-COUNTIF(AB21,"NCHC")-COUNTIF(AB21,"NENT")-COUNTIF(AB21,"NINS")-COUNTIF(AB21,"SIND")-COUNTIF(AB21,"TATF")-COUNTIF(AB21,"TCAE")-COUNTIF(AB21,"TCHC")-COUNTIF(AB21,"TCOR")-COUNTIF(AB21,"TDBM")-COUNTIF(AB21,"TDOC")-COUNTIF(AB21,"TENT")-COUNTIF(AB21,"TGST")-COUNTIF(AB21,"TINS")-COUNTIF(AB21,"TOFI")-COUNTIF(AB21,"TPRO")-COUNTIF(AB21,"TROP")-COUNTIF(AB21,"TSMS")-COUNTIF(AB21,"VACA")-COUNTIF(AB21,"X")-COUNTIF(AB21,"XATC")-COUNTIF(AB21,"YATC")-COUNTIF(AB21,"ZATC")+COUNTBLANK(AB24)+COUNTIF(AB24,"&lt;&gt;")-COUNTIF(AB24,"ACHC")-COUNTIF(AB24,"AENT")-COUNTIF(AB24,"AINS")-COUNTIF(AB24,"ATC")-COUNTIF(AB24,"CAPA")-COUNTIF(AB24,"CERT")-COUNTIF(AB24,"CET")-COUNTIF(AB24,"CMED")-COUNTIF(AB24,"COME")-COUNTIF(AB24,"COMS")-COUNTIF(AB24,"COMT")-COUNTIF(AB24,"DESC")-COUNTIF(AB24,"KATC")-COUNTIF(AB24,"LICR")-COUNTIF(AB24,"MATF")-COUNTIF(AB24,"MCAE")-COUNTIF(AB24,"MCHC")-COUNTIF(AB24,"MCOR")-COUNTIF(AB24,"MDBM")-COUNTIF(AB24,"MDOC")-COUNTIF(AB24,"MENT")-COUNTIF(AB24,"MGST")-COUNTIF(AB24,"MINS")-COUNTIF(AB24,"MOFI")-COUNTIF(AB24,"MPRO")-COUNTIF(AB24,"MSMS")-COUNTIF(AB24,"NCHC")-COUNTIF(AB24,"NENT")-COUNTIF(AB24,"NINS")-COUNTIF(AB24,"SIND")-COUNTIF(AB24,"TATF")-COUNTIF(AB24,"TCAE")-COUNTIF(AB24,"TCHC")-COUNTIF(AB24,"TCOR")-COUNTIF(AB24,"TDBM")-COUNTIF(AB24,"TDOC")-COUNTIF(AB24,"TENT")-COUNTIF(AB24,"TGST")-COUNTIF(AB24,"TINS")-COUNTIF(AB24,"TOFI")-COUNTIF(AB24,"TPRO")-COUNTIF(AB24,"TROP")-COUNTIF(AB24,"TSMS")-COUNTIF(AB24,"VACA")-COUNTIF(AB24,"X")-COUNTIF(AB24,"XATC")-COUNTIF(AB24,"YATC")-COUNTIF(AB24,"ZATC")</f>
         <v>3</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(AC22)+COUNTIF(AC22,"&lt;&gt;")-COUNTIF(AC22,"ACHC")-COUNTIF(AC22,"AENT")-COUNTIF(AC22,"AINS")-COUNTIF(AC22,"ATC")-COUNTIF(AC22,"CAPA")-COUNTIF(AC22,"CERT")-COUNTIF(AC22,"CET")-COUNTIF(AC22,"CMED")-COUNTIF(AC22,"COME")-COUNTIF(AC22,"COMS")-COUNTIF(AC22,"COMT")-COUNTIF(AC22,"DESC")-COUNTIF(AC22,"KATC")-COUNTIF(AC22,"LICR")-COUNTIF(AC22,"MATF")-COUNTIF(AC22,"MCAE")-COUNTIF(AC22,"MCHC")-COUNTIF(AC22,"MCOR")-COUNTIF(AC22,"MDBM")-COUNTIF(AC22,"MDOC")-COUNTIF(AC22,"MENT")-COUNTIF(AC22,"MGST")-COUNTIF(AC22,"MINS")-COUNTIF(AC22,"MOFI")-COUNTIF(AC22,"MPRO")-COUNTIF(AC22,"MSMS")-COUNTIF(AC22,"NCHC")-COUNTIF(AC22,"NENT")-COUNTIF(AC22,"NINS")-COUNTIF(AC22,"SIND")-COUNTIF(AC22,"TATF")-COUNTIF(AC22,"TCAE")-COUNTIF(AC22,"TCHC")-COUNTIF(AC22,"TCOR")-COUNTIF(AC22,"TDBM")-COUNTIF(AC22,"TDOC")-COUNTIF(AC22,"TENT")-COUNTIF(AC22,"TGST")-COUNTIF(AC22,"TINS")-COUNTIF(AC22,"TOFI")-COUNTIF(AC22,"TPRO")-COUNTIF(AC22,"TROP")-COUNTIF(AC22,"TSMS")-COUNTIF(AC22,"VACA")-COUNTIF(AC22,"X")-COUNTIF(AC22,"XATC")-COUNTIF(AC22,"YATC")-COUNTIF(AC22,"ZATC")+COUNTBLANK(AC25)+COUNTIF(AC25,"&lt;&gt;")-COUNTIF(AC25,"ACHC")-COUNTIF(AC25,"AENT")-COUNTIF(AC25,"AINS")-COUNTIF(AC25,"ATC")-COUNTIF(AC25,"CAPA")-COUNTIF(AC25,"CERT")-COUNTIF(AC25,"CET")-COUNTIF(AC25,"CMED")-COUNTIF(AC25,"COME")-COUNTIF(AC25,"COMS")-COUNTIF(AC25,"COMT")-COUNTIF(AC25,"DESC")-COUNTIF(AC25,"KATC")-COUNTIF(AC25,"LICR")-COUNTIF(AC25,"MATF")-COUNTIF(AC25,"MCAE")-COUNTIF(AC25,"MCHC")-COUNTIF(AC25,"MCOR")-COUNTIF(AC25,"MDBM")-COUNTIF(AC25,"MDOC")-COUNTIF(AC25,"MENT")-COUNTIF(AC25,"MGST")-COUNTIF(AC25,"MINS")-COUNTIF(AC25,"MOFI")-COUNTIF(AC25,"MPRO")-COUNTIF(AC25,"MSMS")-COUNTIF(AC25,"NCHC")-COUNTIF(AC25,"NENT")-COUNTIF(AC25,"NINS")-COUNTIF(AC25,"SIND")-COUNTIF(AC25,"TATF")-COUNTIF(AC25,"TCAE")-COUNTIF(AC25,"TCHC")-COUNTIF(AC25,"TCOR")-COUNTIF(AC25,"TDBM")-COUNTIF(AC25,"TDOC")-COUNTIF(AC25,"TENT")-COUNTIF(AC25,"TGST")-COUNTIF(AC25,"TINS")-COUNTIF(AC25,"TOFI")-COUNTIF(AC25,"TPRO")-COUNTIF(AC25,"TROP")-COUNTIF(AC25,"TSMS")-COUNTIF(AC25,"VACA")-COUNTIF(AC25,"X")-COUNTIF(AC25,"XATC")-COUNTIF(AC25,"YATC")-COUNTIF(AC25,"ZATC")+COUNTBLANK(AC20)+COUNTIF(AC20,"&lt;&gt;")-COUNTIF(AC20,"ACHC")-COUNTIF(AC20,"AENT")-COUNTIF(AC20,"AINS")-COUNTIF(AC20,"ATC")-COUNTIF(AC20,"CAPA")-COUNTIF(AC20,"CERT")-COUNTIF(AC20,"CET")-COUNTIF(AC20,"CMED")-COUNTIF(AC20,"COME")-COUNTIF(AC20,"COMS")-COUNTIF(AC20,"COMT")-COUNTIF(AC20,"DESC")-COUNTIF(AC20,"KATC")-COUNTIF(AC20,"LICR")-COUNTIF(AC20,"MATF")-COUNTIF(AC20,"MCAE")-COUNTIF(AC20,"MCHC")-COUNTIF(AC20,"MCOR")-COUNTIF(AC20,"MDBM")-COUNTIF(AC20,"MDOC")-COUNTIF(AC20,"MENT")-COUNTIF(AC20,"MGST")-COUNTIF(AC20,"MINS")-COUNTIF(AC20,"MOFI")-COUNTIF(AC20,"MPRO")-COUNTIF(AC20,"MSMS")-COUNTIF(AC20,"NCHC")-COUNTIF(AC20,"NENT")-COUNTIF(AC20,"NINS")-COUNTIF(AC20,"SIND")-COUNTIF(AC20,"TATF")-COUNTIF(AC20,"TCAE")-COUNTIF(AC20,"TCHC")-COUNTIF(AC20,"TCOR")-COUNTIF(AC20,"TDBM")-COUNTIF(AC20,"TDOC")-COUNTIF(AC20,"TENT")-COUNTIF(AC20,"TGST")-COUNTIF(AC20,"TINS")-COUNTIF(AC20,"TOFI")-COUNTIF(AC20,"TPRO")-COUNTIF(AC20,"TROP")-COUNTIF(AC20,"TSMS")-COUNTIF(AC20,"VACA")-COUNTIF(AC20,"X")-COUNTIF(AC20,"XATC")-COUNTIF(AC20,"YATC")-COUNTIF(AC20,"ZATC")+COUNTBLANK(AC23)+COUNTIF(AC23,"&lt;&gt;")-COUNTIF(AC23,"ACHC")-COUNTIF(AC23,"AENT")-COUNTIF(AC23,"AINS")-COUNTIF(AC23,"ATC")-COUNTIF(AC23,"CAPA")-COUNTIF(AC23,"CERT")-COUNTIF(AC23,"CET")-COUNTIF(AC23,"CMED")-COUNTIF(AC23,"COME")-COUNTIF(AC23,"COMS")-COUNTIF(AC23,"COMT")-COUNTIF(AC23,"DESC")-COUNTIF(AC23,"KATC")-COUNTIF(AC23,"LICR")-COUNTIF(AC23,"MATF")-COUNTIF(AC23,"MCAE")-COUNTIF(AC23,"MCHC")-COUNTIF(AC23,"MCOR")-COUNTIF(AC23,"MDBM")-COUNTIF(AC23,"MDOC")-COUNTIF(AC23,"MENT")-COUNTIF(AC23,"MGST")-COUNTIF(AC23,"MINS")-COUNTIF(AC23,"MOFI")-COUNTIF(AC23,"MPRO")-COUNTIF(AC23,"MSMS")-COUNTIF(AC23,"NCHC")-COUNTIF(AC23,"NENT")-COUNTIF(AC23,"NINS")-COUNTIF(AC23,"SIND")-COUNTIF(AC23,"TATF")-COUNTIF(AC23,"TCAE")-COUNTIF(AC23,"TCHC")-COUNTIF(AC23,"TCOR")-COUNTIF(AC23,"TDBM")-COUNTIF(AC23,"TDOC")-COUNTIF(AC23,"TENT")-COUNTIF(AC23,"TGST")-COUNTIF(AC23,"TINS")-COUNTIF(AC23,"TOFI")-COUNTIF(AC23,"TPRO")-COUNTIF(AC23,"TROP")-COUNTIF(AC23,"TSMS")-COUNTIF(AC23,"VACA")-COUNTIF(AC23,"X")-COUNTIF(AC23,"XATC")-COUNTIF(AC23,"YATC")-COUNTIF(AC23,"ZATC")+COUNTBLANK(AC21)+COUNTIF(AC21,"&lt;&gt;")-COUNTIF(AC21,"ACHC")-COUNTIF(AC21,"AENT")-COUNTIF(AC21,"AINS")-COUNTIF(AC21,"ATC")-COUNTIF(AC21,"CAPA")-COUNTIF(AC21,"CERT")-COUNTIF(AC21,"CET")-COUNTIF(AC21,"CMED")-COUNTIF(AC21,"COME")-COUNTIF(AC21,"COMS")-COUNTIF(AC21,"COMT")-COUNTIF(AC21,"DESC")-COUNTIF(AC21,"KATC")-COUNTIF(AC21,"LICR")-COUNTIF(AC21,"MATF")-COUNTIF(AC21,"MCAE")-COUNTIF(AC21,"MCHC")-COUNTIF(AC21,"MCOR")-COUNTIF(AC21,"MDBM")-COUNTIF(AC21,"MDOC")-COUNTIF(AC21,"MENT")-COUNTIF(AC21,"MGST")-COUNTIF(AC21,"MINS")-COUNTIF(AC21,"MOFI")-COUNTIF(AC21,"MPRO")-COUNTIF(AC21,"MSMS")-COUNTIF(AC21,"NCHC")-COUNTIF(AC21,"NENT")-COUNTIF(AC21,"NINS")-COUNTIF(AC21,"SIND")-COUNTIF(AC21,"TATF")-COUNTIF(AC21,"TCAE")-COUNTIF(AC21,"TCHC")-COUNTIF(AC21,"TCOR")-COUNTIF(AC21,"TDBM")-COUNTIF(AC21,"TDOC")-COUNTIF(AC21,"TENT")-COUNTIF(AC21,"TGST")-COUNTIF(AC21,"TINS")-COUNTIF(AC21,"TOFI")-COUNTIF(AC21,"TPRO")-COUNTIF(AC21,"TROP")-COUNTIF(AC21,"TSMS")-COUNTIF(AC21,"VACA")-COUNTIF(AC21,"X")-COUNTIF(AC21,"XATC")-COUNTIF(AC21,"YATC")-COUNTIF(AC21,"ZATC")+COUNTBLANK(AC24)+COUNTIF(AC24,"&lt;&gt;")-COUNTIF(AC24,"ACHC")-COUNTIF(AC24,"AENT")-COUNTIF(AC24,"AINS")-COUNTIF(AC24,"ATC")-COUNTIF(AC24,"CAPA")-COUNTIF(AC24,"CERT")-COUNTIF(AC24,"CET")-COUNTIF(AC24,"CMED")-COUNTIF(AC24,"COME")-COUNTIF(AC24,"COMS")-COUNTIF(AC24,"COMT")-COUNTIF(AC24,"DESC")-COUNTIF(AC24,"KATC")-COUNTIF(AC24,"LICR")-COUNTIF(AC24,"MATF")-COUNTIF(AC24,"MCAE")-COUNTIF(AC24,"MCHC")-COUNTIF(AC24,"MCOR")-COUNTIF(AC24,"MDBM")-COUNTIF(AC24,"MDOC")-COUNTIF(AC24,"MENT")-COUNTIF(AC24,"MGST")-COUNTIF(AC24,"MINS")-COUNTIF(AC24,"MOFI")-COUNTIF(AC24,"MPRO")-COUNTIF(AC24,"MSMS")-COUNTIF(AC24,"NCHC")-COUNTIF(AC24,"NENT")-COUNTIF(AC24,"NINS")-COUNTIF(AC24,"SIND")-COUNTIF(AC24,"TATF")-COUNTIF(AC24,"TCAE")-COUNTIF(AC24,"TCHC")-COUNTIF(AC24,"TCOR")-COUNTIF(AC24,"TDBM")-COUNTIF(AC24,"TDOC")-COUNTIF(AC24,"TENT")-COUNTIF(AC24,"TGST")-COUNTIF(AC24,"TINS")-COUNTIF(AC24,"TOFI")-COUNTIF(AC24,"TPRO")-COUNTIF(AC24,"TROP")-COUNTIF(AC24,"TSMS")-COUNTIF(AC24,"VACA")-COUNTIF(AC24,"X")-COUNTIF(AC24,"XATC")-COUNTIF(AC24,"YATC")-COUNTIF(AC24,"ZATC")</f>
         <v>2</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(AD22)+COUNTIF(AD22,"&lt;&gt;")-COUNTIF(AD22,"ACHC")-COUNTIF(AD22,"AENT")-COUNTIF(AD22,"AINS")-COUNTIF(AD22,"ATC")-COUNTIF(AD22,"CAPA")-COUNTIF(AD22,"CERT")-COUNTIF(AD22,"CET")-COUNTIF(AD22,"CMED")-COUNTIF(AD22,"COME")-COUNTIF(AD22,"COMS")-COUNTIF(AD22,"COMT")-COUNTIF(AD22,"DESC")-COUNTIF(AD22,"KATC")-COUNTIF(AD22,"LICR")-COUNTIF(AD22,"MATF")-COUNTIF(AD22,"MCAE")-COUNTIF(AD22,"MCHC")-COUNTIF(AD22,"MCOR")-COUNTIF(AD22,"MDBM")-COUNTIF(AD22,"MDOC")-COUNTIF(AD22,"MENT")-COUNTIF(AD22,"MGST")-COUNTIF(AD22,"MINS")-COUNTIF(AD22,"MOFI")-COUNTIF(AD22,"MPRO")-COUNTIF(AD22,"MSMS")-COUNTIF(AD22,"NCHC")-COUNTIF(AD22,"NENT")-COUNTIF(AD22,"NINS")-COUNTIF(AD22,"SIND")-COUNTIF(AD22,"TATF")-COUNTIF(AD22,"TCAE")-COUNTIF(AD22,"TCHC")-COUNTIF(AD22,"TCOR")-COUNTIF(AD22,"TDBM")-COUNTIF(AD22,"TDOC")-COUNTIF(AD22,"TENT")-COUNTIF(AD22,"TGST")-COUNTIF(AD22,"TINS")-COUNTIF(AD22,"TOFI")-COUNTIF(AD22,"TPRO")-COUNTIF(AD22,"TROP")-COUNTIF(AD22,"TSMS")-COUNTIF(AD22,"VACA")-COUNTIF(AD22,"X")-COUNTIF(AD22,"XATC")-COUNTIF(AD22,"YATC")-COUNTIF(AD22,"ZATC")+COUNTBLANK(AD25)+COUNTIF(AD25,"&lt;&gt;")-COUNTIF(AD25,"ACHC")-COUNTIF(AD25,"AENT")-COUNTIF(AD25,"AINS")-COUNTIF(AD25,"ATC")-COUNTIF(AD25,"CAPA")-COUNTIF(AD25,"CERT")-COUNTIF(AD25,"CET")-COUNTIF(AD25,"CMED")-COUNTIF(AD25,"COME")-COUNTIF(AD25,"COMS")-COUNTIF(AD25,"COMT")-COUNTIF(AD25,"DESC")-COUNTIF(AD25,"KATC")-COUNTIF(AD25,"LICR")-COUNTIF(AD25,"MATF")-COUNTIF(AD25,"MCAE")-COUNTIF(AD25,"MCHC")-COUNTIF(AD25,"MCOR")-COUNTIF(AD25,"MDBM")-COUNTIF(AD25,"MDOC")-COUNTIF(AD25,"MENT")-COUNTIF(AD25,"MGST")-COUNTIF(AD25,"MINS")-COUNTIF(AD25,"MOFI")-COUNTIF(AD25,"MPRO")-COUNTIF(AD25,"MSMS")-COUNTIF(AD25,"NCHC")-COUNTIF(AD25,"NENT")-COUNTIF(AD25,"NINS")-COUNTIF(AD25,"SIND")-COUNTIF(AD25,"TATF")-COUNTIF(AD25,"TCAE")-COUNTIF(AD25,"TCHC")-COUNTIF(AD25,"TCOR")-COUNTIF(AD25,"TDBM")-COUNTIF(AD25,"TDOC")-COUNTIF(AD25,"TENT")-COUNTIF(AD25,"TGST")-COUNTIF(AD25,"TINS")-COUNTIF(AD25,"TOFI")-COUNTIF(AD25,"TPRO")-COUNTIF(AD25,"TROP")-COUNTIF(AD25,"TSMS")-COUNTIF(AD25,"VACA")-COUNTIF(AD25,"X")-COUNTIF(AD25,"XATC")-COUNTIF(AD25,"YATC")-COUNTIF(AD25,"ZATC")+COUNTBLANK(AD20)+COUNTIF(AD20,"&lt;&gt;")-COUNTIF(AD20,"ACHC")-COUNTIF(AD20,"AENT")-COUNTIF(AD20,"AINS")-COUNTIF(AD20,"ATC")-COUNTIF(AD20,"CAPA")-COUNTIF(AD20,"CERT")-COUNTIF(AD20,"CET")-COUNTIF(AD20,"CMED")-COUNTIF(AD20,"COME")-COUNTIF(AD20,"COMS")-COUNTIF(AD20,"COMT")-COUNTIF(AD20,"DESC")-COUNTIF(AD20,"KATC")-COUNTIF(AD20,"LICR")-COUNTIF(AD20,"MATF")-COUNTIF(AD20,"MCAE")-COUNTIF(AD20,"MCHC")-COUNTIF(AD20,"MCOR")-COUNTIF(AD20,"MDBM")-COUNTIF(AD20,"MDOC")-COUNTIF(AD20,"MENT")-COUNTIF(AD20,"MGST")-COUNTIF(AD20,"MINS")-COUNTIF(AD20,"MOFI")-COUNTIF(AD20,"MPRO")-COUNTIF(AD20,"MSMS")-COUNTIF(AD20,"NCHC")-COUNTIF(AD20,"NENT")-COUNTIF(AD20,"NINS")-COUNTIF(AD20,"SIND")-COUNTIF(AD20,"TATF")-COUNTIF(AD20,"TCAE")-COUNTIF(AD20,"TCHC")-COUNTIF(AD20,"TCOR")-COUNTIF(AD20,"TDBM")-COUNTIF(AD20,"TDOC")-COUNTIF(AD20,"TENT")-COUNTIF(AD20,"TGST")-COUNTIF(AD20,"TINS")-COUNTIF(AD20,"TOFI")-COUNTIF(AD20,"TPRO")-COUNTIF(AD20,"TROP")-COUNTIF(AD20,"TSMS")-COUNTIF(AD20,"VACA")-COUNTIF(AD20,"X")-COUNTIF(AD20,"XATC")-COUNTIF(AD20,"YATC")-COUNTIF(AD20,"ZATC")+COUNTBLANK(AD23)+COUNTIF(AD23,"&lt;&gt;")-COUNTIF(AD23,"ACHC")-COUNTIF(AD23,"AENT")-COUNTIF(AD23,"AINS")-COUNTIF(AD23,"ATC")-COUNTIF(AD23,"CAPA")-COUNTIF(AD23,"CERT")-COUNTIF(AD23,"CET")-COUNTIF(AD23,"CMED")-COUNTIF(AD23,"COME")-COUNTIF(AD23,"COMS")-COUNTIF(AD23,"COMT")-COUNTIF(AD23,"DESC")-COUNTIF(AD23,"KATC")-COUNTIF(AD23,"LICR")-COUNTIF(AD23,"MATF")-COUNTIF(AD23,"MCAE")-COUNTIF(AD23,"MCHC")-COUNTIF(AD23,"MCOR")-COUNTIF(AD23,"MDBM")-COUNTIF(AD23,"MDOC")-COUNTIF(AD23,"MENT")-COUNTIF(AD23,"MGST")-COUNTIF(AD23,"MINS")-COUNTIF(AD23,"MOFI")-COUNTIF(AD23,"MPRO")-COUNTIF(AD23,"MSMS")-COUNTIF(AD23,"NCHC")-COUNTIF(AD23,"NENT")-COUNTIF(AD23,"NINS")-COUNTIF(AD23,"SIND")-COUNTIF(AD23,"TATF")-COUNTIF(AD23,"TCAE")-COUNTIF(AD23,"TCHC")-COUNTIF(AD23,"TCOR")-COUNTIF(AD23,"TDBM")-COUNTIF(AD23,"TDOC")-COUNTIF(AD23,"TENT")-COUNTIF(AD23,"TGST")-COUNTIF(AD23,"TINS")-COUNTIF(AD23,"TOFI")-COUNTIF(AD23,"TPRO")-COUNTIF(AD23,"TROP")-COUNTIF(AD23,"TSMS")-COUNTIF(AD23,"VACA")-COUNTIF(AD23,"X")-COUNTIF(AD23,"XATC")-COUNTIF(AD23,"YATC")-COUNTIF(AD23,"ZATC")+COUNTBLANK(AD21)+COUNTIF(AD21,"&lt;&gt;")-COUNTIF(AD21,"ACHC")-COUNTIF(AD21,"AENT")-COUNTIF(AD21,"AINS")-COUNTIF(AD21,"ATC")-COUNTIF(AD21,"CAPA")-COUNTIF(AD21,"CERT")-COUNTIF(AD21,"CET")-COUNTIF(AD21,"CMED")-COUNTIF(AD21,"COME")-COUNTIF(AD21,"COMS")-COUNTIF(AD21,"COMT")-COUNTIF(AD21,"DESC")-COUNTIF(AD21,"KATC")-COUNTIF(AD21,"LICR")-COUNTIF(AD21,"MATF")-COUNTIF(AD21,"MCAE")-COUNTIF(AD21,"MCHC")-COUNTIF(AD21,"MCOR")-COUNTIF(AD21,"MDBM")-COUNTIF(AD21,"MDOC")-COUNTIF(AD21,"MENT")-COUNTIF(AD21,"MGST")-COUNTIF(AD21,"MINS")-COUNTIF(AD21,"MOFI")-COUNTIF(AD21,"MPRO")-COUNTIF(AD21,"MSMS")-COUNTIF(AD21,"NCHC")-COUNTIF(AD21,"NENT")-COUNTIF(AD21,"NINS")-COUNTIF(AD21,"SIND")-COUNTIF(AD21,"TATF")-COUNTIF(AD21,"TCAE")-COUNTIF(AD21,"TCHC")-COUNTIF(AD21,"TCOR")-COUNTIF(AD21,"TDBM")-COUNTIF(AD21,"TDOC")-COUNTIF(AD21,"TENT")-COUNTIF(AD21,"TGST")-COUNTIF(AD21,"TINS")-COUNTIF(AD21,"TOFI")-COUNTIF(AD21,"TPRO")-COUNTIF(AD21,"TROP")-COUNTIF(AD21,"TSMS")-COUNTIF(AD21,"VACA")-COUNTIF(AD21,"X")-COUNTIF(AD21,"XATC")-COUNTIF(AD21,"YATC")-COUNTIF(AD21,"ZATC")+COUNTBLANK(AD24)+COUNTIF(AD24,"&lt;&gt;")-COUNTIF(AD24,"ACHC")-COUNTIF(AD24,"AENT")-COUNTIF(AD24,"AINS")-COUNTIF(AD24,"ATC")-COUNTIF(AD24,"CAPA")-COUNTIF(AD24,"CERT")-COUNTIF(AD24,"CET")-COUNTIF(AD24,"CMED")-COUNTIF(AD24,"COME")-COUNTIF(AD24,"COMS")-COUNTIF(AD24,"COMT")-COUNTIF(AD24,"DESC")-COUNTIF(AD24,"KATC")-COUNTIF(AD24,"LICR")-COUNTIF(AD24,"MATF")-COUNTIF(AD24,"MCAE")-COUNTIF(AD24,"MCHC")-COUNTIF(AD24,"MCOR")-COUNTIF(AD24,"MDBM")-COUNTIF(AD24,"MDOC")-COUNTIF(AD24,"MENT")-COUNTIF(AD24,"MGST")-COUNTIF(AD24,"MINS")-COUNTIF(AD24,"MOFI")-COUNTIF(AD24,"MPRO")-COUNTIF(AD24,"MSMS")-COUNTIF(AD24,"NCHC")-COUNTIF(AD24,"NENT")-COUNTIF(AD24,"NINS")-COUNTIF(AD24,"SIND")-COUNTIF(AD24,"TATF")-COUNTIF(AD24,"TCAE")-COUNTIF(AD24,"TCHC")-COUNTIF(AD24,"TCOR")-COUNTIF(AD24,"TDBM")-COUNTIF(AD24,"TDOC")-COUNTIF(AD24,"TENT")-COUNTIF(AD24,"TGST")-COUNTIF(AD24,"TINS")-COUNTIF(AD24,"TOFI")-COUNTIF(AD24,"TPRO")-COUNTIF(AD24,"TROP")-COUNTIF(AD24,"TSMS")-COUNTIF(AD24,"VACA")-COUNTIF(AD24,"X")-COUNTIF(AD24,"XATC")-COUNTIF(AD24,"YATC")-COUNTIF(AD24,"ZATC")</f>
         <v>3</v>
       </c>
       <c r="AE26" t="e">
@@ -3252,168 +3356,168 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:AF27" si="1">COUNTBLANK(B2:B25)+COUNTIF(B2:B25,"&lt;&gt;")-COUNTIF(B2:B25,"ACHC")-COUNTIF(B2:B25,"AENT")-COUNTIF(B2:B25,"AINS")-COUNTIF(B2:B25,"ATC")-COUNTIF(B2:B25,"CAPA")-COUNTIF(B2:B25,"CERT")-COUNTIF(B2:B25,"CET")-COUNTIF(B2:B25,"CMED")-COUNTIF(B2:B25,"COME")-COUNTIF(B2:B25,"COMS")-COUNTIF(B2:B25,"COMT")-COUNTIF(B2:B25,"DESC")-COUNTIF(B2:B25,"KATC")-COUNTIF(B2:B25,"LICR")-COUNTIF(B2:B25,"MATF")-COUNTIF(B2:B25,"MCAE")-COUNTIF(B2:B25,"MCHC")-COUNTIF(B2:B25,"MCOR")-COUNTIF(B2:B25,"MDBM")-COUNTIF(B2:B25,"MDOC")-COUNTIF(B2:B25,"MENT")-COUNTIF(B2:B25,"MGST")-COUNTIF(B2:B25,"MINS")-COUNTIF(B2:B25,"MOFI")-COUNTIF(B2:B25,"MPRO")-COUNTIF(B2:B25,"MSMS")-COUNTIF(B2:B25,"NCHC")-COUNTIF(B2:B25,"NENT")-COUNTIF(B2:B25,"NINS")-COUNTIF(B2:B25,"SIND")-COUNTIF(B2:B25,"TATF")-COUNTIF(B2:B25,"TCAE")-COUNTIF(B2:B25,"TCHC")-COUNTIF(B2:B25,"TCOR")-COUNTIF(B2:B25,"TDBM")-COUNTIF(B2:B25,"TDOC")-COUNTIF(B2:B25,"TENT")-COUNTIF(B2:B25,"TGST")-COUNTIF(B2:B25,"TINS")-COUNTIF(B2:B25,"TOFI")-COUNTIF(B2:B25,"TPRO")-COUNTIF(B2:B25,"TROP")-COUNTIF(B2:B25,"TSMS")-COUNTIF(B2:B25,"VACA")-COUNTIF(B2:B25,"X")-COUNTIF(B2:B25,"XATC")-COUNTIF(B2:B25,"YATC")-COUNTIF(B2:B25,"ZATC")</f>
+        <f t="shared" ref="B27:AF27" si="0">COUNTBLANK(B2:B25)+COUNTIF(B2:B25,"&lt;&gt;")-COUNTIF(B2:B25,"ACHC")-COUNTIF(B2:B25,"AENT")-COUNTIF(B2:B25,"AINS")-COUNTIF(B2:B25,"ATC")-COUNTIF(B2:B25,"CAPA")-COUNTIF(B2:B25,"CERT")-COUNTIF(B2:B25,"CET")-COUNTIF(B2:B25,"CMED")-COUNTIF(B2:B25,"COME")-COUNTIF(B2:B25,"COMS")-COUNTIF(B2:B25,"COMT")-COUNTIF(B2:B25,"DESC")-COUNTIF(B2:B25,"KATC")-COUNTIF(B2:B25,"LICR")-COUNTIF(B2:B25,"MATF")-COUNTIF(B2:B25,"MCAE")-COUNTIF(B2:B25,"MCHC")-COUNTIF(B2:B25,"MCOR")-COUNTIF(B2:B25,"MDBM")-COUNTIF(B2:B25,"MDOC")-COUNTIF(B2:B25,"MENT")-COUNTIF(B2:B25,"MGST")-COUNTIF(B2:B25,"MINS")-COUNTIF(B2:B25,"MOFI")-COUNTIF(B2:B25,"MPRO")-COUNTIF(B2:B25,"MSMS")-COUNTIF(B2:B25,"NCHC")-COUNTIF(B2:B25,"NENT")-COUNTIF(B2:B25,"NINS")-COUNTIF(B2:B25,"SIND")-COUNTIF(B2:B25,"TATF")-COUNTIF(B2:B25,"TCAE")-COUNTIF(B2:B25,"TCHC")-COUNTIF(B2:B25,"TCOR")-COUNTIF(B2:B25,"TDBM")-COUNTIF(B2:B25,"TDOC")-COUNTIF(B2:B25,"TENT")-COUNTIF(B2:B25,"TGST")-COUNTIF(B2:B25,"TINS")-COUNTIF(B2:B25,"TOFI")-COUNTIF(B2:B25,"TPRO")-COUNTIF(B2:B25,"TROP")-COUNTIF(B2:B25,"TSMS")-COUNTIF(B2:B25,"VACA")-COUNTIF(B2:B25,"X")-COUNTIF(B2:B25,"XATC")-COUNTIF(B2:B25,"YATC")-COUNTIF(B2:B25,"ZATC")</f>
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
+      <c r="D27">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="1"/>
+      <c r="X27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="1"/>
+      <c r="AC27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
+      <c r="AF27">
+        <f t="shared" si="0"/>
         <v>14</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="1"/>
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="16">
+        <v>96</v>
+      </c>
+      <c r="B28" s="5">
         <v>10</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="5">
         <v>10</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="5">
         <v>10</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="5">
         <v>10</v>
       </c>
       <c r="F28">
         <v>16</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="6">
         <v>11</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="6">
         <v>11</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="6">
         <v>11</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="5">
         <v>10</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="6">
         <v>11</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="6">
         <v>11</v>
       </c>
       <c r="M28">
@@ -3422,64 +3526,64 @@
       <c r="N28">
         <v>17</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="7">
         <v>9</v>
       </c>
-      <c r="P28" s="16">
+      <c r="P28" s="5">
         <v>10</v>
       </c>
-      <c r="Q28" s="16">
+      <c r="Q28" s="5">
         <v>10</v>
       </c>
-      <c r="R28" s="16">
+      <c r="R28" s="5">
         <v>10</v>
       </c>
-      <c r="S28" s="16">
+      <c r="S28" s="5">
         <v>10</v>
       </c>
       <c r="T28">
         <v>19</v>
       </c>
-      <c r="U28" s="16">
+      <c r="U28" s="5">
         <v>10</v>
       </c>
-      <c r="V28" s="16">
+      <c r="V28" s="5">
         <v>10</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W28" s="6">
         <v>11</v>
       </c>
-      <c r="X28" s="17">
+      <c r="X28" s="6">
         <v>11</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="Y28" s="6">
         <v>11</v>
       </c>
-      <c r="Z28" s="17">
+      <c r="Z28" s="6">
         <v>11</v>
       </c>
       <c r="AA28">
         <v>18</v>
       </c>
-      <c r="AB28" s="16">
+      <c r="AB28" s="5">
         <v>10</v>
       </c>
-      <c r="AC28" s="17">
+      <c r="AC28" s="6">
         <v>11</v>
       </c>
-      <c r="AD28" s="16">
+      <c r="AD28" s="5">
         <v>10</v>
       </c>
-      <c r="AE28" s="16">
+      <c r="AE28" s="5">
         <v>10</v>
       </c>
-      <c r="AF28" s="17">
+      <c r="AF28" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3577,8 +3681,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3587,7 +3691,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3599,41 +3703,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="A1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>98</v>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -3661,15 +3765,15 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>COUNTIF(HorarioUnificado!B2:AF2,"6S")+COUNTIF(HorarioUnificado!B2:AF2,"MASRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TASRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TSAS")+COUNTIF(HorarioUnificado!B2:AF2,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B2:AF2,"6S")+COUNTIF(HorarioUnificado!B2:AF2,"MASRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TASRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TSAS")+COUNTIF(HorarioUnificado!B2:AF2,"MSAS")+COUNTIF(HorarioUnificado!B2:AF2,"ASTASR")+COUNTIF(HorarioUnificado!B2:AF2,"MASRTS")+COUNTIF(HorarioUnificado!B2:AF2,"MSTASR")+COUNTIF(HorarioUnificado!B2:AF2,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>COUNTIF(HorarioUnificado!B2:AF2,"6N")+COUNTIF(HorarioUnificado!B2:AF2,"S")+COUNTIF(HorarioUnificado!B2:AF2,"N")+COUNTIF(HorarioUnificado!B2:AF2,"MCORTS")+COUNTIF(HorarioUnificado!B2:AF2,"MCORTN")+COUNTIF(HorarioUnificado!B2:AF2,"MANRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TANRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TNAS")+COUNTIF(HorarioUnificado!B2:AF2,"MNAS")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B2:AF2,"6N")+COUNTIF(HorarioUnificado!B2:AF2,"S")+COUNTIF(HorarioUnificado!B2:AF2,"N")+COUNTIF(HorarioUnificado!B2:AF2,"MCORTS")+COUNTIF(HorarioUnificado!B2:AF2,"MCORTN")+COUNTIF(HorarioUnificado!B2:AF2,"MANRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TANRAS")+COUNTIF(HorarioUnificado!B2:AF2,"TNAS")+COUNTIF(HorarioUnificado!B2:AF2,"MNAS")+COUNTIF(HorarioUnificado!B2:AF2,"6MT")+COUNTIF(HorarioUnificado!B2:AF2,"MNTANR")+COUNTIF(HorarioUnificado!B2:AF2,"MANRTN")+COUNTIF(HorarioUnificado!B2:AF2,"ASTANR")+COUNTIF(HorarioUnificado!B2:AF2,"ASTN")</f>
+        <v>4</v>
       </c>
       <c r="I2">
-        <f>COUNTIF(HorarioUnificado!B2:AF2,"6S")+COUNTIF(HorarioUnificado!B2:AF2,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B2:AF2,"6S")+COUNTIF(HorarioUnificado!B2:AF2,"6N")+COUNTIF(HorarioUnificado!B2:AF2,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J2">
@@ -3687,7 +3791,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <f>COUNTIF(HorarioUnificado!B3:AF3,"DESC")+COUNTIF(HorarioUnificado!B3:AF3,"TROP")</f>
@@ -3710,15 +3814,15 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>COUNTIF(HorarioUnificado!B3:AF3,"6S")+COUNTIF(HorarioUnificado!B3:AF3,"MASRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TASRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TSAS")+COUNTIF(HorarioUnificado!B3:AF3,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B3:AF3,"6S")+COUNTIF(HorarioUnificado!B3:AF3,"MASRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TASRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TSAS")+COUNTIF(HorarioUnificado!B3:AF3,"MSAS")+COUNTIF(HorarioUnificado!B3:AF3,"ASTASR")+COUNTIF(HorarioUnificado!B3:AF3,"MASRTS")+COUNTIF(HorarioUnificado!B3:AF3,"MSTASR")+COUNTIF(HorarioUnificado!B3:AF3,"ASTS")</f>
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNTIF(HorarioUnificado!B3:AF3,"6N")+COUNTIF(HorarioUnificado!B3:AF3,"S")+COUNTIF(HorarioUnificado!B3:AF3,"N")+COUNTIF(HorarioUnificado!B3:AF3,"MCORTS")+COUNTIF(HorarioUnificado!B3:AF3,"MCORTN")+COUNTIF(HorarioUnificado!B3:AF3,"MANRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TANRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TNAS")+COUNTIF(HorarioUnificado!B3:AF3,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B3:AF3,"6N")+COUNTIF(HorarioUnificado!B3:AF3,"S")+COUNTIF(HorarioUnificado!B3:AF3,"N")+COUNTIF(HorarioUnificado!B3:AF3,"MCORTS")+COUNTIF(HorarioUnificado!B3:AF3,"MCORTN")+COUNTIF(HorarioUnificado!B3:AF3,"MANRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TANRAS")+COUNTIF(HorarioUnificado!B3:AF3,"TNAS")+COUNTIF(HorarioUnificado!B3:AF3,"MNAS")+COUNTIF(HorarioUnificado!B3:AF3,"6MT")+COUNTIF(HorarioUnificado!B3:AF3,"MNTANR")+COUNTIF(HorarioUnificado!B3:AF3,"MANRTN")+COUNTIF(HorarioUnificado!B3:AF3,"ASTANR")+COUNTIF(HorarioUnificado!B3:AF3,"ASTN")</f>
         <v>1</v>
       </c>
       <c r="I3">
-        <f>COUNTIF(HorarioUnificado!B3:AF3,"6S")+COUNTIF(HorarioUnificado!B3:AF3,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B3:AF3,"6S")+COUNTIF(HorarioUnificado!B3:AF3,"6N")+COUNTIF(HorarioUnificado!B3:AF3,"6MT")</f>
         <v>4</v>
       </c>
       <c r="J3">
@@ -3736,7 +3840,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <f>COUNTIF(HorarioUnificado!B4:AF4,"DESC")+COUNTIF(HorarioUnificado!B4:AF4,"TROP")</f>
@@ -3759,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIF(HorarioUnificado!B4:AF4,"6S")+COUNTIF(HorarioUnificado!B4:AF4,"MASRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TASRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TSAS")+COUNTIF(HorarioUnificado!B4:AF4,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B4:AF4,"6S")+COUNTIF(HorarioUnificado!B4:AF4,"MASRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TASRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TSAS")+COUNTIF(HorarioUnificado!B4:AF4,"MSAS")+COUNTIF(HorarioUnificado!B4:AF4,"ASTASR")+COUNTIF(HorarioUnificado!B4:AF4,"MASRTS")+COUNTIF(HorarioUnificado!B4:AF4,"MSTASR")+COUNTIF(HorarioUnificado!B4:AF4,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>COUNTIF(HorarioUnificado!B4:AF4,"6N")+COUNTIF(HorarioUnificado!B4:AF4,"S")+COUNTIF(HorarioUnificado!B4:AF4,"N")+COUNTIF(HorarioUnificado!B4:AF4,"MCORTS")+COUNTIF(HorarioUnificado!B4:AF4,"MCORTN")+COUNTIF(HorarioUnificado!B4:AF4,"MANRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TANRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TNAS")+COUNTIF(HorarioUnificado!B4:AF4,"MNAS")</f>
-        <v>12</v>
+        <f>COUNTIF(HorarioUnificado!B4:AF4,"6N")+COUNTIF(HorarioUnificado!B4:AF4,"S")+COUNTIF(HorarioUnificado!B4:AF4,"N")+COUNTIF(HorarioUnificado!B4:AF4,"MCORTS")+COUNTIF(HorarioUnificado!B4:AF4,"MCORTN")+COUNTIF(HorarioUnificado!B4:AF4,"MANRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TANRAS")+COUNTIF(HorarioUnificado!B4:AF4,"TNAS")+COUNTIF(HorarioUnificado!B4:AF4,"MNAS")+COUNTIF(HorarioUnificado!B4:AF4,"6MT")+COUNTIF(HorarioUnificado!B4:AF4,"MNTANR")+COUNTIF(HorarioUnificado!B4:AF4,"MANRTN")+COUNTIF(HorarioUnificado!B4:AF4,"ASTANR")+COUNTIF(HorarioUnificado!B4:AF4,"ASTN")</f>
+        <v>10</v>
       </c>
       <c r="I4">
-        <f>COUNTIF(HorarioUnificado!B4:AF4,"6S")+COUNTIF(HorarioUnificado!B4:AF4,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B4:AF4,"6S")+COUNTIF(HorarioUnificado!B4:AF4,"6N")+COUNTIF(HorarioUnificado!B4:AF4,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -3785,11 +3889,11 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"DESC")+COUNTIF(HorarioUnificado!B5:AF5,"TROP")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <f>COUNTIF(HorarioUnificado!B5:AF5,"1T")+COUNTIF(HorarioUnificado!B5:AF5,"7")+COUNTIF(HorarioUnificado!B5:AF5,"1")</f>
@@ -3808,15 +3912,15 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f>COUNTIF(HorarioUnificado!B5:AF5,"6S")+COUNTIF(HorarioUnificado!B5:AF5,"MASRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TASRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TSAS")+COUNTIF(HorarioUnificado!B5:AF5,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B5:AF5,"6S")+COUNTIF(HorarioUnificado!B5:AF5,"MASRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TASRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TSAS")+COUNTIF(HorarioUnificado!B5:AF5,"MSAS")+COUNTIF(HorarioUnificado!B5:AF5,"ASTASR")+COUNTIF(HorarioUnificado!B5:AF5,"MASRTS")+COUNTIF(HorarioUnificado!B5:AF5,"MSTASR")+COUNTIF(HorarioUnificado!B5:AF5,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>COUNTIF(HorarioUnificado!B5:AF5,"6N")+COUNTIF(HorarioUnificado!B5:AF5,"S")+COUNTIF(HorarioUnificado!B5:AF5,"N")+COUNTIF(HorarioUnificado!B5:AF5,"MCORTS")+COUNTIF(HorarioUnificado!B5:AF5,"MCORTN")+COUNTIF(HorarioUnificado!B5:AF5,"MANRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TANRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TNAS")+COUNTIF(HorarioUnificado!B5:AF5,"MNAS")</f>
-        <v>10</v>
+        <f>COUNTIF(HorarioUnificado!B5:AF5,"6N")+COUNTIF(HorarioUnificado!B5:AF5,"S")+COUNTIF(HorarioUnificado!B5:AF5,"N")+COUNTIF(HorarioUnificado!B5:AF5,"MCORTS")+COUNTIF(HorarioUnificado!B5:AF5,"MCORTN")+COUNTIF(HorarioUnificado!B5:AF5,"MANRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TANRAS")+COUNTIF(HorarioUnificado!B5:AF5,"TNAS")+COUNTIF(HorarioUnificado!B5:AF5,"MNAS")+COUNTIF(HorarioUnificado!B5:AF5,"6MT")+COUNTIF(HorarioUnificado!B5:AF5,"MNTANR")+COUNTIF(HorarioUnificado!B5:AF5,"MANRTN")+COUNTIF(HorarioUnificado!B5:AF5,"ASTANR")+COUNTIF(HorarioUnificado!B5:AF5,"ASTN")</f>
+        <v>4</v>
       </c>
       <c r="I5">
-        <f>COUNTIF(HorarioUnificado!B5:AF5,"6S")+COUNTIF(HorarioUnificado!B5:AF5,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B5:AF5,"6S")+COUNTIF(HorarioUnificado!B5:AF5,"6N")+COUNTIF(HorarioUnificado!B5:AF5,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J5">
@@ -3834,7 +3938,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <f>COUNTIF(HorarioUnificado!B6:AF6,"DESC")+COUNTIF(HorarioUnificado!B6:AF6,"TROP")</f>
@@ -3857,15 +3961,15 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>COUNTIF(HorarioUnificado!B6:AF6,"6S")+COUNTIF(HorarioUnificado!B6:AF6,"MASRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TASRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TSAS")+COUNTIF(HorarioUnificado!B6:AF6,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B6:AF6,"6S")+COUNTIF(HorarioUnificado!B6:AF6,"MASRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TASRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TSAS")+COUNTIF(HorarioUnificado!B6:AF6,"MSAS")+COUNTIF(HorarioUnificado!B6:AF6,"ASTASR")+COUNTIF(HorarioUnificado!B6:AF6,"MASRTS")+COUNTIF(HorarioUnificado!B6:AF6,"MSTASR")+COUNTIF(HorarioUnificado!B6:AF6,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f>COUNTIF(HorarioUnificado!B6:AF6,"6N")+COUNTIF(HorarioUnificado!B6:AF6,"S")+COUNTIF(HorarioUnificado!B6:AF6,"N")+COUNTIF(HorarioUnificado!B6:AF6,"MCORTS")+COUNTIF(HorarioUnificado!B6:AF6,"MCORTN")+COUNTIF(HorarioUnificado!B6:AF6,"MANRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TANRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TNAS")+COUNTIF(HorarioUnificado!B6:AF6,"MNAS")</f>
-        <v>9</v>
+        <f>COUNTIF(HorarioUnificado!B6:AF6,"6N")+COUNTIF(HorarioUnificado!B6:AF6,"S")+COUNTIF(HorarioUnificado!B6:AF6,"N")+COUNTIF(HorarioUnificado!B6:AF6,"MCORTS")+COUNTIF(HorarioUnificado!B6:AF6,"MCORTN")+COUNTIF(HorarioUnificado!B6:AF6,"MANRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TANRAS")+COUNTIF(HorarioUnificado!B6:AF6,"TNAS")+COUNTIF(HorarioUnificado!B6:AF6,"MNAS")+COUNTIF(HorarioUnificado!B6:AF6,"6MT")+COUNTIF(HorarioUnificado!B6:AF6,"MNTANR")+COUNTIF(HorarioUnificado!B6:AF6,"MANRTN")+COUNTIF(HorarioUnificado!B6:AF6,"ASTANR")+COUNTIF(HorarioUnificado!B6:AF6,"ASTN")</f>
+        <v>10</v>
       </c>
       <c r="I6">
-        <f>COUNTIF(HorarioUnificado!B6:AF6,"6S")+COUNTIF(HorarioUnificado!B6:AF6,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B6:AF6,"6S")+COUNTIF(HorarioUnificado!B6:AF6,"6N")+COUNTIF(HorarioUnificado!B6:AF6,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J6">
@@ -3883,7 +3987,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <f>COUNTIF(HorarioUnificado!B7:AF7,"DESC")+COUNTIF(HorarioUnificado!B7:AF7,"TROP")</f>
@@ -3906,15 +4010,15 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>COUNTIF(HorarioUnificado!B7:AF7,"6S")+COUNTIF(HorarioUnificado!B7:AF7,"MASRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TASRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TSAS")+COUNTIF(HorarioUnificado!B7:AF7,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B7:AF7,"6S")+COUNTIF(HorarioUnificado!B7:AF7,"MASRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TASRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TSAS")+COUNTIF(HorarioUnificado!B7:AF7,"MSAS")+COUNTIF(HorarioUnificado!B7:AF7,"ASTASR")+COUNTIF(HorarioUnificado!B7:AF7,"MASRTS")+COUNTIF(HorarioUnificado!B7:AF7,"MSTASR")+COUNTIF(HorarioUnificado!B7:AF7,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H7">
-        <f>COUNTIF(HorarioUnificado!B7:AF7,"6N")+COUNTIF(HorarioUnificado!B7:AF7,"S")+COUNTIF(HorarioUnificado!B7:AF7,"N")+COUNTIF(HorarioUnificado!B7:AF7,"MCORTS")+COUNTIF(HorarioUnificado!B7:AF7,"MCORTN")+COUNTIF(HorarioUnificado!B7:AF7,"MANRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TANRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TNAS")+COUNTIF(HorarioUnificado!B7:AF7,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B7:AF7,"6N")+COUNTIF(HorarioUnificado!B7:AF7,"S")+COUNTIF(HorarioUnificado!B7:AF7,"N")+COUNTIF(HorarioUnificado!B7:AF7,"MCORTS")+COUNTIF(HorarioUnificado!B7:AF7,"MCORTN")+COUNTIF(HorarioUnificado!B7:AF7,"MANRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TANRAS")+COUNTIF(HorarioUnificado!B7:AF7,"TNAS")+COUNTIF(HorarioUnificado!B7:AF7,"MNAS")+COUNTIF(HorarioUnificado!B7:AF7,"6MT")+COUNTIF(HorarioUnificado!B7:AF7,"MNTANR")+COUNTIF(HorarioUnificado!B7:AF7,"MANRTN")+COUNTIF(HorarioUnificado!B7:AF7,"ASTANR")+COUNTIF(HorarioUnificado!B7:AF7,"ASTN")</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>COUNTIF(HorarioUnificado!B7:AF7,"6S")+COUNTIF(HorarioUnificado!B7:AF7,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B7:AF7,"6S")+COUNTIF(HorarioUnificado!B7:AF7,"6N")+COUNTIF(HorarioUnificado!B7:AF7,"6MT")</f>
         <v>3</v>
       </c>
       <c r="J7">
@@ -3932,7 +4036,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <f>COUNTIF(HorarioUnificado!B8:AF8,"DESC")+COUNTIF(HorarioUnificado!B8:AF8,"TROP")</f>
@@ -3955,15 +4059,15 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>COUNTIF(HorarioUnificado!B8:AF8,"6S")+COUNTIF(HorarioUnificado!B8:AF8,"MASRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TASRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TSAS")+COUNTIF(HorarioUnificado!B8:AF8,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B8:AF8,"6S")+COUNTIF(HorarioUnificado!B8:AF8,"MASRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TASRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TSAS")+COUNTIF(HorarioUnificado!B8:AF8,"MSAS")+COUNTIF(HorarioUnificado!B8:AF8,"ASTASR")+COUNTIF(HorarioUnificado!B8:AF8,"MASRTS")+COUNTIF(HorarioUnificado!B8:AF8,"MSTASR")+COUNTIF(HorarioUnificado!B8:AF8,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>COUNTIF(HorarioUnificado!B8:AF8,"6N")+COUNTIF(HorarioUnificado!B8:AF8,"S")+COUNTIF(HorarioUnificado!B8:AF8,"N")+COUNTIF(HorarioUnificado!B8:AF8,"MCORTS")+COUNTIF(HorarioUnificado!B8:AF8,"MCORTN")+COUNTIF(HorarioUnificado!B8:AF8,"MANRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TANRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TNAS")+COUNTIF(HorarioUnificado!B8:AF8,"MNAS")</f>
-        <v>9</v>
+        <f>COUNTIF(HorarioUnificado!B8:AF8,"6N")+COUNTIF(HorarioUnificado!B8:AF8,"S")+COUNTIF(HorarioUnificado!B8:AF8,"N")+COUNTIF(HorarioUnificado!B8:AF8,"MCORTS")+COUNTIF(HorarioUnificado!B8:AF8,"MCORTN")+COUNTIF(HorarioUnificado!B8:AF8,"MANRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TANRAS")+COUNTIF(HorarioUnificado!B8:AF8,"TNAS")+COUNTIF(HorarioUnificado!B8:AF8,"MNAS")+COUNTIF(HorarioUnificado!B8:AF8,"6MT")+COUNTIF(HorarioUnificado!B8:AF8,"MNTANR")+COUNTIF(HorarioUnificado!B8:AF8,"MANRTN")+COUNTIF(HorarioUnificado!B8:AF8,"ASTANR")+COUNTIF(HorarioUnificado!B8:AF8,"ASTN")</f>
+        <v>10</v>
       </c>
       <c r="I8">
-        <f>COUNTIF(HorarioUnificado!B8:AF8,"6S")+COUNTIF(HorarioUnificado!B8:AF8,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B8:AF8,"6S")+COUNTIF(HorarioUnificado!B8:AF8,"6N")+COUNTIF(HorarioUnificado!B8:AF8,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J8">
@@ -3981,7 +4085,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <f>COUNTIF(HorarioUnificado!B9:AF9,"DESC")+COUNTIF(HorarioUnificado!B9:AF9,"TROP")</f>
@@ -4004,15 +4108,15 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <f>COUNTIF(HorarioUnificado!B9:AF9,"6S")+COUNTIF(HorarioUnificado!B9:AF9,"MASRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TASRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TSAS")+COUNTIF(HorarioUnificado!B9:AF9,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B9:AF9,"6S")+COUNTIF(HorarioUnificado!B9:AF9,"MASRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TASRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TSAS")+COUNTIF(HorarioUnificado!B9:AF9,"MSAS")+COUNTIF(HorarioUnificado!B9:AF9,"ASTASR")+COUNTIF(HorarioUnificado!B9:AF9,"MASRTS")+COUNTIF(HorarioUnificado!B9:AF9,"MSTASR")+COUNTIF(HorarioUnificado!B9:AF9,"ASTS")</f>
         <v>3</v>
       </c>
       <c r="H9">
-        <f>COUNTIF(HorarioUnificado!B9:AF9,"6N")+COUNTIF(HorarioUnificado!B9:AF9,"S")+COUNTIF(HorarioUnificado!B9:AF9,"N")+COUNTIF(HorarioUnificado!B9:AF9,"MCORTS")+COUNTIF(HorarioUnificado!B9:AF9,"MCORTN")+COUNTIF(HorarioUnificado!B9:AF9,"MANRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TANRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TNAS")+COUNTIF(HorarioUnificado!B9:AF9,"MNAS")</f>
-        <v>1</v>
+        <f>COUNTIF(HorarioUnificado!B9:AF9,"6N")+COUNTIF(HorarioUnificado!B9:AF9,"S")+COUNTIF(HorarioUnificado!B9:AF9,"N")+COUNTIF(HorarioUnificado!B9:AF9,"MCORTS")+COUNTIF(HorarioUnificado!B9:AF9,"MCORTN")+COUNTIF(HorarioUnificado!B9:AF9,"MANRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TANRAS")+COUNTIF(HorarioUnificado!B9:AF9,"TNAS")+COUNTIF(HorarioUnificado!B9:AF9,"MNAS")+COUNTIF(HorarioUnificado!B9:AF9,"6MT")+COUNTIF(HorarioUnificado!B9:AF9,"MNTANR")+COUNTIF(HorarioUnificado!B9:AF9,"MANRTN")+COUNTIF(HorarioUnificado!B9:AF9,"ASTANR")+COUNTIF(HorarioUnificado!B9:AF9,"ASTN")</f>
+        <v>2</v>
       </c>
       <c r="I9">
-        <f>COUNTIF(HorarioUnificado!B9:AF9,"6S")+COUNTIF(HorarioUnificado!B9:AF9,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B9:AF9,"6S")+COUNTIF(HorarioUnificado!B9:AF9,"6N")+COUNTIF(HorarioUnificado!B9:AF9,"6MT")</f>
         <v>4</v>
       </c>
       <c r="J9">
@@ -4030,7 +4134,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <f>COUNTIF(HorarioUnificado!B10:AF10,"DESC")+COUNTIF(HorarioUnificado!B10:AF10,"TROP")</f>
@@ -4053,15 +4157,15 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f>COUNTIF(HorarioUnificado!B10:AF10,"6S")+COUNTIF(HorarioUnificado!B10:AF10,"MASRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TASRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TSAS")+COUNTIF(HorarioUnificado!B10:AF10,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B10:AF10,"6S")+COUNTIF(HorarioUnificado!B10:AF10,"MASRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TASRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TSAS")+COUNTIF(HorarioUnificado!B10:AF10,"MSAS")+COUNTIF(HorarioUnificado!B10:AF10,"ASTASR")+COUNTIF(HorarioUnificado!B10:AF10,"MASRTS")+COUNTIF(HorarioUnificado!B10:AF10,"MSTASR")+COUNTIF(HorarioUnificado!B10:AF10,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H10">
-        <f>COUNTIF(HorarioUnificado!B10:AF10,"6N")+COUNTIF(HorarioUnificado!B10:AF10,"S")+COUNTIF(HorarioUnificado!B10:AF10,"N")+COUNTIF(HorarioUnificado!B10:AF10,"MCORTS")+COUNTIF(HorarioUnificado!B10:AF10,"MCORTN")+COUNTIF(HorarioUnificado!B10:AF10,"MANRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TANRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TNAS")+COUNTIF(HorarioUnificado!B10:AF10,"MNAS")</f>
-        <v>2</v>
+        <f>COUNTIF(HorarioUnificado!B10:AF10,"6N")+COUNTIF(HorarioUnificado!B10:AF10,"S")+COUNTIF(HorarioUnificado!B10:AF10,"N")+COUNTIF(HorarioUnificado!B10:AF10,"MCORTS")+COUNTIF(HorarioUnificado!B10:AF10,"MCORTN")+COUNTIF(HorarioUnificado!B10:AF10,"MANRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TANRAS")+COUNTIF(HorarioUnificado!B10:AF10,"TNAS")+COUNTIF(HorarioUnificado!B10:AF10,"MNAS")+COUNTIF(HorarioUnificado!B10:AF10,"6MT")+COUNTIF(HorarioUnificado!B10:AF10,"MNTANR")+COUNTIF(HorarioUnificado!B10:AF10,"MANRTN")+COUNTIF(HorarioUnificado!B10:AF10,"ASTANR")+COUNTIF(HorarioUnificado!B10:AF10,"ASTN")</f>
+        <v>3</v>
       </c>
       <c r="I10">
-        <f>COUNTIF(HorarioUnificado!B10:AF10,"6S")+COUNTIF(HorarioUnificado!B10:AF10,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B10:AF10,"6S")+COUNTIF(HorarioUnificado!B10:AF10,"6N")+COUNTIF(HorarioUnificado!B10:AF10,"6MT")</f>
         <v>4</v>
       </c>
       <c r="J10">
@@ -4079,7 +4183,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <f>COUNTIF(HorarioUnificado!B11:AF11,"DESC")+COUNTIF(HorarioUnificado!B11:AF11,"TROP")</f>
@@ -4102,15 +4206,15 @@
         <v>3</v>
       </c>
       <c r="G11">
-        <f>COUNTIF(HorarioUnificado!B11:AF11,"6S")+COUNTIF(HorarioUnificado!B11:AF11,"MASRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TASRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TSAS")+COUNTIF(HorarioUnificado!B11:AF11,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B11:AF11,"6S")+COUNTIF(HorarioUnificado!B11:AF11,"MASRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TASRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TSAS")+COUNTIF(HorarioUnificado!B11:AF11,"MSAS")+COUNTIF(HorarioUnificado!B11:AF11,"ASTASR")+COUNTIF(HorarioUnificado!B11:AF11,"MASRTS")+COUNTIF(HorarioUnificado!B11:AF11,"MSTASR")+COUNTIF(HorarioUnificado!B11:AF11,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H11">
-        <f>COUNTIF(HorarioUnificado!B11:AF11,"6N")+COUNTIF(HorarioUnificado!B11:AF11,"S")+COUNTIF(HorarioUnificado!B11:AF11,"N")+COUNTIF(HorarioUnificado!B11:AF11,"MCORTS")+COUNTIF(HorarioUnificado!B11:AF11,"MCORTN")+COUNTIF(HorarioUnificado!B11:AF11,"MANRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TANRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TNAS")+COUNTIF(HorarioUnificado!B11:AF11,"MNAS")</f>
-        <v>1</v>
+        <f>COUNTIF(HorarioUnificado!B11:AF11,"6N")+COUNTIF(HorarioUnificado!B11:AF11,"S")+COUNTIF(HorarioUnificado!B11:AF11,"N")+COUNTIF(HorarioUnificado!B11:AF11,"MCORTS")+COUNTIF(HorarioUnificado!B11:AF11,"MCORTN")+COUNTIF(HorarioUnificado!B11:AF11,"MANRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TANRAS")+COUNTIF(HorarioUnificado!B11:AF11,"TNAS")+COUNTIF(HorarioUnificado!B11:AF11,"MNAS")+COUNTIF(HorarioUnificado!B11:AF11,"6MT")+COUNTIF(HorarioUnificado!B11:AF11,"MNTANR")+COUNTIF(HorarioUnificado!B11:AF11,"MANRTN")+COUNTIF(HorarioUnificado!B11:AF11,"ASTANR")+COUNTIF(HorarioUnificado!B11:AF11,"ASTN")</f>
+        <v>2</v>
       </c>
       <c r="I11">
-        <f>COUNTIF(HorarioUnificado!B11:AF11,"6S")+COUNTIF(HorarioUnificado!B11:AF11,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B11:AF11,"6S")+COUNTIF(HorarioUnificado!B11:AF11,"6N")+COUNTIF(HorarioUnificado!B11:AF11,"6MT")</f>
         <v>3</v>
       </c>
       <c r="J11">
@@ -4128,7 +4232,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <f>COUNTIF(HorarioUnificado!B12:AF12,"DESC")+COUNTIF(HorarioUnificado!B12:AF12,"TROP")</f>
@@ -4151,15 +4255,15 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <f>COUNTIF(HorarioUnificado!B12:AF12,"6S")+COUNTIF(HorarioUnificado!B12:AF12,"MASRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TASRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TSAS")+COUNTIF(HorarioUnificado!B12:AF12,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B12:AF12,"6S")+COUNTIF(HorarioUnificado!B12:AF12,"MASRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TASRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TSAS")+COUNTIF(HorarioUnificado!B12:AF12,"MSAS")+COUNTIF(HorarioUnificado!B12:AF12,"ASTASR")+COUNTIF(HorarioUnificado!B12:AF12,"MASRTS")+COUNTIF(HorarioUnificado!B12:AF12,"MSTASR")+COUNTIF(HorarioUnificado!B12:AF12,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H12">
-        <f>COUNTIF(HorarioUnificado!B12:AF12,"6N")+COUNTIF(HorarioUnificado!B12:AF12,"S")+COUNTIF(HorarioUnificado!B12:AF12,"N")+COUNTIF(HorarioUnificado!B12:AF12,"MCORTS")+COUNTIF(HorarioUnificado!B12:AF12,"MCORTN")+COUNTIF(HorarioUnificado!B12:AF12,"MANRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TANRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TNAS")+COUNTIF(HorarioUnificado!B12:AF12,"MNAS")</f>
-        <v>2</v>
+        <f>COUNTIF(HorarioUnificado!B12:AF12,"6N")+COUNTIF(HorarioUnificado!B12:AF12,"S")+COUNTIF(HorarioUnificado!B12:AF12,"N")+COUNTIF(HorarioUnificado!B12:AF12,"MCORTS")+COUNTIF(HorarioUnificado!B12:AF12,"MCORTN")+COUNTIF(HorarioUnificado!B12:AF12,"MANRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TANRAS")+COUNTIF(HorarioUnificado!B12:AF12,"TNAS")+COUNTIF(HorarioUnificado!B12:AF12,"MNAS")+COUNTIF(HorarioUnificado!B12:AF12,"6MT")+COUNTIF(HorarioUnificado!B12:AF12,"MNTANR")+COUNTIF(HorarioUnificado!B12:AF12,"MANRTN")+COUNTIF(HorarioUnificado!B12:AF12,"ASTANR")+COUNTIF(HorarioUnificado!B12:AF12,"ASTN")</f>
+        <v>3</v>
       </c>
       <c r="I12">
-        <f>COUNTIF(HorarioUnificado!B12:AF12,"6S")+COUNTIF(HorarioUnificado!B12:AF12,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B12:AF12,"6S")+COUNTIF(HorarioUnificado!B12:AF12,"6N")+COUNTIF(HorarioUnificado!B12:AF12,"6MT")</f>
         <v>4</v>
       </c>
       <c r="J12">
@@ -4177,7 +4281,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <f>COUNTIF(HorarioUnificado!B13:AF13,"DESC")+COUNTIF(HorarioUnificado!B13:AF13,"TROP")</f>
@@ -4200,15 +4304,15 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <f>COUNTIF(HorarioUnificado!B13:AF13,"6S")+COUNTIF(HorarioUnificado!B13:AF13,"MASRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TASRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TSAS")+COUNTIF(HorarioUnificado!B13:AF13,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B13:AF13,"6S")+COUNTIF(HorarioUnificado!B13:AF13,"MASRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TASRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TSAS")+COUNTIF(HorarioUnificado!B13:AF13,"MSAS")+COUNTIF(HorarioUnificado!B13:AF13,"ASTASR")+COUNTIF(HorarioUnificado!B13:AF13,"MASRTS")+COUNTIF(HorarioUnificado!B13:AF13,"MSTASR")+COUNTIF(HorarioUnificado!B13:AF13,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>COUNTIF(HorarioUnificado!B13:AF13,"6N")+COUNTIF(HorarioUnificado!B13:AF13,"S")+COUNTIF(HorarioUnificado!B13:AF13,"N")+COUNTIF(HorarioUnificado!B13:AF13,"MCORTS")+COUNTIF(HorarioUnificado!B13:AF13,"MCORTN")+COUNTIF(HorarioUnificado!B13:AF13,"MANRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TANRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TNAS")+COUNTIF(HorarioUnificado!B13:AF13,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B13:AF13,"6N")+COUNTIF(HorarioUnificado!B13:AF13,"S")+COUNTIF(HorarioUnificado!B13:AF13,"N")+COUNTIF(HorarioUnificado!B13:AF13,"MCORTS")+COUNTIF(HorarioUnificado!B13:AF13,"MCORTN")+COUNTIF(HorarioUnificado!B13:AF13,"MANRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TANRAS")+COUNTIF(HorarioUnificado!B13:AF13,"TNAS")+COUNTIF(HorarioUnificado!B13:AF13,"MNAS")+COUNTIF(HorarioUnificado!B13:AF13,"6MT")+COUNTIF(HorarioUnificado!B13:AF13,"MNTANR")+COUNTIF(HorarioUnificado!B13:AF13,"MANRTN")+COUNTIF(HorarioUnificado!B13:AF13,"ASTANR")+COUNTIF(HorarioUnificado!B13:AF13,"ASTN")</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>COUNTIF(HorarioUnificado!B13:AF13,"6S")+COUNTIF(HorarioUnificado!B13:AF13,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B13:AF13,"6S")+COUNTIF(HorarioUnificado!B13:AF13,"6N")+COUNTIF(HorarioUnificado!B13:AF13,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J13">
@@ -4226,7 +4330,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <f>COUNTIF(HorarioUnificado!B14:AF14,"DESC")+COUNTIF(HorarioUnificado!B14:AF14,"TROP")</f>
@@ -4249,15 +4353,15 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <f>COUNTIF(HorarioUnificado!B14:AF14,"6S")+COUNTIF(HorarioUnificado!B14:AF14,"MASRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TASRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TSAS")+COUNTIF(HorarioUnificado!B14:AF14,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B14:AF14,"6S")+COUNTIF(HorarioUnificado!B14:AF14,"MASRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TASRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TSAS")+COUNTIF(HorarioUnificado!B14:AF14,"MSAS")+COUNTIF(HorarioUnificado!B14:AF14,"ASTASR")+COUNTIF(HorarioUnificado!B14:AF14,"MASRTS")+COUNTIF(HorarioUnificado!B14:AF14,"MSTASR")+COUNTIF(HorarioUnificado!B14:AF14,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H14">
-        <f>COUNTIF(HorarioUnificado!B14:AF14,"6N")+COUNTIF(HorarioUnificado!B14:AF14,"S")+COUNTIF(HorarioUnificado!B14:AF14,"N")+COUNTIF(HorarioUnificado!B14:AF14,"MCORTS")+COUNTIF(HorarioUnificado!B14:AF14,"MCORTN")+COUNTIF(HorarioUnificado!B14:AF14,"MANRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TANRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TNAS")+COUNTIF(HorarioUnificado!B14:AF14,"MNAS")</f>
-        <v>2</v>
+        <f>COUNTIF(HorarioUnificado!B14:AF14,"6N")+COUNTIF(HorarioUnificado!B14:AF14,"S")+COUNTIF(HorarioUnificado!B14:AF14,"N")+COUNTIF(HorarioUnificado!B14:AF14,"MCORTS")+COUNTIF(HorarioUnificado!B14:AF14,"MCORTN")+COUNTIF(HorarioUnificado!B14:AF14,"MANRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TANRAS")+COUNTIF(HorarioUnificado!B14:AF14,"TNAS")+COUNTIF(HorarioUnificado!B14:AF14,"MNAS")+COUNTIF(HorarioUnificado!B14:AF14,"6MT")+COUNTIF(HorarioUnificado!B14:AF14,"MNTANR")+COUNTIF(HorarioUnificado!B14:AF14,"MANRTN")+COUNTIF(HorarioUnificado!B14:AF14,"ASTANR")+COUNTIF(HorarioUnificado!B14:AF14,"ASTN")</f>
+        <v>3</v>
       </c>
       <c r="I14">
-        <f>COUNTIF(HorarioUnificado!B14:AF14,"6S")+COUNTIF(HorarioUnificado!B14:AF14,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B14:AF14,"6S")+COUNTIF(HorarioUnificado!B14:AF14,"6N")+COUNTIF(HorarioUnificado!B14:AF14,"6MT")</f>
         <v>4</v>
       </c>
       <c r="J14">
@@ -4275,7 +4379,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <f>COUNTIF(HorarioUnificado!B15:AF15,"DESC")+COUNTIF(HorarioUnificado!B15:AF15,"TROP")</f>
@@ -4298,15 +4402,15 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <f>COUNTIF(HorarioUnificado!B15:AF15,"6S")+COUNTIF(HorarioUnificado!B15:AF15,"MASRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TASRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TSAS")+COUNTIF(HorarioUnificado!B15:AF15,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B15:AF15,"6S")+COUNTIF(HorarioUnificado!B15:AF15,"MASRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TASRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TSAS")+COUNTIF(HorarioUnificado!B15:AF15,"MSAS")+COUNTIF(HorarioUnificado!B15:AF15,"ASTASR")+COUNTIF(HorarioUnificado!B15:AF15,"MASRTS")+COUNTIF(HorarioUnificado!B15:AF15,"MSTASR")+COUNTIF(HorarioUnificado!B15:AF15,"ASTS")</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>COUNTIF(HorarioUnificado!B15:AF15,"6N")+COUNTIF(HorarioUnificado!B15:AF15,"S")+COUNTIF(HorarioUnificado!B15:AF15,"N")+COUNTIF(HorarioUnificado!B15:AF15,"MCORTS")+COUNTIF(HorarioUnificado!B15:AF15,"MCORTN")+COUNTIF(HorarioUnificado!B15:AF15,"MANRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TANRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TNAS")+COUNTIF(HorarioUnificado!B15:AF15,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B15:AF15,"6N")+COUNTIF(HorarioUnificado!B15:AF15,"S")+COUNTIF(HorarioUnificado!B15:AF15,"N")+COUNTIF(HorarioUnificado!B15:AF15,"MCORTS")+COUNTIF(HorarioUnificado!B15:AF15,"MCORTN")+COUNTIF(HorarioUnificado!B15:AF15,"MANRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TANRAS")+COUNTIF(HorarioUnificado!B15:AF15,"TNAS")+COUNTIF(HorarioUnificado!B15:AF15,"MNAS")+COUNTIF(HorarioUnificado!B15:AF15,"6MT")+COUNTIF(HorarioUnificado!B15:AF15,"MNTANR")+COUNTIF(HorarioUnificado!B15:AF15,"MANRTN")+COUNTIF(HorarioUnificado!B15:AF15,"ASTANR")+COUNTIF(HorarioUnificado!B15:AF15,"ASTN")</f>
         <v>2</v>
       </c>
       <c r="I15">
-        <f>COUNTIF(HorarioUnificado!B15:AF15,"6S")+COUNTIF(HorarioUnificado!B15:AF15,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B15:AF15,"6S")+COUNTIF(HorarioUnificado!B15:AF15,"6N")+COUNTIF(HorarioUnificado!B15:AF15,"6MT")</f>
         <v>2</v>
       </c>
       <c r="J15">
@@ -4324,7 +4428,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <f>COUNTIF(HorarioUnificado!B16:AF16,"DESC")+COUNTIF(HorarioUnificado!B16:AF16,"TROP")</f>
@@ -4347,15 +4451,15 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>COUNTIF(HorarioUnificado!B16:AF16,"6S")+COUNTIF(HorarioUnificado!B16:AF16,"MASRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TASRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TSAS")+COUNTIF(HorarioUnificado!B16:AF16,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B16:AF16,"6S")+COUNTIF(HorarioUnificado!B16:AF16,"MASRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TASRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TSAS")+COUNTIF(HorarioUnificado!B16:AF16,"MSAS")+COUNTIF(HorarioUnificado!B16:AF16,"ASTASR")+COUNTIF(HorarioUnificado!B16:AF16,"MASRTS")+COUNTIF(HorarioUnificado!B16:AF16,"MSTASR")+COUNTIF(HorarioUnificado!B16:AF16,"ASTS")</f>
         <v>3</v>
       </c>
       <c r="H16">
-        <f>COUNTIF(HorarioUnificado!B16:AF16,"6N")+COUNTIF(HorarioUnificado!B16:AF16,"S")+COUNTIF(HorarioUnificado!B16:AF16,"N")+COUNTIF(HorarioUnificado!B16:AF16,"MCORTS")+COUNTIF(HorarioUnificado!B16:AF16,"MCORTN")+COUNTIF(HorarioUnificado!B16:AF16,"MANRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TANRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TNAS")+COUNTIF(HorarioUnificado!B16:AF16,"MNAS")</f>
-        <v>1</v>
+        <f>COUNTIF(HorarioUnificado!B16:AF16,"6N")+COUNTIF(HorarioUnificado!B16:AF16,"S")+COUNTIF(HorarioUnificado!B16:AF16,"N")+COUNTIF(HorarioUnificado!B16:AF16,"MCORTS")+COUNTIF(HorarioUnificado!B16:AF16,"MCORTN")+COUNTIF(HorarioUnificado!B16:AF16,"MANRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TANRAS")+COUNTIF(HorarioUnificado!B16:AF16,"TNAS")+COUNTIF(HorarioUnificado!B16:AF16,"MNAS")+COUNTIF(HorarioUnificado!B16:AF16,"6MT")+COUNTIF(HorarioUnificado!B16:AF16,"MNTANR")+COUNTIF(HorarioUnificado!B16:AF16,"MANRTN")+COUNTIF(HorarioUnificado!B16:AF16,"ASTANR")+COUNTIF(HorarioUnificado!B16:AF16,"ASTN")</f>
+        <v>2</v>
       </c>
       <c r="I16">
-        <f>COUNTIF(HorarioUnificado!B16:AF16,"6S")+COUNTIF(HorarioUnificado!B16:AF16,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B16:AF16,"6S")+COUNTIF(HorarioUnificado!B16:AF16,"6N")+COUNTIF(HorarioUnificado!B16:AF16,"6MT")</f>
         <v>4</v>
       </c>
       <c r="J16">
@@ -4373,7 +4477,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <f>COUNTIF(HorarioUnificado!B17:AF17,"DESC")+COUNTIF(HorarioUnificado!B17:AF17,"TROP")</f>
@@ -4396,15 +4500,15 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <f>COUNTIF(HorarioUnificado!B17:AF17,"6S")+COUNTIF(HorarioUnificado!B17:AF17,"MASRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TASRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TSAS")+COUNTIF(HorarioUnificado!B17:AF17,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B17:AF17,"6S")+COUNTIF(HorarioUnificado!B17:AF17,"MASRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TASRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TSAS")+COUNTIF(HorarioUnificado!B17:AF17,"MSAS")+COUNTIF(HorarioUnificado!B17:AF17,"ASTASR")+COUNTIF(HorarioUnificado!B17:AF17,"MASRTS")+COUNTIF(HorarioUnificado!B17:AF17,"MSTASR")+COUNTIF(HorarioUnificado!B17:AF17,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H17">
-        <f>COUNTIF(HorarioUnificado!B17:AF17,"6N")+COUNTIF(HorarioUnificado!B17:AF17,"S")+COUNTIF(HorarioUnificado!B17:AF17,"N")+COUNTIF(HorarioUnificado!B17:AF17,"MCORTS")+COUNTIF(HorarioUnificado!B17:AF17,"MCORTN")+COUNTIF(HorarioUnificado!B17:AF17,"MANRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TANRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TNAS")+COUNTIF(HorarioUnificado!B17:AF17,"MNAS")</f>
-        <v>1</v>
+        <f>COUNTIF(HorarioUnificado!B17:AF17,"6N")+COUNTIF(HorarioUnificado!B17:AF17,"S")+COUNTIF(HorarioUnificado!B17:AF17,"N")+COUNTIF(HorarioUnificado!B17:AF17,"MCORTS")+COUNTIF(HorarioUnificado!B17:AF17,"MCORTN")+COUNTIF(HorarioUnificado!B17:AF17,"MANRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TANRAS")+COUNTIF(HorarioUnificado!B17:AF17,"TNAS")+COUNTIF(HorarioUnificado!B17:AF17,"MNAS")+COUNTIF(HorarioUnificado!B17:AF17,"6MT")+COUNTIF(HorarioUnificado!B17:AF17,"MNTANR")+COUNTIF(HorarioUnificado!B17:AF17,"MANRTN")+COUNTIF(HorarioUnificado!B17:AF17,"ASTANR")+COUNTIF(HorarioUnificado!B17:AF17,"ASTN")</f>
+        <v>2</v>
       </c>
       <c r="I17">
-        <f>COUNTIF(HorarioUnificado!B17:AF17,"6S")+COUNTIF(HorarioUnificado!B17:AF17,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B17:AF17,"6S")+COUNTIF(HorarioUnificado!B17:AF17,"6N")+COUNTIF(HorarioUnificado!B17:AF17,"6MT")</f>
         <v>3</v>
       </c>
       <c r="J17">
@@ -4422,7 +4526,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <f>COUNTIF(HorarioUnificado!B18:AF18,"DESC")+COUNTIF(HorarioUnificado!B18:AF18,"TROP")</f>
@@ -4445,15 +4549,15 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <f>COUNTIF(HorarioUnificado!B18:AF18,"6S")+COUNTIF(HorarioUnificado!B18:AF18,"MASRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TASRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TSAS")+COUNTIF(HorarioUnificado!B18:AF18,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B18:AF18,"6S")+COUNTIF(HorarioUnificado!B18:AF18,"MASRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TASRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TSAS")+COUNTIF(HorarioUnificado!B18:AF18,"MSAS")+COUNTIF(HorarioUnificado!B18:AF18,"ASTASR")+COUNTIF(HorarioUnificado!B18:AF18,"MASRTS")+COUNTIF(HorarioUnificado!B18:AF18,"MSTASR")+COUNTIF(HorarioUnificado!B18:AF18,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H18">
-        <f>COUNTIF(HorarioUnificado!B18:AF18,"6N")+COUNTIF(HorarioUnificado!B18:AF18,"S")+COUNTIF(HorarioUnificado!B18:AF18,"N")+COUNTIF(HorarioUnificado!B18:AF18,"MCORTS")+COUNTIF(HorarioUnificado!B18:AF18,"MCORTN")+COUNTIF(HorarioUnificado!B18:AF18,"MANRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TANRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TNAS")+COUNTIF(HorarioUnificado!B18:AF18,"MNAS")</f>
-        <v>1</v>
+        <f>COUNTIF(HorarioUnificado!B18:AF18,"6N")+COUNTIF(HorarioUnificado!B18:AF18,"S")+COUNTIF(HorarioUnificado!B18:AF18,"N")+COUNTIF(HorarioUnificado!B18:AF18,"MCORTS")+COUNTIF(HorarioUnificado!B18:AF18,"MCORTN")+COUNTIF(HorarioUnificado!B18:AF18,"MANRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TANRAS")+COUNTIF(HorarioUnificado!B18:AF18,"TNAS")+COUNTIF(HorarioUnificado!B18:AF18,"MNAS")+COUNTIF(HorarioUnificado!B18:AF18,"6MT")+COUNTIF(HorarioUnificado!B18:AF18,"MNTANR")+COUNTIF(HorarioUnificado!B18:AF18,"MANRTN")+COUNTIF(HorarioUnificado!B18:AF18,"ASTANR")+COUNTIF(HorarioUnificado!B18:AF18,"ASTN")</f>
+        <v>2</v>
       </c>
       <c r="I18">
-        <f>COUNTIF(HorarioUnificado!B18:AF18,"6S")+COUNTIF(HorarioUnificado!B18:AF18,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B18:AF18,"6S")+COUNTIF(HorarioUnificado!B18:AF18,"6N")+COUNTIF(HorarioUnificado!B18:AF18,"6MT")</f>
         <v>3</v>
       </c>
       <c r="J18">
@@ -4471,7 +4575,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <f>COUNTIF(HorarioUnificado!B19:AF19,"DESC")+COUNTIF(HorarioUnificado!B19:AF19,"TROP")</f>
@@ -4494,15 +4598,15 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <f>COUNTIF(HorarioUnificado!B19:AF19,"6S")+COUNTIF(HorarioUnificado!B19:AF19,"MASRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TASRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TSAS")+COUNTIF(HorarioUnificado!B19:AF19,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B19:AF19,"6S")+COUNTIF(HorarioUnificado!B19:AF19,"MASRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TASRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TSAS")+COUNTIF(HorarioUnificado!B19:AF19,"MSAS")+COUNTIF(HorarioUnificado!B19:AF19,"ASTASR")+COUNTIF(HorarioUnificado!B19:AF19,"MASRTS")+COUNTIF(HorarioUnificado!B19:AF19,"MSTASR")+COUNTIF(HorarioUnificado!B19:AF19,"ASTS")</f>
         <v>2</v>
       </c>
       <c r="H19">
-        <f>COUNTIF(HorarioUnificado!B19:AF19,"6N")+COUNTIF(HorarioUnificado!B19:AF19,"S")+COUNTIF(HorarioUnificado!B19:AF19,"N")+COUNTIF(HorarioUnificado!B19:AF19,"MCORTS")+COUNTIF(HorarioUnificado!B19:AF19,"MCORTN")+COUNTIF(HorarioUnificado!B19:AF19,"MANRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TANRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TNAS")+COUNTIF(HorarioUnificado!B19:AF19,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B19:AF19,"6N")+COUNTIF(HorarioUnificado!B19:AF19,"S")+COUNTIF(HorarioUnificado!B19:AF19,"N")+COUNTIF(HorarioUnificado!B19:AF19,"MCORTS")+COUNTIF(HorarioUnificado!B19:AF19,"MCORTN")+COUNTIF(HorarioUnificado!B19:AF19,"MANRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TANRAS")+COUNTIF(HorarioUnificado!B19:AF19,"TNAS")+COUNTIF(HorarioUnificado!B19:AF19,"MNAS")+COUNTIF(HorarioUnificado!B19:AF19,"6MT")+COUNTIF(HorarioUnificado!B19:AF19,"MNTANR")+COUNTIF(HorarioUnificado!B19:AF19,"MANRTN")+COUNTIF(HorarioUnificado!B19:AF19,"ASTANR")+COUNTIF(HorarioUnificado!B19:AF19,"ASTN")</f>
         <v>1</v>
       </c>
       <c r="I19">
-        <f>COUNTIF(HorarioUnificado!B19:AF19,"6S")+COUNTIF(HorarioUnificado!B19:AF19,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B19:AF19,"6S")+COUNTIF(HorarioUnificado!B19:AF19,"6N")+COUNTIF(HorarioUnificado!B19:AF19,"6MT")</f>
         <v>3</v>
       </c>
       <c r="J19">
@@ -4520,7 +4624,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <f>COUNTIF(HorarioUnificado!B20:AF20,"DESC")+COUNTIF(HorarioUnificado!B20:AF20,"TROP")</f>
@@ -4543,15 +4647,15 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>COUNTIF(HorarioUnificado!B20:AF20,"6S")+COUNTIF(HorarioUnificado!B20:AF20,"MASRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TASRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TSAS")+COUNTIF(HorarioUnificado!B20:AF20,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B20:AF20,"6S")+COUNTIF(HorarioUnificado!B20:AF20,"MASRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TASRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TSAS")+COUNTIF(HorarioUnificado!B20:AF20,"MSAS")+COUNTIF(HorarioUnificado!B20:AF20,"ASTASR")+COUNTIF(HorarioUnificado!B20:AF20,"MASRTS")+COUNTIF(HorarioUnificado!B20:AF20,"MSTASR")+COUNTIF(HorarioUnificado!B20:AF20,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>COUNTIF(HorarioUnificado!B20:AF20,"6N")+COUNTIF(HorarioUnificado!B20:AF20,"S")+COUNTIF(HorarioUnificado!B20:AF20,"N")+COUNTIF(HorarioUnificado!B20:AF20,"MCORTS")+COUNTIF(HorarioUnificado!B20:AF20,"MCORTN")+COUNTIF(HorarioUnificado!B20:AF20,"MANRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TANRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TNAS")+COUNTIF(HorarioUnificado!B20:AF20,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B20:AF20,"6N")+COUNTIF(HorarioUnificado!B20:AF20,"S")+COUNTIF(HorarioUnificado!B20:AF20,"N")+COUNTIF(HorarioUnificado!B20:AF20,"MCORTS")+COUNTIF(HorarioUnificado!B20:AF20,"MCORTN")+COUNTIF(HorarioUnificado!B20:AF20,"MANRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TANRAS")+COUNTIF(HorarioUnificado!B20:AF20,"TNAS")+COUNTIF(HorarioUnificado!B20:AF20,"MNAS")+COUNTIF(HorarioUnificado!B20:AF20,"6MT")+COUNTIF(HorarioUnificado!B20:AF20,"MNTANR")+COUNTIF(HorarioUnificado!B20:AF20,"MANRTN")+COUNTIF(HorarioUnificado!B20:AF20,"ASTANR")+COUNTIF(HorarioUnificado!B20:AF20,"ASTN")</f>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>COUNTIF(HorarioUnificado!B20:AF20,"6S")+COUNTIF(HorarioUnificado!B20:AF20,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B20:AF20,"6S")+COUNTIF(HorarioUnificado!B20:AF20,"6N")+COUNTIF(HorarioUnificado!B20:AF20,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J20">
@@ -4569,7 +4673,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <f>COUNTIF(HorarioUnificado!B21:AF21,"DESC")+COUNTIF(HorarioUnificado!B21:AF21,"TROP")</f>
@@ -4592,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(HorarioUnificado!B21:AF21,"6S")+COUNTIF(HorarioUnificado!B21:AF21,"MASRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TASRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TSAS")+COUNTIF(HorarioUnificado!B21:AF21,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B21:AF21,"6S")+COUNTIF(HorarioUnificado!B21:AF21,"MASRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TASRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TSAS")+COUNTIF(HorarioUnificado!B21:AF21,"MSAS")+COUNTIF(HorarioUnificado!B21:AF21,"ASTASR")+COUNTIF(HorarioUnificado!B21:AF21,"MASRTS")+COUNTIF(HorarioUnificado!B21:AF21,"MSTASR")+COUNTIF(HorarioUnificado!B21:AF21,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>COUNTIF(HorarioUnificado!B21:AF21,"6N")+COUNTIF(HorarioUnificado!B21:AF21,"S")+COUNTIF(HorarioUnificado!B21:AF21,"N")+COUNTIF(HorarioUnificado!B21:AF21,"MCORTS")+COUNTIF(HorarioUnificado!B21:AF21,"MCORTN")+COUNTIF(HorarioUnificado!B21:AF21,"MANRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TANRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TNAS")+COUNTIF(HorarioUnificado!B21:AF21,"MNAS")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B21:AF21,"6N")+COUNTIF(HorarioUnificado!B21:AF21,"S")+COUNTIF(HorarioUnificado!B21:AF21,"N")+COUNTIF(HorarioUnificado!B21:AF21,"MCORTS")+COUNTIF(HorarioUnificado!B21:AF21,"MCORTN")+COUNTIF(HorarioUnificado!B21:AF21,"MANRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TANRAS")+COUNTIF(HorarioUnificado!B21:AF21,"TNAS")+COUNTIF(HorarioUnificado!B21:AF21,"MNAS")+COUNTIF(HorarioUnificado!B21:AF21,"6MT")+COUNTIF(HorarioUnificado!B21:AF21,"MNTANR")+COUNTIF(HorarioUnificado!B21:AF21,"MANRTN")+COUNTIF(HorarioUnificado!B21:AF21,"ASTANR")+COUNTIF(HorarioUnificado!B21:AF21,"ASTN")</f>
+        <v>1</v>
       </c>
       <c r="I21">
-        <f>COUNTIF(HorarioUnificado!B21:AF21,"6S")+COUNTIF(HorarioUnificado!B21:AF21,"6N")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B21:AF21,"6S")+COUNTIF(HorarioUnificado!B21:AF21,"6N")+COUNTIF(HorarioUnificado!B21:AF21,"6MT")</f>
+        <v>1</v>
       </c>
       <c r="J21">
         <f>COUNTIF(HorarioUnificado!B21:AF21,"BANTD")+COUNTIF(HorarioUnificado!B21:AF21,"BLPTD")+6*COUNTIF(HorarioUnificado!B21:AF21,"6ND")+6*COUNTIF(HorarioUnificado!B21:AF21,"6SN")+6*COUNTIF(HorarioUnificado!B21:AF21,"6MTD")</f>
@@ -4618,7 +4722,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <f>COUNTIF(HorarioUnificado!B22:AF22,"DESC")+COUNTIF(HorarioUnificado!B22:AF22,"TROP")</f>
@@ -4641,15 +4745,15 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <f>COUNTIF(HorarioUnificado!B22:AF22,"6S")+COUNTIF(HorarioUnificado!B22:AF22,"MASRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TASRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TSAS")+COUNTIF(HorarioUnificado!B22:AF22,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B22:AF22,"6S")+COUNTIF(HorarioUnificado!B22:AF22,"MASRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TASRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TSAS")+COUNTIF(HorarioUnificado!B22:AF22,"MSAS")+COUNTIF(HorarioUnificado!B22:AF22,"ASTASR")+COUNTIF(HorarioUnificado!B22:AF22,"MASRTS")+COUNTIF(HorarioUnificado!B22:AF22,"MSTASR")+COUNTIF(HorarioUnificado!B22:AF22,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>COUNTIF(HorarioUnificado!B22:AF22,"6N")+COUNTIF(HorarioUnificado!B22:AF22,"S")+COUNTIF(HorarioUnificado!B22:AF22,"N")+COUNTIF(HorarioUnificado!B22:AF22,"MCORTS")+COUNTIF(HorarioUnificado!B22:AF22,"MCORTN")+COUNTIF(HorarioUnificado!B22:AF22,"MANRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TANRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TNAS")+COUNTIF(HorarioUnificado!B22:AF22,"MNAS")</f>
+        <f>COUNTIF(HorarioUnificado!B22:AF22,"6N")+COUNTIF(HorarioUnificado!B22:AF22,"S")+COUNTIF(HorarioUnificado!B22:AF22,"N")+COUNTIF(HorarioUnificado!B22:AF22,"MCORTS")+COUNTIF(HorarioUnificado!B22:AF22,"MCORTN")+COUNTIF(HorarioUnificado!B22:AF22,"MANRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TANRAS")+COUNTIF(HorarioUnificado!B22:AF22,"TNAS")+COUNTIF(HorarioUnificado!B22:AF22,"MNAS")+COUNTIF(HorarioUnificado!B22:AF22,"6MT")+COUNTIF(HorarioUnificado!B22:AF22,"MNTANR")+COUNTIF(HorarioUnificado!B22:AF22,"MANRTN")+COUNTIF(HorarioUnificado!B22:AF22,"ASTANR")+COUNTIF(HorarioUnificado!B22:AF22,"ASTN")</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>COUNTIF(HorarioUnificado!B22:AF22,"6S")+COUNTIF(HorarioUnificado!B22:AF22,"6N")</f>
+        <f>COUNTIF(HorarioUnificado!B22:AF22,"6S")+COUNTIF(HorarioUnificado!B22:AF22,"6N")+COUNTIF(HorarioUnificado!B22:AF22,"6MT")</f>
         <v>0</v>
       </c>
       <c r="J22">
@@ -4667,7 +4771,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <f>COUNTIF(HorarioUnificado!B23:AF23,"DESC")+COUNTIF(HorarioUnificado!B23:AF23,"TROP")</f>
@@ -4690,16 +4794,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f>COUNTIF(HorarioUnificado!B23:AF23,"6S")+COUNTIF(HorarioUnificado!B23:AF23,"MASRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TASRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TSAS")+COUNTIF(HorarioUnificado!B23:AF23,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B23:AF23,"6S")+COUNTIF(HorarioUnificado!B23:AF23,"MASRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TASRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TSAS")+COUNTIF(HorarioUnificado!B23:AF23,"MSAS")+COUNTIF(HorarioUnificado!B23:AF23,"ASTASR")+COUNTIF(HorarioUnificado!B23:AF23,"MASRTS")+COUNTIF(HorarioUnificado!B23:AF23,"MSTASR")+COUNTIF(HorarioUnificado!B23:AF23,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>COUNTIF(HorarioUnificado!B23:AF23,"6N")+COUNTIF(HorarioUnificado!B23:AF23,"S")+COUNTIF(HorarioUnificado!B23:AF23,"N")+COUNTIF(HorarioUnificado!B23:AF23,"MCORTS")+COUNTIF(HorarioUnificado!B23:AF23,"MCORTN")+COUNTIF(HorarioUnificado!B23:AF23,"MANRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TANRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TNAS")+COUNTIF(HorarioUnificado!B23:AF23,"MNAS")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B23:AF23,"6N")+COUNTIF(HorarioUnificado!B23:AF23,"S")+COUNTIF(HorarioUnificado!B23:AF23,"N")+COUNTIF(HorarioUnificado!B23:AF23,"MCORTS")+COUNTIF(HorarioUnificado!B23:AF23,"MCORTN")+COUNTIF(HorarioUnificado!B23:AF23,"MANRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TANRAS")+COUNTIF(HorarioUnificado!B23:AF23,"TNAS")+COUNTIF(HorarioUnificado!B23:AF23,"MNAS")+COUNTIF(HorarioUnificado!B23:AF23,"6MT")+COUNTIF(HorarioUnificado!B23:AF23,"MNTANR")+COUNTIF(HorarioUnificado!B23:AF23,"MANRTN")+COUNTIF(HorarioUnificado!B23:AF23,"ASTANR")+COUNTIF(HorarioUnificado!B23:AF23,"ASTN")</f>
+        <v>1</v>
       </c>
       <c r="I23">
-        <f>COUNTIF(HorarioUnificado!B23:AF23,"6S")+COUNTIF(HorarioUnificado!B23:AF23,"6N")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B23:AF23,"6S")+COUNTIF(HorarioUnificado!B23:AF23,"6N")+COUNTIF(HorarioUnificado!B23:AF23,"6MT")</f>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>COUNTIF(HorarioUnificado!B23:AF23,"BANTD")+COUNTIF(HorarioUnificado!B23:AF23,"BLPTD")+6*COUNTIF(HorarioUnificado!B23:AF23,"6ND")+6*COUNTIF(HorarioUnificado!B23:AF23,"6SN")+6*COUNTIF(HorarioUnificado!B23:AF23,"6MTD")</f>
@@ -4716,7 +4820,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"DESC")+COUNTIF(HorarioUnificado!B24:AF24,"TROP")</f>
@@ -4739,16 +4843,16 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <f>COUNTIF(HorarioUnificado!B24:AF24,"6S")+COUNTIF(HorarioUnificado!B24:AF24,"MASRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TASRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TSAS")+COUNTIF(HorarioUnificado!B24:AF24,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B24:AF24,"6S")+COUNTIF(HorarioUnificado!B24:AF24,"MASRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TASRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TSAS")+COUNTIF(HorarioUnificado!B24:AF24,"MSAS")+COUNTIF(HorarioUnificado!B24:AF24,"ASTASR")+COUNTIF(HorarioUnificado!B24:AF24,"MASRTS")+COUNTIF(HorarioUnificado!B24:AF24,"MSTASR")+COUNTIF(HorarioUnificado!B24:AF24,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>COUNTIF(HorarioUnificado!B24:AF24,"6N")+COUNTIF(HorarioUnificado!B24:AF24,"S")+COUNTIF(HorarioUnificado!B24:AF24,"N")+COUNTIF(HorarioUnificado!B24:AF24,"MCORTS")+COUNTIF(HorarioUnificado!B24:AF24,"MCORTN")+COUNTIF(HorarioUnificado!B24:AF24,"MANRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TANRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TNAS")+COUNTIF(HorarioUnificado!B24:AF24,"MNAS")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B24:AF24,"6N")+COUNTIF(HorarioUnificado!B24:AF24,"S")+COUNTIF(HorarioUnificado!B24:AF24,"N")+COUNTIF(HorarioUnificado!B24:AF24,"MCORTS")+COUNTIF(HorarioUnificado!B24:AF24,"MCORTN")+COUNTIF(HorarioUnificado!B24:AF24,"MANRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TANRAS")+COUNTIF(HorarioUnificado!B24:AF24,"TNAS")+COUNTIF(HorarioUnificado!B24:AF24,"MNAS")+COUNTIF(HorarioUnificado!B24:AF24,"6MT")+COUNTIF(HorarioUnificado!B24:AF24,"MNTANR")+COUNTIF(HorarioUnificado!B24:AF24,"MANRTN")+COUNTIF(HorarioUnificado!B24:AF24,"ASTANR")+COUNTIF(HorarioUnificado!B24:AF24,"ASTN")</f>
+        <v>1</v>
       </c>
       <c r="I24">
-        <f>COUNTIF(HorarioUnificado!B24:AF24,"6S")+COUNTIF(HorarioUnificado!B24:AF24,"6N")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B24:AF24,"6S")+COUNTIF(HorarioUnificado!B24:AF24,"6N")+COUNTIF(HorarioUnificado!B24:AF24,"6MT")</f>
+        <v>1</v>
       </c>
       <c r="J24">
         <f>COUNTIF(HorarioUnificado!B24:AF24,"BANTD")+COUNTIF(HorarioUnificado!B24:AF24,"BLPTD")+6*COUNTIF(HorarioUnificado!B24:AF24,"6ND")+6*COUNTIF(HorarioUnificado!B24:AF24,"6SN")+6*COUNTIF(HorarioUnificado!B24:AF24,"6MTD")</f>
@@ -4765,7 +4869,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"DESC")+COUNTIF(HorarioUnificado!B25:AF25,"TROP")</f>
@@ -4788,16 +4892,16 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <f>COUNTIF(HorarioUnificado!B25:AF25,"6S")+COUNTIF(HorarioUnificado!B25:AF25,"MASRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TASRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TSAS")+COUNTIF(HorarioUnificado!B25:AF25,"MSAS")</f>
+        <f>COUNTIF(HorarioUnificado!B25:AF25,"6S")+COUNTIF(HorarioUnificado!B25:AF25,"MASRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TASRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TSAS")+COUNTIF(HorarioUnificado!B25:AF25,"MSAS")+COUNTIF(HorarioUnificado!B25:AF25,"ASTASR")+COUNTIF(HorarioUnificado!B25:AF25,"MASRTS")+COUNTIF(HorarioUnificado!B25:AF25,"MSTASR")+COUNTIF(HorarioUnificado!B25:AF25,"ASTS")</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>COUNTIF(HorarioUnificado!B25:AF25,"6N")+COUNTIF(HorarioUnificado!B25:AF25,"S")+COUNTIF(HorarioUnificado!B25:AF25,"N")+COUNTIF(HorarioUnificado!B25:AF25,"MCORTS")+COUNTIF(HorarioUnificado!B25:AF25,"MCORTN")+COUNTIF(HorarioUnificado!B25:AF25,"MANRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TANRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TNAS")+COUNTIF(HorarioUnificado!B25:AF25,"MNAS")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B25:AF25,"6N")+COUNTIF(HorarioUnificado!B25:AF25,"S")+COUNTIF(HorarioUnificado!B25:AF25,"N")+COUNTIF(HorarioUnificado!B25:AF25,"MCORTS")+COUNTIF(HorarioUnificado!B25:AF25,"MCORTN")+COUNTIF(HorarioUnificado!B25:AF25,"MANRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TANRAS")+COUNTIF(HorarioUnificado!B25:AF25,"TNAS")+COUNTIF(HorarioUnificado!B25:AF25,"MNAS")+COUNTIF(HorarioUnificado!B25:AF25,"6MT")+COUNTIF(HorarioUnificado!B25:AF25,"MNTANR")+COUNTIF(HorarioUnificado!B25:AF25,"MANRTN")+COUNTIF(HorarioUnificado!B25:AF25,"ASTANR")+COUNTIF(HorarioUnificado!B25:AF25,"ASTN")</f>
+        <v>1</v>
       </c>
       <c r="I25">
-        <f>COUNTIF(HorarioUnificado!B25:AF25,"6S")+COUNTIF(HorarioUnificado!B25:AF25,"6N")</f>
-        <v>0</v>
+        <f>COUNTIF(HorarioUnificado!B25:AF25,"6S")+COUNTIF(HorarioUnificado!B25:AF25,"6N")+COUNTIF(HorarioUnificado!B25:AF25,"6MT")</f>
+        <v>1</v>
       </c>
       <c r="J25">
         <f>COUNTIF(HorarioUnificado!B25:AF25,"BANTD")+COUNTIF(HorarioUnificado!B25:AF25,"BLPTD")+6*COUNTIF(HorarioUnificado!B25:AF25,"6ND")+6*COUNTIF(HorarioUnificado!B25:AF25,"6SN")+6*COUNTIF(HorarioUnificado!B25:AF25,"6MTD")</f>

--- a/horarioUnificado_con_mofis.xlsx
+++ b/horarioUnificado_con_mofis.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="108">
   <si>
     <t>SIGLA ATCO</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>MCORTS</t>
+  </si>
+  <si>
+    <t>MNAS</t>
   </si>
 </sst>
 </file>
@@ -386,16 +389,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -857,7 +863,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2"/>
+      <selection pane="topRight" activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1162,7 +1168,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>49</v>
@@ -1174,7 +1180,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>36</v>
@@ -1213,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>36</v>
@@ -1263,7 +1269,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>35</v>
@@ -1275,7 +1281,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>48</v>
@@ -1293,7 +1299,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>52</v>
@@ -1343,8 +1349,8 @@
       <c r="AB5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="11" t="s">
-        <v>52</v>
+      <c r="AC5" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="AD5" s="10" t="s">
         <v>37</v>
@@ -1408,17 +1414,17 @@
       <c r="P6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>35</v>
+      <c r="Q6" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="R6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="11" t="s">
-        <v>50</v>
+      <c r="S6" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>48</v>
@@ -1430,7 +1436,7 @@
         <v>37</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>35</v>
@@ -1630,13 +1636,13 @@
         <v>35</v>
       </c>
       <c r="AA8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC8" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="AD8" s="11" t="s">
         <v>48</v>
@@ -1764,7 +1770,7 @@
         <v>57</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>37</v>
@@ -2121,7 +2127,6 @@
       <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="15"/>
       <c r="G14" s="19" t="s">
         <v>56</v>
       </c>
@@ -2218,7 +2223,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>56</v>
@@ -3420,7 +3425,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R27">
         <f t="shared" si="0"/>
@@ -3428,7 +3433,7 @@
       </c>
       <c r="S27">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
@@ -3468,7 +3473,7 @@
       </c>
       <c r="AC27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD27">
         <f t="shared" si="0"/>
@@ -3691,7 +3696,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
